--- a/Reference_accumulated_2022.xlsx
+++ b/Reference_accumulated_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_program_last_Price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6A5EB-F9E1-4FF6-B3C1-AE67D4599F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7778C24-149A-4947-869D-ECB770427A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="972" windowWidth="19896" windowHeight="11388" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1572,8 +1572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E83C2-AD12-448E-BE1F-6285F70594CB}">
   <dimension ref="A1:ED242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL226" workbookViewId="0">
-      <selection activeCell="DM215" sqref="A215:XFD215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="DL2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="DY14" sqref="DY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Reference_accumulated_2022.xlsx
+++ b/Reference_accumulated_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7778C24-149A-4947-869D-ECB770427A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934F4829-9F01-4308-B5A0-4B407A9982E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="385">
   <si>
     <t>Country</t>
   </si>
@@ -1172,6 +1172,24 @@
   <si>
     <t>Middle East</t>
   </si>
+  <si>
+    <t>2021 - IRENA</t>
+  </si>
+  <si>
+    <t>2021 - IRENA s</t>
+  </si>
+  <si>
+    <t>2021 - ITC</t>
+  </si>
+  <si>
+    <t>2021 - PVPS</t>
+  </si>
+  <si>
+    <t>2021 - Other</t>
+  </si>
+  <si>
+    <t>2021 - Total</t>
+  </si>
 </sst>
 </file>
 
@@ -1570,13 +1588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E83C2-AD12-448E-BE1F-6285F70594CB}">
-  <dimension ref="A1:ED242"/>
+  <dimension ref="A1:EJ242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DY14" sqref="DY14"/>
+      <selection pane="bottomRight" activeCell="EF6" sqref="EF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1602,7 @@
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1987,8 +2005,26 @@
       <c r="ED1" t="s">
         <v>133</v>
       </c>
+      <c r="EE1" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="EF1" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="EG1" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="EH1" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI1" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="EJ1" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>369</v>
       </c>
@@ -2029,7 +2065,7 @@
         <v>64351</v>
       </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>370</v>
       </c>
@@ -2070,7 +2106,7 @@
         <v>422172</v>
       </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -2111,7 +2147,7 @@
         <v>164049.4</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>372</v>
       </c>
@@ -2152,7 +2188,7 @@
         <v>7993</v>
       </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>373</v>
       </c>
@@ -2193,7 +2229,7 @@
         <v>105594</v>
       </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>374</v>
       </c>
@@ -2234,7 +2270,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>375</v>
       </c>
@@ -2275,7 +2311,7 @@
         <v>12722.5</v>
       </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>376</v>
       </c>
@@ -2316,7 +2352,7 @@
         <v>9639</v>
       </c>
     </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>377</v>
       </c>
@@ -2357,7 +2393,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>378</v>
       </c>
@@ -2398,7 +2434,7 @@
         <v>9457</v>
       </c>
     </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -2801,8 +2837,26 @@
       <c r="ED12">
         <v>31</v>
       </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3205,8 +3259,26 @@
       <c r="ED13">
         <v>17</v>
       </c>
+      <c r="EE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -3609,8 +3681,26 @@
       <c r="ED14">
         <v>423</v>
       </c>
+      <c r="EE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI14" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ14" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -4013,8 +4103,26 @@
       <c r="ED15">
         <v>5</v>
       </c>
+      <c r="EE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH15" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -4417,8 +4525,26 @@
       <c r="ED16">
         <v>3</v>
       </c>
+      <c r="EE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ16" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -4821,8 +4947,26 @@
       <c r="ED17">
         <v>13</v>
       </c>
+      <c r="EE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF17" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI17" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ17" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -5225,8 +5369,26 @@
       <c r="ED18">
         <v>2</v>
       </c>
+      <c r="EE18" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF18" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH18" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ18" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -5629,8 +5791,26 @@
       <c r="ED19">
         <v>8</v>
       </c>
+      <c r="EE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF19" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH19" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI19" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ19" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -6033,8 +6213,26 @@
       <c r="ED20">
         <v>764</v>
       </c>
+      <c r="EE20" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF20" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG20" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH20" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI20" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ20" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -6437,8 +6635,26 @@
       <c r="ED21">
         <v>95</v>
       </c>
+      <c r="EE21" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI21" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ21" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -6841,8 +7057,26 @@
       <c r="ED22">
         <v>6</v>
       </c>
+      <c r="EE22" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF22" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG22" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI22" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ22" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -7245,8 +7479,26 @@
       <c r="ED23">
         <v>20823</v>
       </c>
+      <c r="EE23" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF23" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG23" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH23" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI23" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ23" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -7649,8 +7901,26 @@
       <c r="ED24">
         <v>2043</v>
       </c>
+      <c r="EE24" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF24" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG24" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI24" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ24" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -8053,8 +8323,26 @@
       <c r="ED25" s="14">
         <v>40</v>
       </c>
+      <c r="EE25" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH25" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI25" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ25" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -8457,8 +8745,26 @@
       <c r="ED26" s="14">
         <v>2</v>
       </c>
+      <c r="EE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ26" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -8861,8 +9167,26 @@
       <c r="ED27" s="14">
         <v>10</v>
       </c>
+      <c r="EE27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ27" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -9265,8 +9589,26 @@
       <c r="ED28" s="14">
         <v>301</v>
       </c>
+      <c r="EE28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ28" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -9669,8 +10011,26 @@
       <c r="ED29" s="14">
         <v>50</v>
       </c>
+      <c r="EE29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ29" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -10073,8 +10433,26 @@
       <c r="ED30" s="14">
         <v>159</v>
       </c>
+      <c r="EE30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ30" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -10477,8 +10855,26 @@
       <c r="ED31">
         <v>6008</v>
       </c>
+      <c r="EE31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ31" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -10881,8 +11277,26 @@
       <c r="ED32">
         <v>7</v>
       </c>
+      <c r="EE32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ32" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -11285,8 +11699,26 @@
       <c r="ED33">
         <v>3</v>
       </c>
+      <c r="EE33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ33" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -11689,8 +12121,26 @@
       <c r="ED34">
         <v>0</v>
       </c>
+      <c r="EE34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ34" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -12093,8 +12543,26 @@
       <c r="ED35">
         <v>0</v>
       </c>
+      <c r="EE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ35" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -12497,8 +12965,26 @@
       <c r="ED36">
         <v>120</v>
       </c>
+      <c r="EE36" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF36" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG36" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH36" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI36" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ36" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -12901,8 +13387,26 @@
       <c r="ED37" s="14">
         <v>35</v>
       </c>
+      <c r="EE37" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF37" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG37" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH37" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI37" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ37" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -13305,8 +13809,26 @@
       <c r="ED38">
         <v>6</v>
       </c>
+      <c r="EE38" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF38" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG38" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH38" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI38" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ38" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -13709,8 +14231,26 @@
       <c r="ED39">
         <v>7612.5</v>
       </c>
+      <c r="EE39" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF39" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG39" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH39" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI39" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ39" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -14113,8 +14653,26 @@
       <c r="ED40">
         <v>0</v>
       </c>
+      <c r="EE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF40" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG40" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH40" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI40" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ40" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -14517,8 +15075,26 @@
       <c r="ED41">
         <v>1</v>
       </c>
+      <c r="EE41" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF41" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG41" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH41" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI41" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ41" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -14921,8 +15497,26 @@
       <c r="ED42">
         <v>1152</v>
       </c>
+      <c r="EE42" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF42" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG42" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH42" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI42" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ42" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -15325,8 +15919,26 @@
       <c r="ED43">
         <v>62</v>
       </c>
+      <c r="EE43" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF43" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG43" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH43" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI43" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ43" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>171</v>
       </c>
@@ -15729,8 +16341,26 @@
       <c r="ED44">
         <v>5</v>
       </c>
+      <c r="EE44" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF44" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG44" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH44" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI44" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ44" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -16133,8 +16763,26 @@
       <c r="ED45">
         <v>8</v>
       </c>
+      <c r="EE45" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF45" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG45" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH45" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI45" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ45" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -16537,8 +17185,26 @@
       <c r="ED46">
         <v>208</v>
       </c>
+      <c r="EE46" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF46" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG46" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH46" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI46" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ46" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -16941,8 +17607,26 @@
       <c r="ED47" s="14">
         <v>14</v>
       </c>
+      <c r="EE47" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF47" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG47" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH47" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI47" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ47" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -17345,8 +18029,26 @@
       <c r="ED48">
         <v>3525</v>
       </c>
+      <c r="EE48" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF48" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG48" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH48" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI48" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ48" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -17749,8 +18451,26 @@
       <c r="ED49">
         <v>7</v>
       </c>
+      <c r="EE49" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF49" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG49" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH49" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI49" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ49" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -18153,8 +18873,26 @@
       <c r="ED50" s="14">
         <v>13</v>
       </c>
+      <c r="EE50" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF50" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG50" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH50" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI50" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ50" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>178</v>
       </c>
@@ -18557,8 +19295,26 @@
       <c r="ED51">
         <v>0</v>
       </c>
+      <c r="EE51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI51" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ51" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -18961,8 +19717,26 @@
       <c r="ED52">
         <v>0</v>
       </c>
+      <c r="EE52" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF52" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG52" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH52" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI52" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ52" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -19365,8 +20139,26 @@
       <c r="ED53">
         <v>0</v>
       </c>
+      <c r="EE53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI53" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ53" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -19769,8 +20561,26 @@
       <c r="ED54">
         <v>3484</v>
       </c>
+      <c r="EE54" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF54" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG54" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH54" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI54" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ54" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -20173,8 +20983,26 @@
       <c r="ED55">
         <v>253640</v>
       </c>
+      <c r="EE55" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF55" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG55" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH55" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI55" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ55" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -20577,8 +21405,26 @@
       <c r="ED56" s="14">
         <v>107</v>
       </c>
+      <c r="EE56" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF56" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG56" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH56" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI56" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ56" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -20981,8 +21827,26 @@
       <c r="ED57">
         <v>0</v>
       </c>
+      <c r="EE57" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF57" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG57" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH57" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI57" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ57" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -21385,8 +22249,26 @@
       <c r="ED58">
         <v>1</v>
       </c>
+      <c r="EE58" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF58" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG58" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH58" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI58" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ58" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -21789,8 +22671,26 @@
       <c r="ED59">
         <v>7</v>
       </c>
+      <c r="EE59" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF59" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG59" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH59" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI59" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ59" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -22193,8 +23093,26 @@
       <c r="ED60">
         <v>57</v>
       </c>
+      <c r="EE60" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF60" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG60" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH60" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI60" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ60" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -22597,8 +23515,26 @@
       <c r="ED61">
         <v>114</v>
       </c>
+      <c r="EE61" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF61" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG61" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH61" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI61" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ61" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -23001,8 +23937,26 @@
       <c r="ED62" s="14">
         <v>163</v>
       </c>
+      <c r="EE62" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF62" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG62" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH62" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI62" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ62" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -23405,8 +24359,26 @@
       <c r="ED63">
         <v>12</v>
       </c>
+      <c r="EE63" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF63" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG63" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH63" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI63" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ63" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -23809,8 +24781,26 @@
       <c r="ED64">
         <v>200</v>
       </c>
+      <c r="EE64" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF64" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG64" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH64" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI64" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ64" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -24213,8 +25203,26 @@
       <c r="ED65">
         <v>2170</v>
       </c>
+      <c r="EE65" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF65" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG65" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH65" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI65" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ65" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -24617,8 +25625,26 @@
       <c r="ED66">
         <v>20</v>
       </c>
+      <c r="EE66" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF66" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG66" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH66" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI66" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ66" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -25021,8 +26047,26 @@
       <c r="ED67">
         <v>1624</v>
       </c>
+      <c r="EE67" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF67" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG67" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH67" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI67" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ67" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -25425,8 +26469,26 @@
       <c r="ED68">
         <v>0</v>
       </c>
+      <c r="EE68" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF68" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG68" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH68" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI68" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ68" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -25829,8 +26891,26 @@
       <c r="ED69">
         <v>0</v>
       </c>
+      <c r="EE69" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF69" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG69" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH69" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI69" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ69" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -26233,8 +27313,26 @@
       <c r="ED70" s="14">
         <v>370</v>
       </c>
+      <c r="EE70" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF70" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG70" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH70" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI70" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ70" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -26637,8 +27735,26 @@
       <c r="ED71">
         <v>1</v>
       </c>
+      <c r="EE71" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF71" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG71" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH71" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI71" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ71" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>199</v>
       </c>
@@ -27041,8 +28157,26 @@
       <c r="ED72" s="14">
         <v>28</v>
       </c>
+      <c r="EE72" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF72" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG72" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH72" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI72" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ72" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -27445,8 +28579,26 @@
       <c r="ED73" s="14">
         <v>1673</v>
       </c>
+      <c r="EE73" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF73" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG73" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI73" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ73" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -27849,8 +29001,26 @@
       <c r="ED74">
         <v>429</v>
       </c>
+      <c r="EE74" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF74" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG74" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH74" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI74" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ74" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -28253,8 +29423,26 @@
       <c r="ED75">
         <v>0</v>
       </c>
+      <c r="EE75" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF75" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG75" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH75" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI75" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ75" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -28657,8 +29845,26 @@
       <c r="ED76">
         <v>22</v>
       </c>
+      <c r="EE76" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF76" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG76" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH76" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI76" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ76" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>204</v>
       </c>
@@ -29061,8 +30267,26 @@
       <c r="ED77">
         <v>275</v>
       </c>
+      <c r="EE77" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF77" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG77" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH77" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI77" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ77" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -29465,8 +30689,26 @@
       <c r="ED78">
         <v>0</v>
       </c>
+      <c r="EE78" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF78" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG78" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH78" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI78" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ78" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>363</v>
       </c>
@@ -29869,8 +31111,26 @@
       <c r="ED79">
         <v>0</v>
       </c>
+      <c r="EE79" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF79" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG79" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH79" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI79" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ79" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -30273,8 +31533,26 @@
       <c r="ED80">
         <v>0</v>
       </c>
+      <c r="EE80" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF80" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG80" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH80" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI80" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ80" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -30677,8 +31955,26 @@
       <c r="ED81">
         <v>0</v>
       </c>
+      <c r="EE81" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF81" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG81" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH81" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI81" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ81" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -31081,8 +32377,26 @@
       <c r="ED82">
         <v>313</v>
       </c>
+      <c r="EE82" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF82" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG82" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH82" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI82" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ82" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -31485,8 +32799,26 @@
       <c r="ED83">
         <v>10920</v>
       </c>
+      <c r="EE83" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF83" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG83" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH83" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI83" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ83" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>210</v>
       </c>
@@ -31889,8 +33221,26 @@
       <c r="ED84">
         <v>55</v>
       </c>
+      <c r="EE84" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF84" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG84" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH84" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI84" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ84" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -32293,8 +33643,26 @@
       <c r="ED85">
         <v>39</v>
       </c>
+      <c r="EE85" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF85" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG85" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH85" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI85" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ85" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -32697,8 +34065,26 @@
       <c r="ED86">
         <v>1</v>
       </c>
+      <c r="EE86" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF86" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG86" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH86" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI86" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ86" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -33101,8 +34487,26 @@
       <c r="ED87">
         <v>2</v>
       </c>
+      <c r="EE87" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF87" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG87" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH87" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI87" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ87" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -33505,8 +34909,26 @@
       <c r="ED88">
         <v>1</v>
       </c>
+      <c r="EE88" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF88" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG88" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH88" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI88" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ88" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -33909,8 +35331,26 @@
       <c r="ED89">
         <v>53901</v>
       </c>
+      <c r="EE89" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF89" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG89" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH89" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI89" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ89" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>216</v>
       </c>
@@ -34313,8 +35753,26 @@
       <c r="ED90">
         <v>70</v>
       </c>
+      <c r="EE90" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF90" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG90" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH90" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI90" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ90" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>217</v>
       </c>
@@ -34717,8 +36175,26 @@
       <c r="ED91">
         <v>0</v>
       </c>
+      <c r="EE91" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF91" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG91" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH91" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI91" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ91" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -35121,8 +36597,26 @@
       <c r="ED92">
         <v>3285</v>
       </c>
+      <c r="EE92" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF92" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG92" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH92" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI92" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ92" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -35525,8 +37019,26 @@
       <c r="ED93">
         <v>0</v>
       </c>
+      <c r="EE93" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF93" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG93" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH93" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI93" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ93" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -35929,8 +37441,26 @@
       <c r="ED94">
         <v>3</v>
       </c>
+      <c r="EE94" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF94" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG94" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH94" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI94" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ94" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -36333,8 +37863,26 @@
       <c r="ED95" s="14">
         <v>85</v>
       </c>
+      <c r="EE95" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF95" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG95" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH95" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI95" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ95" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -36737,8 +38285,26 @@
       <c r="ED96">
         <v>35</v>
       </c>
+      <c r="EE96" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF96" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG96" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH96" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI96" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ96" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -37141,8 +38707,26 @@
       <c r="ED97">
         <v>101</v>
       </c>
+      <c r="EE97" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF97" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG97" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH97" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI97" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ97" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -37545,8 +39129,26 @@
       <c r="ED98">
         <v>13</v>
       </c>
+      <c r="EE98" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF98" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG98" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH98" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI98" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ98" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>364</v>
       </c>
@@ -37949,8 +39551,26 @@
       <c r="ED99">
         <v>1</v>
       </c>
+      <c r="EE99" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF99" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG99" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH99" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI99" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ99" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>225</v>
       </c>
@@ -38353,8 +39973,26 @@
       <c r="ED100">
         <v>8</v>
       </c>
+      <c r="EE100" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF100" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG100" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH100" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI100" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ100" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -38757,8 +40395,26 @@
       <c r="ED101">
         <v>3</v>
       </c>
+      <c r="EE101" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF101" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG101" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH101" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI101" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ101" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -39161,8 +40817,26 @@
       <c r="ED102">
         <v>0.22</v>
       </c>
+      <c r="EE102" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF102" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG102" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH102" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI102" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ102" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>228</v>
       </c>
@@ -39565,8 +41239,26 @@
       <c r="ED103">
         <v>514</v>
       </c>
+      <c r="EE103" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF103" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG103" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH103" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI103" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ103" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>229</v>
       </c>
@@ -39969,8 +41661,26 @@
       <c r="ED104">
         <v>0</v>
       </c>
+      <c r="EE104" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF104" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG104" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH104" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI104" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ104" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>230</v>
       </c>
@@ -40373,8 +42083,26 @@
       <c r="ED105">
         <v>2145</v>
       </c>
+      <c r="EE105" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF105" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG105" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH105" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI105" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ105" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>231</v>
       </c>
@@ -40777,8 +42505,26 @@
       <c r="ED106">
         <v>7</v>
       </c>
+      <c r="EE106" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF106" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG106" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH106" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI106" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ106" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -41181,8 +42927,26 @@
       <c r="ED107">
         <v>45918</v>
       </c>
+      <c r="EE107" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF107" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG107" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH107" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI107" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ107" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -41585,8 +43349,26 @@
       <c r="ED108">
         <v>172</v>
       </c>
+      <c r="EE108" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF108" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG108" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH108" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI108" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ108" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -41989,8 +43771,26 @@
       <c r="ED109">
         <v>414</v>
       </c>
+      <c r="EE109" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF109" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG109" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH109" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI109" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ109" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -42393,8 +44193,26 @@
       <c r="ED110">
         <v>216</v>
       </c>
+      <c r="EE110" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF110" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG110" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH110" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI110" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ110" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>236</v>
       </c>
@@ -42797,8 +44615,26 @@
       <c r="ED111">
         <v>51.6</v>
       </c>
+      <c r="EE111" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF111" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG111" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH111" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI111" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ111" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -43201,8 +45037,26 @@
       <c r="ED112">
         <v>0</v>
       </c>
+      <c r="EE112" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF112" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG112" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH112" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI112" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ112" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -43605,8 +45459,26 @@
       <c r="ED113">
         <v>2550</v>
       </c>
+      <c r="EE113" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF113" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG113" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH113" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI113" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ113" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -44009,8 +45881,26 @@
       <c r="ED114">
         <v>21650</v>
       </c>
+      <c r="EE114" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF114" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG114" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH114" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI114" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ114" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>365</v>
       </c>
@@ -44413,8 +46303,26 @@
       <c r="ED115">
         <v>13</v>
       </c>
+      <c r="EE115" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF115" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG115" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH115" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI115" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ115" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>240</v>
       </c>
@@ -44817,8 +46725,26 @@
       <c r="ED116">
         <v>93</v>
       </c>
+      <c r="EE116" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF116" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG116" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH116" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI116" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ116" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -45221,8 +47147,26 @@
       <c r="ED117">
         <v>71868</v>
       </c>
+      <c r="EE117" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF117" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG117" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH117" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI117" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ117" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -45625,8 +47569,26 @@
       <c r="ED118">
         <v>1359</v>
       </c>
+      <c r="EE118" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF118" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG118" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH118" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI118" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ118" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>243</v>
       </c>
@@ -46029,8 +47991,26 @@
       <c r="ED119" s="14">
         <v>1150</v>
       </c>
+      <c r="EE119" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF119" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG119" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH119" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI119" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ119" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -46433,8 +48413,26 @@
       <c r="ED120">
         <v>106</v>
       </c>
+      <c r="EE120" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF120" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG120" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH120" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI120" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ120" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -46837,8 +48835,26 @@
       <c r="ED121">
         <v>3</v>
       </c>
+      <c r="EE121" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF121" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG121" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH121" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI121" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ121" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -47241,8 +49257,26 @@
       <c r="ED122">
         <v>10</v>
       </c>
+      <c r="EE122" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF122" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG122" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH122" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI122" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ122" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -47645,8 +49679,26 @@
       <c r="ED123">
         <v>43</v>
       </c>
+      <c r="EE123" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF123" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG123" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH123" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI123" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ123" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>249</v>
       </c>
@@ -48049,8 +50101,26 @@
       <c r="ED124">
         <v>0</v>
       </c>
+      <c r="EE124" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF124" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG124" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH124" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI124" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ124" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -48453,8 +50523,26 @@
       <c r="ED125">
         <v>22</v>
       </c>
+      <c r="EE125" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF125" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG125" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH125" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI125" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ125" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -48857,8 +50945,26 @@
       <c r="ED126">
         <v>11</v>
       </c>
+      <c r="EE126" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF126" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG126" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH126" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI126" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ126" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -49261,8 +51367,26 @@
       <c r="ED127">
         <v>65</v>
       </c>
+      <c r="EE127" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF127" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG127" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH127" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI127" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ127" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -49665,8 +51789,26 @@
       <c r="ED128">
         <v>0</v>
       </c>
+      <c r="EE128" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF128" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG128" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH128" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI128" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ128" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -50069,8 +52211,26 @@
       <c r="ED129">
         <v>3</v>
       </c>
+      <c r="EE129" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF129" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG129" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH129" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI129" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ129" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -50473,8 +52633,26 @@
       <c r="ED130">
         <v>5</v>
       </c>
+      <c r="EE130" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF130" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG130" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH130" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI130" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ130" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -50877,8 +53055,26 @@
       <c r="ED131">
         <v>0</v>
       </c>
+      <c r="EE131" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF131" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG131" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH131" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI131" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ131" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>257</v>
       </c>
@@ -51281,8 +53477,26 @@
       <c r="ED132">
         <v>119</v>
       </c>
+      <c r="EE132" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF132" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG132" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH132" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI132" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ132" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -51685,8 +53899,26 @@
       <c r="ED133">
         <v>187.3</v>
       </c>
+      <c r="EE133" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF133" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG133" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH133" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI133" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ133" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>259</v>
       </c>
@@ -52089,8 +54321,26 @@
       <c r="ED134">
         <v>94</v>
       </c>
+      <c r="EE134" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF134" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG134" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH134" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI134" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ134" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>260</v>
       </c>
@@ -52493,8 +54743,26 @@
       <c r="ED135">
         <v>37</v>
       </c>
+      <c r="EE135" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF135" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG135" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH135" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI135" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ135" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>261</v>
       </c>
@@ -52897,8 +55165,26 @@
       <c r="ED136">
         <v>24</v>
       </c>
+      <c r="EE136" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF136" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG136" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH136" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI136" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ136" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -53301,8 +55587,26 @@
       <c r="ED137">
         <v>2300</v>
       </c>
+      <c r="EE137" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF137" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG137" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH137" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI137" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ137" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>263</v>
       </c>
@@ -53705,8 +56009,26 @@
       <c r="ED138">
         <v>0</v>
       </c>
+      <c r="EE138" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF138" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG138" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH138" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI138" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ138" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>264</v>
       </c>
@@ -54109,8 +56431,26 @@
       <c r="ED139">
         <v>70</v>
       </c>
+      <c r="EE139" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF139" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG139" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH139" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI139" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ139" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>265</v>
       </c>
@@ -54513,8 +56853,26 @@
       <c r="ED140">
         <v>166</v>
       </c>
+      <c r="EE140" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF140" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG140" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH140" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI140" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ140" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>266</v>
       </c>
@@ -54917,8 +57275,26 @@
       <c r="ED141">
         <v>2</v>
       </c>
+      <c r="EE141" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF141" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG141" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH141" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI141" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ141" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>267</v>
       </c>
@@ -55321,8 +57697,26 @@
       <c r="ED142" s="14">
         <v>71</v>
       </c>
+      <c r="EE142" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF142" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG142" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH142" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI142" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ142" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>268</v>
       </c>
@@ -55725,8 +58119,26 @@
       <c r="ED143">
         <v>88</v>
       </c>
+      <c r="EE143" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF143" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG143" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH143" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI143" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ143" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>269</v>
       </c>
@@ -56129,8 +58541,26 @@
       <c r="ED144">
         <v>83</v>
       </c>
+      <c r="EE144" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF144" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG144" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH144" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI144" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ144" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>270</v>
       </c>
@@ -56533,8 +58963,26 @@
       <c r="ED145">
         <v>15</v>
       </c>
+      <c r="EE145" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF145" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG145" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH145" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI145" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ145" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>271</v>
       </c>
@@ -56937,8 +59385,26 @@
       <c r="ED146">
         <v>6574</v>
       </c>
+      <c r="EE146" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF146" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG146" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH146" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI146" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ146" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>272</v>
       </c>
@@ -57341,8 +59807,26 @@
       <c r="ED147">
         <v>0</v>
       </c>
+      <c r="EE147" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF147" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG147" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH147" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI147" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ147" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>273</v>
       </c>
@@ -57745,8 +60229,26 @@
       <c r="ED148" s="14">
         <v>5</v>
       </c>
+      <c r="EE148" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF148" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG148" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH148" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI148" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ148" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>274</v>
       </c>
@@ -58149,8 +60651,26 @@
       <c r="ED149" s="14">
         <v>0</v>
       </c>
+      <c r="EE149" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF149" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG149" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH149" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI149" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ149" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>275</v>
       </c>
@@ -58553,8 +61073,26 @@
       <c r="ED150" s="14">
         <v>90</v>
       </c>
+      <c r="EE150" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF150" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG150" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH150" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI150" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ150" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>276</v>
       </c>
@@ -58957,8 +61495,26 @@
       <c r="ED151">
         <v>6</v>
       </c>
+      <c r="EE151" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF151" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG151" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH151" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI151" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ151" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>277</v>
       </c>
@@ -59361,8 +61917,26 @@
       <c r="ED152">
         <v>0</v>
       </c>
+      <c r="EE152" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF152" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG152" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH152" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI152" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ152" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>278</v>
       </c>
@@ -59765,8 +62339,26 @@
       <c r="ED153">
         <v>206</v>
       </c>
+      <c r="EE153" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF153" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG153" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH153" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI153" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ153" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>279</v>
       </c>
@@ -60169,8 +62761,26 @@
       <c r="ED154">
         <v>55</v>
       </c>
+      <c r="EE154" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF154" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG154" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH154" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI154" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ154" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>280</v>
       </c>
@@ -60573,8 +63183,26 @@
       <c r="ED155">
         <v>84</v>
       </c>
+      <c r="EE155" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF155" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG155" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH155" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI155" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ155" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>281</v>
       </c>
@@ -60977,8 +63605,26 @@
       <c r="ED156">
         <v>145</v>
       </c>
+      <c r="EE156" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF156" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG156" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH156" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI156" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ156" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>282</v>
       </c>
@@ -61381,8 +64027,26 @@
       <c r="ED157">
         <v>2</v>
       </c>
+      <c r="EE157" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF157" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG157" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH157" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI157" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ157" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>283</v>
       </c>
@@ -61785,8 +64449,26 @@
       <c r="ED158">
         <v>60</v>
       </c>
+      <c r="EE158" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF158" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG158" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH158" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI158" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ158" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>149</v>
       </c>
@@ -62189,8 +64871,26 @@
       <c r="ED159">
         <v>9910</v>
       </c>
+      <c r="EE159" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF159" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG159" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH159" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI159" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ159" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>284</v>
       </c>
@@ -62593,8 +65293,26 @@
       <c r="ED160">
         <v>80</v>
       </c>
+      <c r="EE160" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF160" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG160" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH160" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI160" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ160" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>285</v>
       </c>
@@ -62997,8 +65715,26 @@
       <c r="ED161" s="14">
         <v>142</v>
       </c>
+      <c r="EE161" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF161" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG161" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH161" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI161" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ161" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>286</v>
       </c>
@@ -63401,8 +66137,26 @@
       <c r="ED162" s="14">
         <v>16</v>
       </c>
+      <c r="EE162" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF162" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG162" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH162" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI162" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ162" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -63805,8 +66559,26 @@
       <c r="ED163">
         <v>27</v>
       </c>
+      <c r="EE163" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF163" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG163" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH163" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI163" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ163" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>288</v>
       </c>
@@ -64209,8 +66981,26 @@
       <c r="ED164">
         <v>28</v>
       </c>
+      <c r="EE164" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF164" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG164" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH164" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI164" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ164" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>289</v>
       </c>
@@ -64613,8 +67403,26 @@
       <c r="ED165">
         <v>1</v>
       </c>
+      <c r="EE165" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF165" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG165" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH165" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI165" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ165" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>290</v>
       </c>
@@ -65017,8 +67825,26 @@
       <c r="ED166">
         <v>0</v>
       </c>
+      <c r="EE166" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF166" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG166" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH166" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI166" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ166" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>291</v>
       </c>
@@ -65421,8 +68247,26 @@
       <c r="ED167">
         <v>42</v>
       </c>
+      <c r="EE167" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF167" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG167" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH167" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI167" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ167" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>292</v>
       </c>
@@ -65825,8 +68669,26 @@
       <c r="ED168">
         <v>160</v>
       </c>
+      <c r="EE168" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF168" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG168" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH168" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI168" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ168" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>293</v>
       </c>
@@ -66229,8 +69091,26 @@
       <c r="ED169">
         <v>109</v>
       </c>
+      <c r="EE169" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF169" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG169" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH169" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI169" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ169" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -66633,8 +69513,26 @@
       <c r="ED170">
         <v>737</v>
       </c>
+      <c r="EE170" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF170" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG170" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH170" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI170" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ170" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>295</v>
       </c>
@@ -67037,8 +69935,26 @@
       <c r="ED171">
         <v>2</v>
       </c>
+      <c r="EE171" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF171" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG171" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH171" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI171" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ171" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>296</v>
       </c>
@@ -67441,8 +70357,26 @@
       <c r="ED172">
         <v>55</v>
       </c>
+      <c r="EE172" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF172" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG172" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH172" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI172" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ172" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>297</v>
       </c>
@@ -67845,8 +70779,26 @@
       <c r="ED173">
         <v>198</v>
       </c>
+      <c r="EE173" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF173" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG173" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH173" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI173" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ173" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>298</v>
       </c>
@@ -68249,8 +71201,26 @@
       <c r="ED174">
         <v>1</v>
       </c>
+      <c r="EE174" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF174" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG174" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH174" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI174" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ174" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>299</v>
       </c>
@@ -68653,8 +71623,26 @@
       <c r="ED175">
         <v>0</v>
       </c>
+      <c r="EE175" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF175" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG175" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH175" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI175" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ175" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>300</v>
       </c>
@@ -69057,8 +72045,26 @@
       <c r="ED176">
         <v>331</v>
       </c>
+      <c r="EE176" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF176" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG176" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH176" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI176" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ176" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>301</v>
       </c>
@@ -69461,8 +72467,26 @@
       <c r="ED177" s="14">
         <v>1048</v>
       </c>
+      <c r="EE177" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF177" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG177" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH177" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI177" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ177" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>302</v>
       </c>
@@ -69865,8 +72889,26 @@
       <c r="ED178">
         <v>3901.2</v>
       </c>
+      <c r="EE178" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF178" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG178" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH178" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI178" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ178" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -70269,8 +73311,26 @@
       <c r="ED179">
         <v>1077</v>
       </c>
+      <c r="EE179" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF179" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG179" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH179" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI179" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ179" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>304</v>
       </c>
@@ -70673,8 +73733,26 @@
       <c r="ED180">
         <v>165</v>
       </c>
+      <c r="EE180" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF180" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG180" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH180" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI180" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ180" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>305</v>
       </c>
@@ -71077,8 +74155,26 @@
       <c r="ED181">
         <v>5</v>
       </c>
+      <c r="EE181" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF181" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG181" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH181" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI181" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ181" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>306</v>
       </c>
@@ -71481,8 +74577,26 @@
       <c r="ED182">
         <v>191</v>
       </c>
+      <c r="EE182" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF182" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG182" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH182" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI182" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ182" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>307</v>
       </c>
@@ -71885,8 +74999,26 @@
       <c r="ED183">
         <v>1396.8</v>
       </c>
+      <c r="EE183" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF183" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG183" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH183" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI183" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ183" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>308</v>
       </c>
@@ -72289,8 +75421,26 @@
       <c r="ED184" s="14">
         <v>1428</v>
       </c>
+      <c r="EE184" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF184" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG184" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH184" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI184" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ184" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>309</v>
       </c>
@@ -72693,8 +75843,26 @@
       <c r="ED185">
         <v>31</v>
       </c>
+      <c r="EE185" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF185" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG185" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH185" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI185" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ185" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>310</v>
       </c>
@@ -73097,8 +76265,26 @@
       <c r="ED186">
         <v>0</v>
       </c>
+      <c r="EE186" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF186" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG186" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH186" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI186" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ186" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>311</v>
       </c>
@@ -73501,8 +76687,26 @@
       <c r="ED187">
         <v>2</v>
       </c>
+      <c r="EE187" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF187" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG187" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH187" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI187" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ187" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>312</v>
       </c>
@@ -73905,8 +77109,26 @@
       <c r="ED188">
         <v>0</v>
       </c>
+      <c r="EE188" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF188" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG188" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH188" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI188" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ188" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>313</v>
       </c>
@@ -74309,8 +77531,26 @@
       <c r="ED189">
         <v>0</v>
       </c>
+      <c r="EE189" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF189" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG189" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH189" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI189" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ189" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>314</v>
       </c>
@@ -74713,8 +77953,26 @@
       <c r="ED190">
         <v>2</v>
       </c>
+      <c r="EE190" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF190" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG190" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH190" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI190" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ190" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>315</v>
       </c>
@@ -75117,8 +78375,26 @@
       <c r="ED191">
         <v>14</v>
       </c>
+      <c r="EE191" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF191" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG191" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH191" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI191" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ191" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>316</v>
       </c>
@@ -75521,8 +78797,26 @@
       <c r="ED192">
         <v>0</v>
       </c>
+      <c r="EE192" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF192" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG192" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH192" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI192" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ192" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>366</v>
       </c>
@@ -75925,8 +79219,26 @@
       <c r="ED193">
         <v>0</v>
       </c>
+      <c r="EE193" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF193" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG193" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH193" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI193" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ193" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>317</v>
       </c>
@@ -76329,8 +79641,26 @@
       <c r="ED194">
         <v>359</v>
       </c>
+      <c r="EE194" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF194" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG194" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH194" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI194" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ194" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -76733,8 +80063,26 @@
       <c r="ED195">
         <v>155</v>
       </c>
+      <c r="EE195" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF195" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG195" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH195" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI195" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ195" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>247</v>
       </c>
@@ -77137,8 +80485,26 @@
       <c r="ED196">
         <v>29</v>
       </c>
+      <c r="EE196" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF196" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG196" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH196" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI196" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ196" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>319</v>
       </c>
@@ -77541,8 +80907,26 @@
       <c r="ED197">
         <v>4</v>
       </c>
+      <c r="EE197" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF197" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG197" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH197" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI197" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ197" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>320</v>
       </c>
@@ -77945,8 +81329,26 @@
       <c r="ED198">
         <v>4</v>
       </c>
+      <c r="EE198" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF198" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG198" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH198" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI198" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ198" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>321</v>
       </c>
@@ -78349,8 +81751,26 @@
       <c r="ED199">
         <v>0</v>
       </c>
+      <c r="EE199" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF199" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG199" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH199" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI199" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ199" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>322</v>
       </c>
@@ -78753,8 +82173,26 @@
       <c r="ED200">
         <v>542</v>
       </c>
+      <c r="EE200" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF200" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG200" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH200" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI200" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ200" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>323</v>
       </c>
@@ -79157,8 +82595,26 @@
       <c r="ED201">
         <v>382.1</v>
       </c>
+      <c r="EE201" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF201" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG201" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH201" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI201" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ201" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>324</v>
       </c>
@@ -79561,8 +83017,26 @@
       <c r="ED202">
         <v>0</v>
       </c>
+      <c r="EE202" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF202" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG202" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH202" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI202" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ202" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>325</v>
       </c>
@@ -79965,8 +83439,26 @@
       <c r="ED203" s="14">
         <v>23</v>
       </c>
+      <c r="EE203" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF203" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG203" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH203" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI203" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ203" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>326</v>
       </c>
@@ -80369,8 +83861,26 @@
       <c r="ED204">
         <v>4172</v>
       </c>
+      <c r="EE204" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF204" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG204" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH204" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI204" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ204" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>327</v>
       </c>
@@ -80773,8 +84283,26 @@
       <c r="ED205">
         <v>15888</v>
       </c>
+      <c r="EE205" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF205" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG205" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH205" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI205" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ205" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>328</v>
       </c>
@@ -81177,8 +84705,26 @@
       <c r="ED206">
         <v>1</v>
       </c>
+      <c r="EE206" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF206" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG206" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH206" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI206" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ206" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>329</v>
       </c>
@@ -81581,8 +85127,26 @@
       <c r="ED207">
         <v>13603</v>
       </c>
+      <c r="EE207" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF207" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG207" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH207" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI207" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ207" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>330</v>
       </c>
@@ -81985,8 +85549,26 @@
       <c r="ED208">
         <v>230</v>
       </c>
+      <c r="EE208" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF208" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG208" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH208" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI208" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ208" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>331</v>
       </c>
@@ -82389,8 +85971,26 @@
       <c r="ED209">
         <v>19</v>
       </c>
+      <c r="EE209" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF209" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG209" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH209" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI209" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ209" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>332</v>
       </c>
@@ -82793,8 +86393,26 @@
       <c r="ED210">
         <v>7</v>
       </c>
+      <c r="EE210" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF210" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG210" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH210" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI210" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ210" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>333</v>
       </c>
@@ -83197,8 +86815,26 @@
       <c r="ED211">
         <v>1</v>
       </c>
+      <c r="EE211" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF211" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG211" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH211" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI211" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ211" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>334</v>
       </c>
@@ -83601,8 +87237,26 @@
       <c r="ED212">
         <v>1226</v>
       </c>
+      <c r="EE212" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF212" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG212" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH212" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI212" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ212" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>335</v>
       </c>
@@ -84005,8 +87659,26 @@
       <c r="ED213">
         <v>2973</v>
       </c>
+      <c r="EE213" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF213" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG213" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH213" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI213" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ213" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>336</v>
       </c>
@@ -84409,8 +88081,26 @@
       <c r="ED214">
         <v>2</v>
       </c>
+      <c r="EE214" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF214" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG214" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH214" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI214" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ214" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>337</v>
       </c>
@@ -84813,8 +88503,26 @@
       <c r="ED215" s="14">
         <v>5817</v>
       </c>
+      <c r="EE215" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF215" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG215" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH215" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI215" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ215" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>338</v>
       </c>
@@ -85217,8 +88925,26 @@
       <c r="ED216">
         <v>0</v>
       </c>
+      <c r="EE216" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF216" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG216" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH216" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI216" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ216" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>339</v>
       </c>
@@ -85621,8 +89347,26 @@
       <c r="ED217">
         <v>26</v>
       </c>
+      <c r="EE217" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF217" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG217" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH217" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI217" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ217" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -86025,8 +89769,26 @@
       <c r="ED218">
         <v>3578</v>
       </c>
+      <c r="EE218" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF218" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG218" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH218" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI218" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ218" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>341</v>
       </c>
@@ -86429,8 +90191,26 @@
       <c r="ED219">
         <v>0</v>
       </c>
+      <c r="EE219" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF219" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG219" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH219" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI219" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ219" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>342</v>
       </c>
@@ -86833,8 +90613,26 @@
       <c r="ED220">
         <v>1</v>
       </c>
+      <c r="EE220" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF220" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG220" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH220" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI220" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ220" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>343</v>
       </c>
@@ -87237,8 +91035,26 @@
       <c r="ED221">
         <v>6</v>
       </c>
+      <c r="EE221" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF221" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG221" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH221" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI221" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ221" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>344</v>
       </c>
@@ -87641,8 +91457,26 @@
       <c r="ED222">
         <v>3</v>
       </c>
+      <c r="EE222" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF222" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG222" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH222" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI222" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ222" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>345</v>
       </c>
@@ -88045,8 +91879,26 @@
       <c r="ED223">
         <v>95</v>
       </c>
+      <c r="EE223" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF223" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG223" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH223" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI223" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ223" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>346</v>
       </c>
@@ -88449,8 +92301,26 @@
       <c r="ED224">
         <v>9504</v>
       </c>
+      <c r="EE224" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF224" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG224" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH224" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI224" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ224" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>347</v>
       </c>
@@ -88853,8 +92723,26 @@
       <c r="ED225">
         <v>0</v>
       </c>
+      <c r="EE225" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF225" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG225" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH225" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI225" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ225" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>348</v>
       </c>
@@ -89257,8 +93145,26 @@
       <c r="ED226">
         <v>1</v>
       </c>
+      <c r="EE226" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF226" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG226" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH226" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI226" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ226" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>349</v>
       </c>
@@ -89661,8 +93567,26 @@
       <c r="ED227">
         <v>2</v>
       </c>
+      <c r="EE227" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF227" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG227" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH227" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI227" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ227" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>350</v>
       </c>
@@ -90065,8 +93989,26 @@
       <c r="ED228">
         <v>5</v>
       </c>
+      <c r="EE228" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF228" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG228" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH228" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI228" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ228" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>351</v>
       </c>
@@ -90469,8 +94411,26 @@
       <c r="ED229">
         <v>82</v>
       </c>
+      <c r="EE229" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF229" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG229" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH229" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI229" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ229" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>352</v>
       </c>
@@ -90873,8 +94833,26 @@
       <c r="ED230">
         <v>0</v>
       </c>
+      <c r="EE230" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF230" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG230" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH230" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI230" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ230" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>353</v>
       </c>
@@ -91277,8 +95255,26 @@
       <c r="ED231" s="14">
         <v>2439</v>
       </c>
+      <c r="EE231" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF231" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG231" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH231" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI231" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ231" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>367</v>
       </c>
@@ -91681,8 +95677,26 @@
       <c r="ED232">
         <v>13434.4</v>
       </c>
+      <c r="EE232" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF232" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG232" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH232" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI232" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ232" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>368</v>
       </c>
@@ -92085,8 +96099,26 @@
       <c r="ED233">
         <v>95495</v>
       </c>
+      <c r="EE233" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF233" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG233" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH233" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI233" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ233" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>354</v>
       </c>
@@ -92489,8 +96521,26 @@
       <c r="ED234">
         <v>0</v>
       </c>
+      <c r="EE234" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF234" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG234" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH234" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI234" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ234" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>355</v>
       </c>
@@ -92893,8 +96943,26 @@
       <c r="ED235">
         <v>0</v>
       </c>
+      <c r="EE235" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF235" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG235" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH235" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI235" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ235" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>356</v>
       </c>
@@ -93297,8 +97365,26 @@
       <c r="ED236">
         <v>3</v>
       </c>
+      <c r="EE236" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF236" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG236" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH236" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI236" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ236" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>357</v>
       </c>
@@ -93701,8 +97787,26 @@
       <c r="ED237">
         <v>5</v>
       </c>
+      <c r="EE237" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF237" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG237" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH237" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI237" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ237" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>358</v>
       </c>
@@ -94105,8 +98209,26 @@
       <c r="ED238">
         <v>0</v>
       </c>
+      <c r="EE238" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF238" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG238" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH238" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI238" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ238" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>359</v>
       </c>
@@ -94509,8 +98631,26 @@
       <c r="ED239">
         <v>18070</v>
       </c>
+      <c r="EE239" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF239" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG239" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH239" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI239" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ239" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>360</v>
       </c>
@@ -94913,8 +99053,26 @@
       <c r="ED240" s="14">
         <v>253</v>
       </c>
+      <c r="EE240" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF240" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG240" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH240" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI240" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ240" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>361</v>
       </c>
@@ -95317,8 +99475,26 @@
       <c r="ED241">
         <v>99</v>
       </c>
+      <c r="EE241" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF241" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG241" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH241" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI241" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ241" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>362</v>
       </c>
@@ -95720,6 +99896,24 @@
       </c>
       <c r="ED242">
         <v>17</v>
+      </c>
+      <c r="EE242" s="14">
+        <v>0</v>
+      </c>
+      <c r="EF242" s="14">
+        <v>0</v>
+      </c>
+      <c r="EG242" s="14">
+        <v>0</v>
+      </c>
+      <c r="EH242" s="14">
+        <v>0</v>
+      </c>
+      <c r="EI242" s="14">
+        <v>0</v>
+      </c>
+      <c r="EJ242" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Reference_accumulated_2022.xlsx
+++ b/Reference_accumulated_2022.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934F4829-9F01-4308-B5A0-4B407A9982E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD00A2A-42A4-4530-8489-A4053DDE349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="1992" windowWidth="17280" windowHeight="8964" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$EJ$242</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$EM$11:$EM$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="385">
   <si>
     <t>Country</t>
   </si>
@@ -1588,13 +1592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E83C2-AD12-448E-BE1F-6285F70594CB}">
-  <dimension ref="A1:EJ242"/>
+  <dimension ref="A1:EY242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="EA141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EF6" sqref="EF6"/>
+      <selection pane="bottomRight" activeCell="EO18" sqref="EO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1606,7 @@
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2023,8 +2027,20 @@
       <c r="EJ1" s="14" t="s">
         <v>384</v>
       </c>
+      <c r="EN1" s="14"/>
+      <c r="EO1" s="14"/>
+      <c r="EP1" s="14"/>
+      <c r="EQ1" s="14"/>
+      <c r="ER1" s="14"/>
+      <c r="ES1" s="14"/>
+      <c r="ET1" s="14"/>
+      <c r="EU1" s="14"/>
+      <c r="EV1" s="14"/>
+      <c r="EW1" s="14"/>
+      <c r="EX1" s="14"/>
+      <c r="EY1" s="14"/>
     </row>
-    <row r="2" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>369</v>
       </c>
@@ -2064,8 +2080,20 @@
       <c r="ED2" s="14">
         <v>64351</v>
       </c>
+      <c r="EN2" s="14"/>
+      <c r="EO2" s="14"/>
+      <c r="EP2" s="14"/>
+      <c r="EQ2" s="14"/>
+      <c r="ER2" s="14"/>
+      <c r="ES2" s="14"/>
+      <c r="ET2" s="14"/>
+      <c r="EU2" s="14"/>
+      <c r="EV2" s="14"/>
+      <c r="EW2" s="14"/>
+      <c r="EX2" s="14"/>
+      <c r="EY2" s="14"/>
     </row>
-    <row r="3" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>370</v>
       </c>
@@ -2105,8 +2133,20 @@
       <c r="ED3" s="14">
         <v>422172</v>
       </c>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
     </row>
-    <row r="4" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>371</v>
       </c>
@@ -2146,8 +2186,20 @@
       <c r="ED4" s="14">
         <v>164049.4</v>
       </c>
+      <c r="EN4" s="14"/>
+      <c r="EO4" s="14"/>
+      <c r="EP4" s="14"/>
+      <c r="EQ4" s="14"/>
+      <c r="ER4" s="14"/>
+      <c r="ES4" s="14"/>
+      <c r="ET4" s="14"/>
+      <c r="EU4" s="14"/>
+      <c r="EV4" s="14"/>
+      <c r="EW4" s="14"/>
+      <c r="EX4" s="14"/>
+      <c r="EY4" s="14"/>
     </row>
-    <row r="5" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>372</v>
       </c>
@@ -2187,8 +2239,20 @@
       <c r="ED5" s="14">
         <v>7993</v>
       </c>
+      <c r="EN5" s="14"/>
+      <c r="EO5" s="14"/>
+      <c r="EP5" s="14"/>
+      <c r="EQ5" s="14"/>
+      <c r="ER5" s="14"/>
+      <c r="ES5" s="14"/>
+      <c r="ET5" s="14"/>
+      <c r="EU5" s="14"/>
+      <c r="EV5" s="14"/>
+      <c r="EW5" s="14"/>
+      <c r="EX5" s="14"/>
+      <c r="EY5" s="14"/>
     </row>
-    <row r="6" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>373</v>
       </c>
@@ -2228,8 +2292,20 @@
       <c r="ED6" s="14">
         <v>105594</v>
       </c>
+      <c r="EN6" s="14"/>
+      <c r="EO6" s="14"/>
+      <c r="EP6" s="14"/>
+      <c r="EQ6" s="14"/>
+      <c r="ER6" s="14"/>
+      <c r="ES6" s="14"/>
+      <c r="ET6" s="14"/>
+      <c r="EU6" s="14"/>
+      <c r="EV6" s="14"/>
+      <c r="EW6" s="14"/>
+      <c r="EX6" s="14"/>
+      <c r="EY6" s="14"/>
     </row>
-    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>374</v>
       </c>
@@ -2269,8 +2345,20 @@
       <c r="ED7" s="14">
         <v>2037</v>
       </c>
+      <c r="EN7" s="14"/>
+      <c r="EO7" s="14"/>
+      <c r="EP7" s="14"/>
+      <c r="EQ7" s="14"/>
+      <c r="ER7" s="14"/>
+      <c r="ES7" s="14"/>
+      <c r="ET7" s="14"/>
+      <c r="EU7" s="14"/>
+      <c r="EV7" s="14"/>
+      <c r="EW7" s="14"/>
+      <c r="EX7" s="14"/>
+      <c r="EY7" s="14"/>
     </row>
-    <row r="8" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>375</v>
       </c>
@@ -2310,8 +2398,20 @@
       <c r="ED8" s="14">
         <v>12722.5</v>
       </c>
+      <c r="EN8" s="14"/>
+      <c r="EO8" s="14"/>
+      <c r="EP8" s="14"/>
+      <c r="EQ8" s="14"/>
+      <c r="ER8" s="14"/>
+      <c r="ES8" s="14"/>
+      <c r="ET8" s="14"/>
+      <c r="EU8" s="14"/>
+      <c r="EV8" s="14"/>
+      <c r="EW8" s="14"/>
+      <c r="EX8" s="14"/>
+      <c r="EY8" s="14"/>
     </row>
-    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>376</v>
       </c>
@@ -2351,8 +2451,20 @@
       <c r="ED9" s="14">
         <v>9639</v>
       </c>
+      <c r="EN9" s="14"/>
+      <c r="EO9" s="14"/>
+      <c r="EP9" s="14"/>
+      <c r="EQ9" s="14"/>
+      <c r="ER9" s="14"/>
+      <c r="ES9" s="14"/>
+      <c r="ET9" s="14"/>
+      <c r="EU9" s="14"/>
+      <c r="EV9" s="14"/>
+      <c r="EW9" s="14"/>
+      <c r="EX9" s="14"/>
+      <c r="EY9" s="14"/>
     </row>
-    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>377</v>
       </c>
@@ -2392,8 +2504,20 @@
       <c r="ED10" s="14">
         <v>21174</v>
       </c>
+      <c r="EN10" s="14"/>
+      <c r="EO10" s="14"/>
+      <c r="EP10" s="14"/>
+      <c r="EQ10" s="14"/>
+      <c r="ER10" s="14"/>
+      <c r="ES10" s="14"/>
+      <c r="ET10" s="14"/>
+      <c r="EU10" s="14"/>
+      <c r="EV10" s="14"/>
+      <c r="EW10" s="14"/>
+      <c r="EX10" s="14"/>
+      <c r="EY10" s="14"/>
     </row>
-    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>378</v>
       </c>
@@ -2433,8 +2557,20 @@
       <c r="ED11" s="14">
         <v>9457</v>
       </c>
+      <c r="EN11" s="14"/>
+      <c r="EO11" s="14"/>
+      <c r="EP11" s="14"/>
+      <c r="EQ11" s="14"/>
+      <c r="ER11" s="14"/>
+      <c r="ES11" s="14"/>
+      <c r="ET11" s="14"/>
+      <c r="EU11" s="14"/>
+      <c r="EV11" s="14"/>
+      <c r="EW11" s="14"/>
+      <c r="EX11" s="14"/>
+      <c r="EY11" s="14"/>
     </row>
-    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -2838,10 +2974,10 @@
         <v>31</v>
       </c>
       <c r="EE12">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="14">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>135</v>
       </c>
       <c r="EG12" s="14">
         <v>0</v>
@@ -2855,8 +2991,18 @@
       <c r="EJ12" s="14">
         <v>0</v>
       </c>
+      <c r="EP12" s="14"/>
+      <c r="EQ12" s="14"/>
+      <c r="ER12" s="14"/>
+      <c r="ES12" s="14"/>
+      <c r="ET12" s="14"/>
+      <c r="EU12" s="14"/>
+      <c r="EV12" s="14"/>
+      <c r="EW12" s="14"/>
+      <c r="EX12" s="14"/>
+      <c r="EY12" s="14"/>
     </row>
-    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3259,11 +3405,11 @@
       <c r="ED13">
         <v>17</v>
       </c>
-      <c r="EE13" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF13" s="14">
-        <v>0</v>
+      <c r="EE13">
+        <v>22</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>135</v>
       </c>
       <c r="EG13" s="14">
         <v>0</v>
@@ -3277,8 +3423,18 @@
       <c r="EJ13" s="14">
         <v>0</v>
       </c>
+      <c r="EP13" s="14"/>
+      <c r="EQ13" s="14"/>
+      <c r="ER13" s="14"/>
+      <c r="ES13" s="14"/>
+      <c r="ET13" s="14"/>
+      <c r="EU13" s="14"/>
+      <c r="EV13" s="14"/>
+      <c r="EW13" s="14"/>
+      <c r="EX13" s="14"/>
+      <c r="EY13" s="14"/>
     </row>
-    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -3681,11 +3837,11 @@
       <c r="ED14">
         <v>423</v>
       </c>
-      <c r="EE14" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF14" s="14">
-        <v>0</v>
+      <c r="EE14">
+        <v>423</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>135</v>
       </c>
       <c r="EG14" s="14">
         <v>0</v>
@@ -3699,8 +3855,18 @@
       <c r="EJ14" s="14">
         <v>0</v>
       </c>
+      <c r="EP14" s="14"/>
+      <c r="EQ14" s="14"/>
+      <c r="ER14" s="14"/>
+      <c r="ES14" s="14"/>
+      <c r="ET14" s="14"/>
+      <c r="EU14" s="14"/>
+      <c r="EV14" s="14"/>
+      <c r="EW14" s="14"/>
+      <c r="EX14" s="14"/>
+      <c r="EY14" s="14"/>
     </row>
-    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -4103,11 +4269,11 @@
       <c r="ED15">
         <v>5</v>
       </c>
-      <c r="EE15" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF15" s="14">
-        <v>0</v>
+      <c r="EE15">
+        <v>5</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>135</v>
       </c>
       <c r="EG15" s="14">
         <v>0</v>
@@ -4121,8 +4287,18 @@
       <c r="EJ15" s="14">
         <v>0</v>
       </c>
+      <c r="EP15" s="14"/>
+      <c r="EQ15" s="14"/>
+      <c r="ER15" s="14"/>
+      <c r="ES15" s="14"/>
+      <c r="ET15" s="14"/>
+      <c r="EU15" s="14"/>
+      <c r="EV15" s="14"/>
+      <c r="EW15" s="14"/>
+      <c r="EX15" s="14"/>
+      <c r="EY15" s="14"/>
     </row>
-    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -4525,11 +4701,11 @@
       <c r="ED16">
         <v>3</v>
       </c>
-      <c r="EE16" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF16" s="14">
-        <v>0</v>
+      <c r="EE16">
+        <v>4</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>135</v>
       </c>
       <c r="EG16" s="14">
         <v>0</v>
@@ -4543,8 +4719,18 @@
       <c r="EJ16" s="14">
         <v>0</v>
       </c>
+      <c r="EP16" s="14"/>
+      <c r="EQ16" s="14"/>
+      <c r="ER16" s="14"/>
+      <c r="ES16" s="14"/>
+      <c r="ET16" s="14"/>
+      <c r="EU16" s="14"/>
+      <c r="EV16" s="14"/>
+      <c r="EW16" s="14"/>
+      <c r="EX16" s="14"/>
+      <c r="EY16" s="14"/>
     </row>
-    <row r="17" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -4947,11 +5133,11 @@
       <c r="ED17">
         <v>13</v>
       </c>
-      <c r="EE17" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF17" s="14">
-        <v>0</v>
+      <c r="EE17">
+        <v>13</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>135</v>
       </c>
       <c r="EG17" s="14">
         <v>0</v>
@@ -4965,8 +5151,18 @@
       <c r="EJ17" s="14">
         <v>0</v>
       </c>
+      <c r="EP17" s="14"/>
+      <c r="EQ17" s="14"/>
+      <c r="ER17" s="14"/>
+      <c r="ES17" s="14"/>
+      <c r="ET17" s="14"/>
+      <c r="EU17" s="14"/>
+      <c r="EV17" s="14"/>
+      <c r="EW17" s="14"/>
+      <c r="EX17" s="14"/>
+      <c r="EY17" s="14"/>
     </row>
-    <row r="18" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -5369,11 +5565,11 @@
       <c r="ED18">
         <v>2</v>
       </c>
-      <c r="EE18" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF18" s="14">
-        <v>0</v>
+      <c r="EE18">
+        <v>2</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>135</v>
       </c>
       <c r="EG18" s="14">
         <v>0</v>
@@ -5387,8 +5583,18 @@
       <c r="EJ18" s="14">
         <v>0</v>
       </c>
+      <c r="EP18" s="14"/>
+      <c r="EQ18" s="14"/>
+      <c r="ER18" s="14"/>
+      <c r="ES18" s="14"/>
+      <c r="ET18" s="14"/>
+      <c r="EU18" s="14"/>
+      <c r="EV18" s="14"/>
+      <c r="EW18" s="14"/>
+      <c r="EX18" s="14"/>
+      <c r="EY18" s="14"/>
     </row>
-    <row r="19" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -5791,11 +5997,11 @@
       <c r="ED19">
         <v>8</v>
       </c>
-      <c r="EE19" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF19" s="14">
-        <v>0</v>
+      <c r="EE19">
+        <v>13</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>135</v>
       </c>
       <c r="EG19" s="14">
         <v>0</v>
@@ -5809,8 +6015,18 @@
       <c r="EJ19" s="14">
         <v>0</v>
       </c>
+      <c r="EP19" s="14"/>
+      <c r="EQ19" s="14"/>
+      <c r="ER19" s="14"/>
+      <c r="ES19" s="14"/>
+      <c r="ET19" s="14"/>
+      <c r="EU19" s="14"/>
+      <c r="EV19" s="14"/>
+      <c r="EW19" s="14"/>
+      <c r="EX19" s="14"/>
+      <c r="EY19" s="14"/>
     </row>
-    <row r="20" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -6213,11 +6429,11 @@
       <c r="ED20">
         <v>764</v>
       </c>
-      <c r="EE20" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF20" s="14">
-        <v>0</v>
+      <c r="EE20">
+        <v>1071</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>135</v>
       </c>
       <c r="EG20" s="14">
         <v>0</v>
@@ -6231,8 +6447,18 @@
       <c r="EJ20" s="14">
         <v>0</v>
       </c>
+      <c r="EP20" s="14"/>
+      <c r="EQ20" s="14"/>
+      <c r="ER20" s="14"/>
+      <c r="ES20" s="14"/>
+      <c r="ET20" s="14"/>
+      <c r="EU20" s="14"/>
+      <c r="EV20" s="14"/>
+      <c r="EW20" s="14"/>
+      <c r="EX20" s="14"/>
+      <c r="EY20" s="14"/>
     </row>
-    <row r="21" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -6635,11 +6861,11 @@
       <c r="ED21">
         <v>95</v>
       </c>
-      <c r="EE21" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF21" s="14">
-        <v>0</v>
+      <c r="EE21">
+        <v>183</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>135</v>
       </c>
       <c r="EG21" s="14">
         <v>0</v>
@@ -6653,8 +6879,18 @@
       <c r="EJ21" s="14">
         <v>0</v>
       </c>
+      <c r="EP21" s="14"/>
+      <c r="EQ21" s="14"/>
+      <c r="ER21" s="14"/>
+      <c r="ES21" s="14"/>
+      <c r="ET21" s="14"/>
+      <c r="EU21" s="14"/>
+      <c r="EV21" s="14"/>
+      <c r="EW21" s="14"/>
+      <c r="EX21" s="14"/>
+      <c r="EY21" s="14"/>
     </row>
-    <row r="22" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -7057,11 +7293,11 @@
       <c r="ED22">
         <v>6</v>
       </c>
-      <c r="EE22" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF22" s="14">
-        <v>0</v>
+      <c r="EE22">
+        <v>6</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>135</v>
       </c>
       <c r="EG22" s="14">
         <v>0</v>
@@ -7075,8 +7311,18 @@
       <c r="EJ22" s="14">
         <v>0</v>
       </c>
+      <c r="EP22" s="14"/>
+      <c r="EQ22" s="14"/>
+      <c r="ER22" s="14"/>
+      <c r="ES22" s="14"/>
+      <c r="ET22" s="14"/>
+      <c r="EU22" s="14"/>
+      <c r="EV22" s="14"/>
+      <c r="EW22" s="14"/>
+      <c r="EX22" s="14"/>
+      <c r="EY22" s="14"/>
     </row>
-    <row r="23" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -7479,17 +7725,17 @@
       <c r="ED23">
         <v>20823</v>
       </c>
-      <c r="EE23" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF23" s="14">
-        <v>0</v>
+      <c r="EE23">
+        <v>19074</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>139</v>
       </c>
       <c r="EG23" s="14">
         <v>0</v>
       </c>
       <c r="EH23" s="14">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="EI23" s="14">
         <v>0</v>
@@ -7497,8 +7743,18 @@
       <c r="EJ23" s="14">
         <v>0</v>
       </c>
+      <c r="EP23" s="14"/>
+      <c r="EQ23" s="14"/>
+      <c r="ER23" s="14"/>
+      <c r="ES23" s="14"/>
+      <c r="ET23" s="14"/>
+      <c r="EU23" s="14"/>
+      <c r="EV23" s="14"/>
+      <c r="EW23" s="14"/>
+      <c r="EX23" s="14"/>
+      <c r="EY23" s="14"/>
     </row>
-    <row r="24" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -7901,17 +8157,17 @@
       <c r="ED24">
         <v>2043</v>
       </c>
-      <c r="EE24" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF24" s="14">
-        <v>0</v>
+      <c r="EE24">
+        <v>2692</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>135</v>
       </c>
       <c r="EG24" s="14">
         <v>0</v>
       </c>
       <c r="EH24" s="14">
-        <v>0</v>
+        <v>2493</v>
       </c>
       <c r="EI24" s="14">
         <v>0</v>
@@ -7919,8 +8175,18 @@
       <c r="EJ24" s="14">
         <v>0</v>
       </c>
+      <c r="EP24" s="14"/>
+      <c r="EQ24" s="14"/>
+      <c r="ER24" s="14"/>
+      <c r="ES24" s="14"/>
+      <c r="ET24" s="14"/>
+      <c r="EU24" s="14"/>
+      <c r="EV24" s="14"/>
+      <c r="EW24" s="14"/>
+      <c r="EX24" s="14"/>
+      <c r="EY24" s="14"/>
     </row>
-    <row r="25" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -8323,11 +8589,11 @@
       <c r="ED25" s="14">
         <v>40</v>
       </c>
-      <c r="EE25" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF25" s="14">
-        <v>0</v>
+      <c r="EE25">
+        <v>43</v>
+      </c>
+      <c r="EF25" t="s">
+        <v>135</v>
       </c>
       <c r="EG25" s="14">
         <v>0</v>
@@ -8341,8 +8607,18 @@
       <c r="EJ25" s="14">
         <v>0</v>
       </c>
+      <c r="EP25" s="14"/>
+      <c r="EQ25" s="14"/>
+      <c r="ER25" s="14"/>
+      <c r="ES25" s="14"/>
+      <c r="ET25" s="14"/>
+      <c r="EU25" s="14"/>
+      <c r="EV25" s="14"/>
+      <c r="EW25" s="14"/>
+      <c r="EX25" s="14"/>
+      <c r="EY25" s="14"/>
     </row>
-    <row r="26" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -8745,11 +9021,11 @@
       <c r="ED26" s="14">
         <v>2</v>
       </c>
-      <c r="EE26" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF26" s="14">
-        <v>0</v>
+      <c r="EE26">
+        <v>2</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>135</v>
       </c>
       <c r="EG26" s="14">
         <v>0</v>
@@ -8763,8 +9039,18 @@
       <c r="EJ26" s="14">
         <v>0</v>
       </c>
+      <c r="EP26" s="14"/>
+      <c r="EQ26" s="14"/>
+      <c r="ER26" s="14"/>
+      <c r="ES26" s="14"/>
+      <c r="ET26" s="14"/>
+      <c r="EU26" s="14"/>
+      <c r="EV26" s="14"/>
+      <c r="EW26" s="14"/>
+      <c r="EX26" s="14"/>
+      <c r="EY26" s="14"/>
     </row>
-    <row r="27" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -9167,11 +9453,11 @@
       <c r="ED27" s="14">
         <v>10</v>
       </c>
-      <c r="EE27" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF27" s="14">
-        <v>0</v>
+      <c r="EE27">
+        <v>11</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>140</v>
       </c>
       <c r="EG27" s="14">
         <v>0</v>
@@ -9185,8 +9471,18 @@
       <c r="EJ27" s="14">
         <v>0</v>
       </c>
+      <c r="EP27" s="14"/>
+      <c r="EQ27" s="14"/>
+      <c r="ER27" s="14"/>
+      <c r="ES27" s="14"/>
+      <c r="ET27" s="14"/>
+      <c r="EU27" s="14"/>
+      <c r="EV27" s="14"/>
+      <c r="EW27" s="14"/>
+      <c r="EX27" s="14"/>
+      <c r="EY27" s="14"/>
     </row>
-    <row r="28" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -9589,11 +9885,11 @@
       <c r="ED28" s="14">
         <v>301</v>
       </c>
-      <c r="EE28" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF28" s="14">
-        <v>0</v>
+      <c r="EE28">
+        <v>329</v>
+      </c>
+      <c r="EF28" t="s">
+        <v>135</v>
       </c>
       <c r="EG28" s="14">
         <v>0</v>
@@ -9607,8 +9903,18 @@
       <c r="EJ28" s="14">
         <v>0</v>
       </c>
+      <c r="EP28" s="14"/>
+      <c r="EQ28" s="14"/>
+      <c r="ER28" s="14"/>
+      <c r="ES28" s="14"/>
+      <c r="ET28" s="14"/>
+      <c r="EU28" s="14"/>
+      <c r="EV28" s="14"/>
+      <c r="EW28" s="14"/>
+      <c r="EX28" s="14"/>
+      <c r="EY28" s="14"/>
     </row>
-    <row r="29" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -10011,11 +10317,11 @@
       <c r="ED29" s="14">
         <v>50</v>
       </c>
-      <c r="EE29" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF29" s="14">
-        <v>0</v>
+      <c r="EE29">
+        <v>50</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>135</v>
       </c>
       <c r="EG29" s="14">
         <v>0</v>
@@ -10029,8 +10335,18 @@
       <c r="EJ29" s="14">
         <v>0</v>
       </c>
+      <c r="EP29" s="14"/>
+      <c r="EQ29" s="14"/>
+      <c r="ER29" s="14"/>
+      <c r="ES29" s="14"/>
+      <c r="ET29" s="14"/>
+      <c r="EU29" s="14"/>
+      <c r="EV29" s="14"/>
+      <c r="EW29" s="14"/>
+      <c r="EX29" s="14"/>
+      <c r="EY29" s="14"/>
     </row>
-    <row r="30" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -10433,11 +10749,11 @@
       <c r="ED30" s="14">
         <v>159</v>
       </c>
-      <c r="EE30" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF30" s="14">
-        <v>0</v>
+      <c r="EE30">
+        <v>269</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>137</v>
       </c>
       <c r="EG30" s="14">
         <v>0</v>
@@ -10451,8 +10767,18 @@
       <c r="EJ30" s="14">
         <v>0</v>
       </c>
+      <c r="EP30" s="14"/>
+      <c r="EQ30" s="14"/>
+      <c r="ER30" s="14"/>
+      <c r="ES30" s="14"/>
+      <c r="ET30" s="14"/>
+      <c r="EU30" s="14"/>
+      <c r="EV30" s="14"/>
+      <c r="EW30" s="14"/>
+      <c r="EX30" s="14"/>
+      <c r="EY30" s="14"/>
     </row>
-    <row r="31" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -10855,17 +11181,17 @@
       <c r="ED31">
         <v>6008</v>
       </c>
-      <c r="EE31" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF31" s="14">
-        <v>0</v>
+      <c r="EE31">
+        <v>6585</v>
+      </c>
+      <c r="EF31" t="s">
+        <v>139</v>
       </c>
       <c r="EG31" s="14">
         <v>0</v>
       </c>
       <c r="EH31" s="14">
-        <v>0</v>
+        <v>6858</v>
       </c>
       <c r="EI31" s="14">
         <v>0</v>
@@ -10874,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -11277,11 +11603,11 @@
       <c r="ED32">
         <v>7</v>
       </c>
-      <c r="EE32" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF32" s="14">
-        <v>0</v>
+      <c r="EE32">
+        <v>7</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>135</v>
       </c>
       <c r="EG32" s="14">
         <v>0</v>
@@ -11699,11 +12025,11 @@
       <c r="ED33">
         <v>3</v>
       </c>
-      <c r="EE33" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF33" s="14">
-        <v>0</v>
+      <c r="EE33">
+        <v>3</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>135</v>
       </c>
       <c r="EG33" s="14">
         <v>0</v>
@@ -12121,10 +12447,10 @@
       <c r="ED34">
         <v>0</v>
       </c>
-      <c r="EE34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF34" s="14">
+      <c r="EE34">
+        <v>0</v>
+      </c>
+      <c r="EF34">
         <v>0</v>
       </c>
       <c r="EG34" s="14">
@@ -12543,11 +12869,11 @@
       <c r="ED35">
         <v>0</v>
       </c>
-      <c r="EE35" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF35" s="14">
-        <v>0</v>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35" t="s">
+        <v>135</v>
       </c>
       <c r="EG35" s="14">
         <v>0</v>
@@ -12965,11 +13291,11 @@
       <c r="ED36">
         <v>120</v>
       </c>
-      <c r="EE36" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF36" s="14">
-        <v>0</v>
+      <c r="EE36">
+        <v>170</v>
+      </c>
+      <c r="EF36" t="s">
+        <v>135</v>
       </c>
       <c r="EG36" s="14">
         <v>0</v>
@@ -13387,11 +13713,11 @@
       <c r="ED37" s="14">
         <v>35</v>
       </c>
-      <c r="EE37" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF37" s="14">
-        <v>0</v>
+      <c r="EE37">
+        <v>53</v>
+      </c>
+      <c r="EF37" t="s">
+        <v>135</v>
       </c>
       <c r="EG37" s="14">
         <v>0</v>
@@ -13809,11 +14135,11 @@
       <c r="ED38">
         <v>6</v>
       </c>
-      <c r="EE38" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF38" s="14">
-        <v>0</v>
+      <c r="EE38">
+        <v>6</v>
+      </c>
+      <c r="EF38" t="s">
+        <v>135</v>
       </c>
       <c r="EG38" s="14">
         <v>0</v>
@@ -14231,11 +14557,11 @@
       <c r="ED39">
         <v>7612.5</v>
       </c>
-      <c r="EE39" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF39" s="14">
-        <v>0</v>
+      <c r="EE39">
+        <v>13055</v>
+      </c>
+      <c r="EF39" t="s">
+        <v>139</v>
       </c>
       <c r="EG39" s="14">
         <v>0</v>
@@ -14653,11 +14979,11 @@
       <c r="ED40">
         <v>0</v>
       </c>
-      <c r="EE40" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF40" s="14">
-        <v>0</v>
+      <c r="EE40">
+        <v>0</v>
+      </c>
+      <c r="EF40" t="s">
+        <v>135</v>
       </c>
       <c r="EG40" s="14">
         <v>0</v>
@@ -15075,11 +15401,11 @@
       <c r="ED41">
         <v>1</v>
       </c>
-      <c r="EE41" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF41" s="14">
-        <v>0</v>
+      <c r="EE41">
+        <v>5</v>
+      </c>
+      <c r="EF41" t="s">
+        <v>135</v>
       </c>
       <c r="EG41" s="14">
         <v>0</v>
@@ -15497,11 +15823,11 @@
       <c r="ED42">
         <v>1152</v>
       </c>
-      <c r="EE42" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF42" s="14">
-        <v>0</v>
+      <c r="EE42">
+        <v>1186</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>139</v>
       </c>
       <c r="EG42" s="14">
         <v>0</v>
@@ -15919,11 +16245,11 @@
       <c r="ED43">
         <v>62</v>
       </c>
-      <c r="EE43" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF43" s="14">
-        <v>0</v>
+      <c r="EE43">
+        <v>62</v>
+      </c>
+      <c r="EF43" t="s">
+        <v>135</v>
       </c>
       <c r="EG43" s="14">
         <v>0</v>
@@ -16341,11 +16667,11 @@
       <c r="ED44">
         <v>5</v>
       </c>
-      <c r="EE44" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF44" s="14">
-        <v>0</v>
+      <c r="EE44">
+        <v>5</v>
+      </c>
+      <c r="EF44" t="s">
+        <v>135</v>
       </c>
       <c r="EG44" s="14">
         <v>0</v>
@@ -16763,11 +17089,11 @@
       <c r="ED45">
         <v>8</v>
       </c>
-      <c r="EE45" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF45" s="14">
-        <v>0</v>
+      <c r="EE45">
+        <v>8</v>
+      </c>
+      <c r="EF45" t="s">
+        <v>135</v>
       </c>
       <c r="EG45" s="14">
         <v>0</v>
@@ -17185,11 +17511,11 @@
       <c r="ED46">
         <v>208</v>
       </c>
-      <c r="EE46" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF46" s="14">
-        <v>0</v>
+      <c r="EE46">
+        <v>428</v>
+      </c>
+      <c r="EF46" t="s">
+        <v>135</v>
       </c>
       <c r="EG46" s="14">
         <v>0</v>
@@ -17607,11 +17933,11 @@
       <c r="ED47" s="14">
         <v>14</v>
       </c>
-      <c r="EE47" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF47" s="14">
-        <v>0</v>
+      <c r="EE47">
+        <v>14</v>
+      </c>
+      <c r="EF47" t="s">
+        <v>135</v>
       </c>
       <c r="EG47" s="14">
         <v>0</v>
@@ -18029,17 +18355,17 @@
       <c r="ED48">
         <v>3525</v>
       </c>
-      <c r="EE48" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF48" s="14">
-        <v>0</v>
+      <c r="EE48">
+        <v>3630</v>
+      </c>
+      <c r="EF48" t="s">
+        <v>137</v>
       </c>
       <c r="EG48" s="14">
         <v>0</v>
       </c>
       <c r="EH48" s="14">
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="EI48" s="14">
         <v>0</v>
@@ -18451,11 +18777,11 @@
       <c r="ED49">
         <v>7</v>
       </c>
-      <c r="EE49" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF49" s="14">
-        <v>0</v>
+      <c r="EE49">
+        <v>7</v>
+      </c>
+      <c r="EF49" t="s">
+        <v>135</v>
       </c>
       <c r="EG49" s="14">
         <v>0</v>
@@ -18873,11 +19199,11 @@
       <c r="ED50" s="14">
         <v>13</v>
       </c>
-      <c r="EE50" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF50" s="14">
-        <v>0</v>
+      <c r="EE50">
+        <v>14</v>
+      </c>
+      <c r="EF50" t="s">
+        <v>137</v>
       </c>
       <c r="EG50" s="14">
         <v>0</v>
@@ -19295,11 +19621,11 @@
       <c r="ED51">
         <v>0</v>
       </c>
-      <c r="EE51" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF51" s="14">
-        <v>0</v>
+      <c r="EE51">
+        <v>0</v>
+      </c>
+      <c r="EF51" t="s">
+        <v>135</v>
       </c>
       <c r="EG51" s="14">
         <v>0</v>
@@ -19717,11 +20043,11 @@
       <c r="ED52">
         <v>0</v>
       </c>
-      <c r="EE52" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF52" s="14">
-        <v>0</v>
+      <c r="EE52">
+        <v>1</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>135</v>
       </c>
       <c r="EG52" s="14">
         <v>0</v>
@@ -20139,10 +20465,10 @@
       <c r="ED53">
         <v>0</v>
       </c>
-      <c r="EE53" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF53" s="14">
+      <c r="EE53">
+        <v>0</v>
+      </c>
+      <c r="EF53">
         <v>0</v>
       </c>
       <c r="EG53" s="14">
@@ -20561,17 +20887,17 @@
       <c r="ED54">
         <v>3484</v>
       </c>
-      <c r="EE54" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF54" s="14">
-        <v>0</v>
+      <c r="EE54">
+        <v>4360</v>
+      </c>
+      <c r="EF54" t="s">
+        <v>139</v>
       </c>
       <c r="EG54" s="14">
         <v>0</v>
       </c>
       <c r="EH54" s="14">
-        <v>0</v>
+        <v>4784</v>
       </c>
       <c r="EI54" s="14">
         <v>0</v>
@@ -20983,17 +21309,17 @@
       <c r="ED55">
         <v>253640</v>
       </c>
-      <c r="EE55" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF55" s="14">
-        <v>0</v>
+      <c r="EE55">
+        <v>306403</v>
+      </c>
+      <c r="EF55" t="s">
+        <v>135</v>
       </c>
       <c r="EG55" s="14">
         <v>0</v>
       </c>
       <c r="EH55" s="14">
-        <v>0</v>
+        <v>308500</v>
       </c>
       <c r="EI55" s="14">
         <v>0</v>
@@ -21405,11 +21731,11 @@
       <c r="ED56" s="14">
         <v>107</v>
       </c>
-      <c r="EE56" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF56" s="14">
-        <v>0</v>
+      <c r="EE56">
+        <v>184</v>
+      </c>
+      <c r="EF56" t="s">
+        <v>135</v>
       </c>
       <c r="EG56" s="14">
         <v>0</v>
@@ -21827,10 +22153,10 @@
       <c r="ED57">
         <v>0</v>
       </c>
-      <c r="EE57" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF57" s="14">
+      <c r="EE57">
+        <v>0</v>
+      </c>
+      <c r="EF57">
         <v>0</v>
       </c>
       <c r="EG57" s="14">
@@ -22249,11 +22575,11 @@
       <c r="ED58">
         <v>1</v>
       </c>
-      <c r="EE58" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF58" s="14">
-        <v>0</v>
+      <c r="EE58">
+        <v>1</v>
+      </c>
+      <c r="EF58" t="s">
+        <v>135</v>
       </c>
       <c r="EG58" s="14">
         <v>0</v>
@@ -22671,11 +22997,11 @@
       <c r="ED59">
         <v>7</v>
       </c>
-      <c r="EE59" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF59" s="14">
-        <v>0</v>
+      <c r="EE59">
+        <v>5</v>
+      </c>
+      <c r="EF59" t="s">
+        <v>135</v>
       </c>
       <c r="EG59" s="14">
         <v>0</v>
@@ -23093,11 +23419,11 @@
       <c r="ED60">
         <v>57</v>
       </c>
-      <c r="EE60" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF60" s="14">
-        <v>0</v>
+      <c r="EE60">
+        <v>74</v>
+      </c>
+      <c r="EF60" t="s">
+        <v>135</v>
       </c>
       <c r="EG60" s="14">
         <v>0</v>
@@ -23515,11 +23841,11 @@
       <c r="ED61">
         <v>114</v>
       </c>
-      <c r="EE61" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF61" s="14">
-        <v>0</v>
+      <c r="EE61">
+        <v>109</v>
+      </c>
+      <c r="EF61" t="s">
+        <v>139</v>
       </c>
       <c r="EG61" s="14">
         <v>0</v>
@@ -23937,11 +24263,11 @@
       <c r="ED62" s="14">
         <v>163</v>
       </c>
-      <c r="EE62" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF62" s="14">
-        <v>0</v>
+      <c r="EE62">
+        <v>246</v>
+      </c>
+      <c r="EF62" t="s">
+        <v>137</v>
       </c>
       <c r="EG62" s="14">
         <v>0</v>
@@ -24359,11 +24685,11 @@
       <c r="ED63">
         <v>12</v>
       </c>
-      <c r="EE63" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF63" s="14">
-        <v>0</v>
+      <c r="EE63">
+        <v>13</v>
+      </c>
+      <c r="EF63" t="s">
+        <v>135</v>
       </c>
       <c r="EG63" s="14">
         <v>0</v>
@@ -24781,11 +25107,11 @@
       <c r="ED64">
         <v>200</v>
       </c>
-      <c r="EE64" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF64" s="14">
-        <v>0</v>
+      <c r="EE64">
+        <v>316</v>
+      </c>
+      <c r="EF64" t="s">
+        <v>135</v>
       </c>
       <c r="EG64" s="14">
         <v>0</v>
@@ -24800,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -25203,11 +25529,11 @@
       <c r="ED65">
         <v>2170</v>
       </c>
-      <c r="EE65" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF65" s="14">
-        <v>0</v>
+      <c r="EE65">
+        <v>2119</v>
+      </c>
+      <c r="EF65" t="s">
+        <v>139</v>
       </c>
       <c r="EG65" s="14">
         <v>0</v>
@@ -25222,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -25625,11 +25951,11 @@
       <c r="ED66">
         <v>20</v>
       </c>
-      <c r="EE66" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF66" s="14">
-        <v>0</v>
+      <c r="EE66">
+        <v>20</v>
+      </c>
+      <c r="EF66" t="s">
+        <v>135</v>
       </c>
       <c r="EG66" s="14">
         <v>0</v>
@@ -25643,8 +25969,9 @@
       <c r="EJ66" s="14">
         <v>0</v>
       </c>
+      <c r="EP66" s="14"/>
     </row>
-    <row r="67" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -26047,17 +26374,17 @@
       <c r="ED67">
         <v>1624</v>
       </c>
-      <c r="EE67" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF67" s="14">
-        <v>0</v>
+      <c r="EE67">
+        <v>1540</v>
+      </c>
+      <c r="EF67" t="s">
+        <v>139</v>
       </c>
       <c r="EG67" s="14">
         <v>0</v>
       </c>
       <c r="EH67" s="14">
-        <v>0</v>
+        <v>1936</v>
       </c>
       <c r="EI67" s="14">
         <v>0</v>
@@ -26065,8 +26392,18 @@
       <c r="EJ67" s="14">
         <v>0</v>
       </c>
+      <c r="EP67" s="14"/>
+      <c r="EQ67" s="14"/>
+      <c r="ER67" s="14"/>
+      <c r="ES67" s="14"/>
+      <c r="ET67" s="14"/>
+      <c r="EU67" s="14"/>
+      <c r="EV67" s="14"/>
+      <c r="EW67" s="14"/>
+      <c r="EX67" s="14"/>
+      <c r="EY67" s="14"/>
     </row>
-    <row r="68" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -26469,11 +26806,11 @@
       <c r="ED68">
         <v>0</v>
       </c>
-      <c r="EE68" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF68" s="14">
-        <v>0</v>
+      <c r="EE68">
+        <v>0</v>
+      </c>
+      <c r="EF68" t="s">
+        <v>135</v>
       </c>
       <c r="EG68" s="14">
         <v>0</v>
@@ -26487,8 +26824,15 @@
       <c r="EJ68" s="14">
         <v>0</v>
       </c>
+      <c r="EP68" s="14"/>
+      <c r="ET68" s="14"/>
+      <c r="EU68" s="14"/>
+      <c r="EV68" s="14"/>
+      <c r="EW68" s="14"/>
+      <c r="EX68" s="14"/>
+      <c r="EY68" s="14"/>
     </row>
-    <row r="69" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -26891,11 +27235,11 @@
       <c r="ED69">
         <v>0</v>
       </c>
-      <c r="EE69" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF69" s="14">
-        <v>0</v>
+      <c r="EE69">
+        <v>0</v>
+      </c>
+      <c r="EF69" t="s">
+        <v>135</v>
       </c>
       <c r="EG69" s="14">
         <v>0</v>
@@ -26909,8 +27253,18 @@
       <c r="EJ69" s="14">
         <v>0</v>
       </c>
+      <c r="EP69" s="14"/>
+      <c r="EQ69" s="14"/>
+      <c r="ER69" s="14"/>
+      <c r="ES69" s="14"/>
+      <c r="ET69" s="14"/>
+      <c r="EU69" s="14"/>
+      <c r="EV69" s="14"/>
+      <c r="EW69" s="14"/>
+      <c r="EX69" s="14"/>
+      <c r="EY69" s="14"/>
     </row>
-    <row r="70" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -27313,11 +27667,11 @@
       <c r="ED70" s="14">
         <v>370</v>
       </c>
-      <c r="EE70" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF70" s="14">
-        <v>0</v>
+      <c r="EE70">
+        <v>490</v>
+      </c>
+      <c r="EF70" t="s">
+        <v>135</v>
       </c>
       <c r="EG70" s="14">
         <v>0</v>
@@ -27332,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -27735,11 +28089,11 @@
       <c r="ED71">
         <v>1</v>
       </c>
-      <c r="EE71" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF71" s="14">
-        <v>0</v>
+      <c r="EE71">
+        <v>1</v>
+      </c>
+      <c r="EF71" t="s">
+        <v>135</v>
       </c>
       <c r="EG71" s="14">
         <v>0</v>
@@ -27754,7 +28108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>199</v>
       </c>
@@ -28157,11 +28511,11 @@
       <c r="ED72" s="14">
         <v>28</v>
       </c>
-      <c r="EE72" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF72" s="14">
-        <v>0</v>
+      <c r="EE72">
+        <v>28</v>
+      </c>
+      <c r="EF72" t="s">
+        <v>135</v>
       </c>
       <c r="EG72" s="14">
         <v>0</v>
@@ -28176,7 +28530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -28579,11 +28933,11 @@
       <c r="ED73" s="14">
         <v>1673</v>
       </c>
-      <c r="EE73" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF73" s="14">
-        <v>0</v>
+      <c r="EE73">
+        <v>1655</v>
+      </c>
+      <c r="EF73" t="s">
+        <v>135</v>
       </c>
       <c r="EG73" s="14">
         <v>0</v>
@@ -28598,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -29001,11 +29355,11 @@
       <c r="ED74">
         <v>429</v>
       </c>
-      <c r="EE74" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF74" s="14">
-        <v>0</v>
+      <c r="EE74">
+        <v>478</v>
+      </c>
+      <c r="EF74" t="s">
+        <v>135</v>
       </c>
       <c r="EG74" s="14">
         <v>0</v>
@@ -29020,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -29423,10 +29777,10 @@
       <c r="ED75">
         <v>0</v>
       </c>
-      <c r="EE75" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF75" s="14">
+      <c r="EE75">
+        <v>0</v>
+      </c>
+      <c r="EF75">
         <v>0</v>
       </c>
       <c r="EG75" s="14">
@@ -29442,7 +29796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -29845,11 +30199,11 @@
       <c r="ED76">
         <v>22</v>
       </c>
-      <c r="EE76" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF76" s="14">
-        <v>0</v>
+      <c r="EE76">
+        <v>24</v>
+      </c>
+      <c r="EF76" t="s">
+        <v>135</v>
       </c>
       <c r="EG76" s="14">
         <v>0</v>
@@ -29864,7 +30218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>204</v>
       </c>
@@ -30267,11 +30621,11 @@
       <c r="ED77">
         <v>275</v>
       </c>
-      <c r="EE77" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF77" s="14">
-        <v>0</v>
+      <c r="EE77">
+        <v>414</v>
+      </c>
+      <c r="EF77" t="s">
+        <v>139</v>
       </c>
       <c r="EG77" s="14">
         <v>0</v>
@@ -30286,7 +30640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -30689,11 +31043,11 @@
       <c r="ED78">
         <v>0</v>
       </c>
-      <c r="EE78" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF78" s="14">
-        <v>0</v>
+      <c r="EE78">
+        <v>21</v>
+      </c>
+      <c r="EF78" t="s">
+        <v>137</v>
       </c>
       <c r="EG78" s="14">
         <v>0</v>
@@ -30708,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>363</v>
       </c>
@@ -31111,10 +31465,10 @@
       <c r="ED79">
         <v>0</v>
       </c>
-      <c r="EE79" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF79" s="14">
+      <c r="EE79">
+        <v>0</v>
+      </c>
+      <c r="EF79">
         <v>0</v>
       </c>
       <c r="EG79" s="14">
@@ -31130,7 +31484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:155" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -31533,11 +31887,11 @@
       <c r="ED80">
         <v>0</v>
       </c>
-      <c r="EE80" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF80" s="14">
-        <v>0</v>
+      <c r="EE80">
+        <v>0</v>
+      </c>
+      <c r="EF80" t="s">
+        <v>135</v>
       </c>
       <c r="EG80" s="14">
         <v>0</v>
@@ -31955,11 +32309,11 @@
       <c r="ED81">
         <v>0</v>
       </c>
-      <c r="EE81" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF81" s="14">
-        <v>0</v>
+      <c r="EE81">
+        <v>10</v>
+      </c>
+      <c r="EF81" t="s">
+        <v>135</v>
       </c>
       <c r="EG81" s="14">
         <v>0</v>
@@ -32377,11 +32731,11 @@
       <c r="ED82">
         <v>313</v>
       </c>
-      <c r="EE82" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF82" s="14">
-        <v>0</v>
+      <c r="EE82">
+        <v>404</v>
+      </c>
+      <c r="EF82" t="s">
+        <v>135</v>
       </c>
       <c r="EG82" s="14">
         <v>0</v>
@@ -32799,17 +33153,17 @@
       <c r="ED83">
         <v>10920</v>
       </c>
-      <c r="EE83" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF83" s="14">
-        <v>0</v>
+      <c r="EE83">
+        <v>14709</v>
+      </c>
+      <c r="EF83" t="s">
+        <v>135</v>
       </c>
       <c r="EG83" s="14">
         <v>0</v>
       </c>
       <c r="EH83" s="14">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="EI83" s="14">
         <v>0</v>
@@ -33221,11 +33575,11 @@
       <c r="ED84">
         <v>55</v>
       </c>
-      <c r="EE84" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF84" s="14">
-        <v>0</v>
+      <c r="EE84">
+        <v>55</v>
+      </c>
+      <c r="EF84" t="s">
+        <v>137</v>
       </c>
       <c r="EG84" s="14">
         <v>0</v>
@@ -33643,11 +33997,11 @@
       <c r="ED85">
         <v>39</v>
       </c>
-      <c r="EE85" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF85" s="14">
-        <v>0</v>
+      <c r="EE85">
+        <v>41</v>
+      </c>
+      <c r="EF85" t="s">
+        <v>135</v>
       </c>
       <c r="EG85" s="14">
         <v>0</v>
@@ -34065,11 +34419,11 @@
       <c r="ED86">
         <v>1</v>
       </c>
-      <c r="EE86" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF86" s="14">
-        <v>0</v>
+      <c r="EE86">
+        <v>1</v>
+      </c>
+      <c r="EF86" t="s">
+        <v>135</v>
       </c>
       <c r="EG86" s="14">
         <v>0</v>
@@ -34487,11 +34841,11 @@
       <c r="ED87">
         <v>2</v>
       </c>
-      <c r="EE87" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF87" s="14">
-        <v>0</v>
+      <c r="EE87">
+        <v>2</v>
+      </c>
+      <c r="EF87" t="s">
+        <v>135</v>
       </c>
       <c r="EG87" s="14">
         <v>0</v>
@@ -34909,11 +35263,11 @@
       <c r="ED88">
         <v>1</v>
       </c>
-      <c r="EE88" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF88" s="14">
-        <v>0</v>
+      <c r="EE88">
+        <v>1</v>
+      </c>
+      <c r="EF88" t="s">
+        <v>135</v>
       </c>
       <c r="EG88" s="14">
         <v>0</v>
@@ -35331,17 +35685,17 @@
       <c r="ED89">
         <v>53901</v>
       </c>
-      <c r="EE89" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF89" s="14">
-        <v>0</v>
+      <c r="EE89">
+        <v>58459</v>
+      </c>
+      <c r="EF89" t="s">
+        <v>139</v>
       </c>
       <c r="EG89" s="14">
         <v>0</v>
       </c>
       <c r="EH89" s="14">
-        <v>0</v>
+        <v>59200</v>
       </c>
       <c r="EI89" s="14">
         <v>0</v>
@@ -35753,11 +36107,11 @@
       <c r="ED90">
         <v>70</v>
       </c>
-      <c r="EE90" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF90" s="14">
-        <v>0</v>
+      <c r="EE90">
+        <v>108</v>
+      </c>
+      <c r="EF90" t="s">
+        <v>135</v>
       </c>
       <c r="EG90" s="14">
         <v>0</v>
@@ -36175,10 +36529,10 @@
       <c r="ED91">
         <v>0</v>
       </c>
-      <c r="EE91" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF91" s="14">
+      <c r="EE91">
+        <v>0</v>
+      </c>
+      <c r="EF91">
         <v>0</v>
       </c>
       <c r="EG91" s="14">
@@ -36597,11 +36951,11 @@
       <c r="ED92">
         <v>3285</v>
       </c>
-      <c r="EE92" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF92" s="14">
-        <v>0</v>
+      <c r="EE92">
+        <v>3530</v>
+      </c>
+      <c r="EF92" t="s">
+        <v>139</v>
       </c>
       <c r="EG92" s="14">
         <v>0</v>
@@ -37019,11 +37373,11 @@
       <c r="ED93">
         <v>0</v>
       </c>
-      <c r="EE93" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF93" s="14">
-        <v>0</v>
+      <c r="EE93">
+        <v>0</v>
+      </c>
+      <c r="EF93" t="s">
+        <v>135</v>
       </c>
       <c r="EG93" s="14">
         <v>0</v>
@@ -37441,11 +37795,11 @@
       <c r="ED94">
         <v>3</v>
       </c>
-      <c r="EE94" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF94" s="14">
-        <v>0</v>
+      <c r="EE94">
+        <v>4</v>
+      </c>
+      <c r="EF94" t="s">
+        <v>137</v>
       </c>
       <c r="EG94" s="14">
         <v>0</v>
@@ -37863,11 +38217,11 @@
       <c r="ED95" s="14">
         <v>85</v>
       </c>
-      <c r="EE95" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF95" s="14">
-        <v>0</v>
+      <c r="EE95">
+        <v>86</v>
+      </c>
+      <c r="EF95" t="s">
+        <v>137</v>
       </c>
       <c r="EG95" s="14">
         <v>0</v>
@@ -38285,11 +38639,11 @@
       <c r="ED96">
         <v>35</v>
       </c>
-      <c r="EE96" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF96" s="14">
-        <v>0</v>
+      <c r="EE96">
+        <v>35</v>
+      </c>
+      <c r="EF96" t="s">
+        <v>135</v>
       </c>
       <c r="EG96" s="14">
         <v>0</v>
@@ -38707,11 +39061,11 @@
       <c r="ED97">
         <v>101</v>
       </c>
-      <c r="EE97" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF97" s="14">
-        <v>0</v>
+      <c r="EE97">
+        <v>101</v>
+      </c>
+      <c r="EF97" t="s">
+        <v>135</v>
       </c>
       <c r="EG97" s="14">
         <v>0</v>
@@ -39129,11 +39483,11 @@
       <c r="ED98">
         <v>13</v>
       </c>
-      <c r="EE98" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF98" s="14">
-        <v>0</v>
+      <c r="EE98">
+        <v>13</v>
+      </c>
+      <c r="EF98" t="s">
+        <v>135</v>
       </c>
       <c r="EG98" s="14">
         <v>0</v>
@@ -39551,11 +39905,11 @@
       <c r="ED99">
         <v>1</v>
       </c>
-      <c r="EE99" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF99" s="14">
-        <v>0</v>
+      <c r="EE99">
+        <v>1</v>
+      </c>
+      <c r="EF99" t="s">
+        <v>135</v>
       </c>
       <c r="EG99" s="14">
         <v>0</v>
@@ -39973,11 +40327,11 @@
       <c r="ED100">
         <v>8</v>
       </c>
-      <c r="EE100" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF100" s="14">
-        <v>0</v>
+      <c r="EE100">
+        <v>8</v>
+      </c>
+      <c r="EF100" t="s">
+        <v>135</v>
       </c>
       <c r="EG100" s="14">
         <v>0</v>
@@ -40395,11 +40749,11 @@
       <c r="ED101">
         <v>3</v>
       </c>
-      <c r="EE101" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF101" s="14">
-        <v>0</v>
+      <c r="EE101">
+        <v>3</v>
+      </c>
+      <c r="EF101" t="s">
+        <v>135</v>
       </c>
       <c r="EG101" s="14">
         <v>0</v>
@@ -40817,10 +41171,10 @@
       <c r="ED102">
         <v>0.22</v>
       </c>
-      <c r="EE102" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF102" s="14">
+      <c r="EE102">
+        <v>0</v>
+      </c>
+      <c r="EF102">
         <v>0</v>
       </c>
       <c r="EG102" s="14">
@@ -41239,11 +41593,11 @@
       <c r="ED103">
         <v>514</v>
       </c>
-      <c r="EE103" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF103" s="14">
-        <v>0</v>
+      <c r="EE103">
+        <v>514</v>
+      </c>
+      <c r="EF103" t="s">
+        <v>135</v>
       </c>
       <c r="EG103" s="14">
         <v>0</v>
@@ -41661,10 +42015,10 @@
       <c r="ED104">
         <v>0</v>
       </c>
-      <c r="EE104" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF104" s="14">
+      <c r="EE104">
+        <v>0</v>
+      </c>
+      <c r="EF104">
         <v>0</v>
       </c>
       <c r="EG104" s="14">
@@ -42083,11 +42437,11 @@
       <c r="ED105">
         <v>2145</v>
       </c>
-      <c r="EE105" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF105" s="14">
-        <v>0</v>
+      <c r="EE105">
+        <v>2131</v>
+      </c>
+      <c r="EF105" t="s">
+        <v>135</v>
       </c>
       <c r="EG105" s="14">
         <v>0</v>
@@ -42505,11 +42859,11 @@
       <c r="ED106">
         <v>7</v>
       </c>
-      <c r="EE106" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF106" s="14">
-        <v>0</v>
+      <c r="EE106">
+        <v>7</v>
+      </c>
+      <c r="EF106" t="s">
+        <v>135</v>
       </c>
       <c r="EG106" s="14">
         <v>0</v>
@@ -42927,11 +43281,11 @@
       <c r="ED107">
         <v>45918</v>
       </c>
-      <c r="EE107" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF107" s="14">
-        <v>0</v>
+      <c r="EE107">
+        <v>49342</v>
+      </c>
+      <c r="EF107" t="s">
+        <v>135</v>
       </c>
       <c r="EG107" s="14">
         <v>0</v>
@@ -43349,11 +43703,11 @@
       <c r="ED108">
         <v>172</v>
       </c>
-      <c r="EE108" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF108" s="14">
-        <v>0</v>
+      <c r="EE108">
+        <v>211</v>
+      </c>
+      <c r="EF108" t="s">
+        <v>139</v>
       </c>
       <c r="EG108" s="14">
         <v>0</v>
@@ -43771,11 +44125,11 @@
       <c r="ED109">
         <v>414</v>
       </c>
-      <c r="EE109" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF109" s="14">
-        <v>0</v>
+      <c r="EE109">
+        <v>456</v>
+      </c>
+      <c r="EF109" t="s">
+        <v>135</v>
       </c>
       <c r="EG109" s="14">
         <v>0</v>
@@ -44193,11 +44547,11 @@
       <c r="ED110">
         <v>216</v>
       </c>
-      <c r="EE110" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF110" s="14">
-        <v>0</v>
+      <c r="EE110">
+        <v>37</v>
+      </c>
+      <c r="EF110" t="s">
+        <v>135</v>
       </c>
       <c r="EG110" s="14">
         <v>0</v>
@@ -44615,11 +44969,11 @@
       <c r="ED111">
         <v>51.6</v>
       </c>
-      <c r="EE111" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF111" s="14">
-        <v>0</v>
+      <c r="EE111">
+        <v>136</v>
+      </c>
+      <c r="EF111" t="s">
+        <v>135</v>
       </c>
       <c r="EG111" s="14">
         <v>0</v>
@@ -45037,10 +45391,10 @@
       <c r="ED112">
         <v>0</v>
       </c>
-      <c r="EE112" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF112" s="14">
+      <c r="EE112">
+        <v>0</v>
+      </c>
+      <c r="EF112">
         <v>0</v>
       </c>
       <c r="EG112" s="14">
@@ -45459,17 +45813,17 @@
       <c r="ED113">
         <v>2550</v>
       </c>
-      <c r="EE113" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF113" s="14">
-        <v>0</v>
+      <c r="EE113">
+        <v>2313</v>
+      </c>
+      <c r="EF113" t="s">
+        <v>137</v>
       </c>
       <c r="EG113" s="14">
         <v>0</v>
       </c>
       <c r="EH113" s="14">
-        <v>0</v>
+        <v>3485</v>
       </c>
       <c r="EI113" s="14">
         <v>0</v>
@@ -45881,17 +46235,17 @@
       <c r="ED114">
         <v>21650</v>
       </c>
-      <c r="EE114" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF114" s="14">
-        <v>0</v>
+      <c r="EE114">
+        <v>22692</v>
+      </c>
+      <c r="EF114" t="s">
+        <v>139</v>
       </c>
       <c r="EG114" s="14">
         <v>0</v>
       </c>
       <c r="EH114" s="14">
-        <v>0</v>
+        <v>22600</v>
       </c>
       <c r="EI114" s="14">
         <v>0</v>
@@ -46303,11 +46657,11 @@
       <c r="ED115">
         <v>13</v>
       </c>
-      <c r="EE115" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF115" s="14">
-        <v>0</v>
+      <c r="EE115">
+        <v>13</v>
+      </c>
+      <c r="EF115" t="s">
+        <v>135</v>
       </c>
       <c r="EG115" s="14">
         <v>0</v>
@@ -46725,11 +47079,11 @@
       <c r="ED116">
         <v>93</v>
       </c>
-      <c r="EE116" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF116" s="14">
-        <v>0</v>
+      <c r="EE116">
+        <v>93</v>
+      </c>
+      <c r="EF116" t="s">
+        <v>135</v>
       </c>
       <c r="EG116" s="14">
         <v>0</v>
@@ -47147,17 +47501,17 @@
       <c r="ED117">
         <v>71868</v>
       </c>
-      <c r="EE117" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF117" s="14">
-        <v>0</v>
+      <c r="EE117">
+        <v>74191</v>
+      </c>
+      <c r="EF117" t="s">
+        <v>139</v>
       </c>
       <c r="EG117" s="14">
         <v>0</v>
       </c>
       <c r="EH117" s="14">
-        <v>0</v>
+        <v>78200</v>
       </c>
       <c r="EI117" s="14">
         <v>0</v>
@@ -47569,11 +47923,11 @@
       <c r="ED118">
         <v>1359</v>
       </c>
-      <c r="EE118" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF118" s="14">
-        <v>0</v>
+      <c r="EE118">
+        <v>1521</v>
+      </c>
+      <c r="EF118" t="s">
+        <v>135</v>
       </c>
       <c r="EG118" s="14">
         <v>0</v>
@@ -47991,11 +48345,11 @@
       <c r="ED119" s="14">
         <v>1150</v>
       </c>
-      <c r="EE119" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF119" s="14">
-        <v>0</v>
+      <c r="EE119">
+        <v>2834</v>
+      </c>
+      <c r="EF119" t="s">
+        <v>135</v>
       </c>
       <c r="EG119" s="14">
         <v>0</v>
@@ -48413,11 +48767,11 @@
       <c r="ED120">
         <v>106</v>
       </c>
-      <c r="EE120" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF120" s="14">
-        <v>0</v>
+      <c r="EE120">
+        <v>147</v>
+      </c>
+      <c r="EF120" t="s">
+        <v>135</v>
       </c>
       <c r="EG120" s="14">
         <v>0</v>
@@ -48835,11 +49189,11 @@
       <c r="ED121">
         <v>3</v>
       </c>
-      <c r="EE121" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF121" s="14">
-        <v>0</v>
+      <c r="EE121">
+        <v>3</v>
+      </c>
+      <c r="EF121" t="s">
+        <v>135</v>
       </c>
       <c r="EG121" s="14">
         <v>0</v>
@@ -49257,11 +49611,11 @@
       <c r="ED122">
         <v>10</v>
       </c>
-      <c r="EE122" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF122" s="14">
-        <v>0</v>
+      <c r="EE122">
+        <v>10</v>
+      </c>
+      <c r="EF122" t="s">
+        <v>135</v>
       </c>
       <c r="EG122" s="14">
         <v>0</v>
@@ -49679,11 +50033,11 @@
       <c r="ED123">
         <v>43</v>
       </c>
-      <c r="EE123" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF123" s="14">
-        <v>0</v>
+      <c r="EE123">
+        <v>43</v>
+      </c>
+      <c r="EF123" t="s">
+        <v>135</v>
       </c>
       <c r="EG123" s="14">
         <v>0</v>
@@ -50101,10 +50455,10 @@
       <c r="ED124">
         <v>0</v>
       </c>
-      <c r="EE124" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF124" s="14">
+      <c r="EE124">
+        <v>0</v>
+      </c>
+      <c r="EF124">
         <v>0</v>
       </c>
       <c r="EG124" s="14">
@@ -50523,11 +50877,11 @@
       <c r="ED125">
         <v>22</v>
       </c>
-      <c r="EE125" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF125" s="14">
-        <v>0</v>
+      <c r="EE125">
+        <v>34</v>
+      </c>
+      <c r="EF125" t="s">
+        <v>135</v>
       </c>
       <c r="EG125" s="14">
         <v>0</v>
@@ -50945,11 +51299,11 @@
       <c r="ED126">
         <v>11</v>
       </c>
-      <c r="EE126" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF126" s="14">
-        <v>0</v>
+      <c r="EE126">
+        <v>8</v>
+      </c>
+      <c r="EF126" t="s">
+        <v>139</v>
       </c>
       <c r="EG126" s="14">
         <v>0</v>
@@ -51367,11 +51721,11 @@
       <c r="ED127">
         <v>65</v>
       </c>
-      <c r="EE127" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF127" s="14">
-        <v>0</v>
+      <c r="EE127">
+        <v>79</v>
+      </c>
+      <c r="EF127" t="s">
+        <v>139</v>
       </c>
       <c r="EG127" s="14">
         <v>0</v>
@@ -51789,11 +52143,11 @@
       <c r="ED128">
         <v>0</v>
       </c>
-      <c r="EE128" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF128" s="14">
-        <v>0</v>
+      <c r="EE128">
+        <v>0</v>
+      </c>
+      <c r="EF128" t="s">
+        <v>135</v>
       </c>
       <c r="EG128" s="14">
         <v>0</v>
@@ -52211,11 +52565,11 @@
       <c r="ED129">
         <v>3</v>
       </c>
-      <c r="EE129" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF129" s="14">
-        <v>0</v>
+      <c r="EE129">
+        <v>3</v>
+      </c>
+      <c r="EF129" t="s">
+        <v>135</v>
       </c>
       <c r="EG129" s="14">
         <v>0</v>
@@ -52633,11 +52987,11 @@
       <c r="ED130">
         <v>5</v>
       </c>
-      <c r="EE130" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF130" s="14">
-        <v>0</v>
+      <c r="EE130">
+        <v>6</v>
+      </c>
+      <c r="EF130" t="s">
+        <v>140</v>
       </c>
       <c r="EG130" s="14">
         <v>0</v>
@@ -53055,10 +53409,10 @@
       <c r="ED131">
         <v>0</v>
       </c>
-      <c r="EE131" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF131" s="14">
+      <c r="EE131">
+        <v>0</v>
+      </c>
+      <c r="EF131">
         <v>0</v>
       </c>
       <c r="EG131" s="14">
@@ -53477,11 +53831,11 @@
       <c r="ED132">
         <v>119</v>
       </c>
-      <c r="EE132" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF132" s="14">
-        <v>0</v>
+      <c r="EE132">
+        <v>338</v>
+      </c>
+      <c r="EF132" t="s">
+        <v>135</v>
       </c>
       <c r="EG132" s="14">
         <v>0</v>
@@ -53899,11 +54253,11 @@
       <c r="ED133">
         <v>187.3</v>
       </c>
-      <c r="EE133" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF133" s="14">
-        <v>0</v>
+      <c r="EE133">
+        <v>209</v>
+      </c>
+      <c r="EF133" t="s">
+        <v>139</v>
       </c>
       <c r="EG133" s="14">
         <v>0</v>
@@ -54321,11 +54675,11 @@
       <c r="ED134">
         <v>94</v>
       </c>
-      <c r="EE134" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF134" s="14">
-        <v>0</v>
+      <c r="EE134">
+        <v>94</v>
+      </c>
+      <c r="EF134" t="s">
+        <v>135</v>
       </c>
       <c r="EG134" s="14">
         <v>0</v>
@@ -54743,11 +55097,11 @@
       <c r="ED135">
         <v>37</v>
       </c>
-      <c r="EE135" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF135" s="14">
-        <v>0</v>
+      <c r="EE135">
+        <v>33</v>
+      </c>
+      <c r="EF135" t="s">
+        <v>135</v>
       </c>
       <c r="EG135" s="14">
         <v>0</v>
@@ -55165,11 +55519,11 @@
       <c r="ED136">
         <v>24</v>
       </c>
-      <c r="EE136" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF136" s="14">
-        <v>0</v>
+      <c r="EE136">
+        <v>142</v>
+      </c>
+      <c r="EF136" t="s">
+        <v>135</v>
       </c>
       <c r="EG136" s="14">
         <v>0</v>
@@ -55587,11 +55941,11 @@
       <c r="ED137">
         <v>2300</v>
       </c>
-      <c r="EE137" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF137" s="14">
-        <v>0</v>
+      <c r="EE137">
+        <v>1787</v>
+      </c>
+      <c r="EF137" t="s">
+        <v>135</v>
       </c>
       <c r="EG137" s="14">
         <v>0</v>
@@ -56009,11 +56363,11 @@
       <c r="ED138">
         <v>0</v>
       </c>
-      <c r="EE138" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF138" s="14">
-        <v>0</v>
+      <c r="EE138">
+        <v>31</v>
+      </c>
+      <c r="EF138" t="s">
+        <v>140</v>
       </c>
       <c r="EG138" s="14">
         <v>0</v>
@@ -56431,11 +56785,11 @@
       <c r="ED139">
         <v>70</v>
       </c>
-      <c r="EE139" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF139" s="14">
-        <v>0</v>
+      <c r="EE139">
+        <v>100</v>
+      </c>
+      <c r="EF139" t="s">
+        <v>140</v>
       </c>
       <c r="EG139" s="14">
         <v>0</v>
@@ -56853,11 +57207,11 @@
       <c r="ED140">
         <v>166</v>
       </c>
-      <c r="EE140" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF140" s="14">
-        <v>0</v>
+      <c r="EE140">
+        <v>196</v>
+      </c>
+      <c r="EF140" t="s">
+        <v>139</v>
       </c>
       <c r="EG140" s="14">
         <v>0</v>
@@ -57275,11 +57629,11 @@
       <c r="ED141">
         <v>2</v>
       </c>
-      <c r="EE141" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF141" s="14">
-        <v>0</v>
+      <c r="EE141">
+        <v>2</v>
+      </c>
+      <c r="EF141" t="s">
+        <v>135</v>
       </c>
       <c r="EG141" s="14">
         <v>0</v>
@@ -57697,11 +58051,11 @@
       <c r="ED142" s="14">
         <v>71</v>
       </c>
-      <c r="EE142" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF142" s="14">
-        <v>0</v>
+      <c r="EE142">
+        <v>78</v>
+      </c>
+      <c r="EF142" t="s">
+        <v>137</v>
       </c>
       <c r="EG142" s="14">
         <v>0</v>
@@ -58119,11 +58473,11 @@
       <c r="ED143">
         <v>88</v>
       </c>
-      <c r="EE143" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF143" s="14">
-        <v>0</v>
+      <c r="EE143">
+        <v>88</v>
+      </c>
+      <c r="EF143" t="s">
+        <v>135</v>
       </c>
       <c r="EG143" s="14">
         <v>0</v>
@@ -58541,11 +58895,11 @@
       <c r="ED144">
         <v>83</v>
       </c>
-      <c r="EE144" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF144" s="14">
-        <v>0</v>
+      <c r="EE144">
+        <v>83</v>
+      </c>
+      <c r="EF144" t="s">
+        <v>135</v>
       </c>
       <c r="EG144" s="14">
         <v>0</v>
@@ -58963,11 +59317,11 @@
       <c r="ED145">
         <v>15</v>
       </c>
-      <c r="EE145" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF145" s="14">
-        <v>0</v>
+      <c r="EE145">
+        <v>18</v>
+      </c>
+      <c r="EF145" t="s">
+        <v>137</v>
       </c>
       <c r="EG145" s="14">
         <v>0</v>
@@ -59385,17 +59739,17 @@
       <c r="ED146">
         <v>6574</v>
       </c>
-      <c r="EE146" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF146" s="14">
-        <v>0</v>
+      <c r="EE146">
+        <v>7026</v>
+      </c>
+      <c r="EF146" t="s">
+        <v>139</v>
       </c>
       <c r="EG146" s="14">
         <v>0</v>
       </c>
       <c r="EH146" s="14">
-        <v>0</v>
+        <v>8374</v>
       </c>
       <c r="EI146" s="14">
         <v>0</v>
@@ -59807,11 +60161,11 @@
       <c r="ED147">
         <v>0</v>
       </c>
-      <c r="EE147" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF147" s="14">
-        <v>0</v>
+      <c r="EE147">
+        <v>2</v>
+      </c>
+      <c r="EF147" t="s">
+        <v>135</v>
       </c>
       <c r="EG147" s="14">
         <v>0</v>
@@ -60229,11 +60583,11 @@
       <c r="ED148" s="14">
         <v>5</v>
       </c>
-      <c r="EE148" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF148" s="14">
-        <v>0</v>
+      <c r="EE148">
+        <v>8</v>
+      </c>
+      <c r="EF148" t="s">
+        <v>139</v>
       </c>
       <c r="EG148" s="14">
         <v>0</v>
@@ -60651,10 +61005,10 @@
       <c r="ED149" s="14">
         <v>0</v>
       </c>
-      <c r="EE149" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF149" s="14">
+      <c r="EE149">
+        <v>0</v>
+      </c>
+      <c r="EF149">
         <v>0</v>
       </c>
       <c r="EG149" s="14">
@@ -61073,11 +61427,11 @@
       <c r="ED150" s="14">
         <v>90</v>
       </c>
-      <c r="EE150" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF150" s="14">
-        <v>0</v>
+      <c r="EE150">
+        <v>90</v>
+      </c>
+      <c r="EF150" t="s">
+        <v>135</v>
       </c>
       <c r="EG150" s="14">
         <v>0</v>
@@ -61495,11 +61849,11 @@
       <c r="ED151">
         <v>6</v>
       </c>
-      <c r="EE151" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF151" s="14">
-        <v>0</v>
+      <c r="EE151">
+        <v>7</v>
+      </c>
+      <c r="EF151" t="s">
+        <v>135</v>
       </c>
       <c r="EG151" s="14">
         <v>0</v>
@@ -61917,11 +62271,11 @@
       <c r="ED152">
         <v>0</v>
       </c>
-      <c r="EE152" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF152" s="14">
-        <v>0</v>
+      <c r="EE152">
+        <v>1</v>
+      </c>
+      <c r="EF152" t="s">
+        <v>137</v>
       </c>
       <c r="EG152" s="14">
         <v>0</v>
@@ -62339,11 +62693,11 @@
       <c r="ED153">
         <v>206</v>
       </c>
-      <c r="EE153" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF153" s="14">
-        <v>0</v>
+      <c r="EE153">
+        <v>234</v>
+      </c>
+      <c r="EF153" t="s">
+        <v>135</v>
       </c>
       <c r="EG153" s="14">
         <v>0</v>
@@ -62761,11 +63115,11 @@
       <c r="ED154">
         <v>55</v>
       </c>
-      <c r="EE154" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF154" s="14">
-        <v>0</v>
+      <c r="EE154">
+        <v>55</v>
+      </c>
+      <c r="EF154" t="s">
+        <v>135</v>
       </c>
       <c r="EG154" s="14">
         <v>0</v>
@@ -63183,11 +63537,11 @@
       <c r="ED155">
         <v>84</v>
       </c>
-      <c r="EE155" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF155" s="14">
-        <v>0</v>
+      <c r="EE155">
+        <v>80</v>
+      </c>
+      <c r="EF155" t="s">
+        <v>135</v>
       </c>
       <c r="EG155" s="14">
         <v>0</v>
@@ -63605,11 +63959,11 @@
       <c r="ED156">
         <v>145</v>
       </c>
-      <c r="EE156" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF156" s="14">
-        <v>0</v>
+      <c r="EE156">
+        <v>145</v>
+      </c>
+      <c r="EF156" t="s">
+        <v>135</v>
       </c>
       <c r="EG156" s="14">
         <v>0</v>
@@ -64027,11 +64381,11 @@
       <c r="ED157">
         <v>2</v>
       </c>
-      <c r="EE157" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF157" s="14">
-        <v>0</v>
+      <c r="EE157">
+        <v>2</v>
+      </c>
+      <c r="EF157" t="s">
+        <v>135</v>
       </c>
       <c r="EG157" s="14">
         <v>0</v>
@@ -64449,11 +64803,11 @@
       <c r="ED158">
         <v>60</v>
       </c>
-      <c r="EE158" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF158" s="14">
-        <v>0</v>
+      <c r="EE158">
+        <v>93</v>
+      </c>
+      <c r="EF158" t="s">
+        <v>135</v>
       </c>
       <c r="EG158" s="14">
         <v>0</v>
@@ -64871,17 +65225,17 @@
       <c r="ED159">
         <v>9910</v>
       </c>
-      <c r="EE159" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF159" s="14">
-        <v>0</v>
+      <c r="EE159">
+        <v>14249</v>
+      </c>
+      <c r="EF159" t="s">
+        <v>139</v>
       </c>
       <c r="EG159" s="14">
         <v>0</v>
       </c>
       <c r="EH159" s="14">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="EI159" s="14">
         <v>0</v>
@@ -65293,11 +65647,11 @@
       <c r="ED160">
         <v>80</v>
       </c>
-      <c r="EE160" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF160" s="14">
-        <v>0</v>
+      <c r="EE160">
+        <v>80</v>
+      </c>
+      <c r="EF160" t="s">
+        <v>135</v>
       </c>
       <c r="EG160" s="14">
         <v>0</v>
@@ -65715,11 +66069,11 @@
       <c r="ED161" s="14">
         <v>142</v>
       </c>
-      <c r="EE161" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF161" s="14">
-        <v>0</v>
+      <c r="EE161">
+        <v>146</v>
+      </c>
+      <c r="EF161" t="s">
+        <v>137</v>
       </c>
       <c r="EG161" s="14">
         <v>0</v>
@@ -66137,11 +66491,11 @@
       <c r="ED162" s="14">
         <v>16</v>
       </c>
-      <c r="EE162" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF162" s="14">
-        <v>0</v>
+      <c r="EE162">
+        <v>16</v>
+      </c>
+      <c r="EF162" t="s">
+        <v>135</v>
       </c>
       <c r="EG162" s="14">
         <v>0</v>
@@ -66559,11 +66913,11 @@
       <c r="ED163">
         <v>27</v>
       </c>
-      <c r="EE163" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF163" s="14">
-        <v>0</v>
+      <c r="EE163">
+        <v>27</v>
+      </c>
+      <c r="EF163" t="s">
+        <v>135</v>
       </c>
       <c r="EG163" s="14">
         <v>0</v>
@@ -66981,11 +67335,11 @@
       <c r="ED164">
         <v>28</v>
       </c>
-      <c r="EE164" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF164" s="14">
-        <v>0</v>
+      <c r="EE164">
+        <v>33</v>
+      </c>
+      <c r="EF164" t="s">
+        <v>135</v>
       </c>
       <c r="EG164" s="14">
         <v>0</v>
@@ -67403,11 +67757,11 @@
       <c r="ED165">
         <v>1</v>
       </c>
-      <c r="EE165" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF165" s="14">
-        <v>0</v>
+      <c r="EE165">
+        <v>1</v>
+      </c>
+      <c r="EF165" t="s">
+        <v>135</v>
       </c>
       <c r="EG165" s="14">
         <v>0</v>
@@ -67825,10 +68179,10 @@
       <c r="ED166">
         <v>0</v>
       </c>
-      <c r="EE166" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF166" s="14">
+      <c r="EE166">
+        <v>0</v>
+      </c>
+      <c r="EF166">
         <v>0</v>
       </c>
       <c r="EG166" s="14">
@@ -68247,11 +68601,11 @@
       <c r="ED167">
         <v>42</v>
       </c>
-      <c r="EE167" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF167" s="14">
-        <v>0</v>
+      <c r="EE167">
+        <v>52</v>
+      </c>
+      <c r="EF167" t="s">
+        <v>135</v>
       </c>
       <c r="EG167" s="14">
         <v>0</v>
@@ -68669,17 +69023,17 @@
       <c r="ED168">
         <v>160</v>
       </c>
-      <c r="EE168" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF168" s="14">
-        <v>0</v>
+      <c r="EE168">
+        <v>225</v>
+      </c>
+      <c r="EF168" t="s">
+        <v>135</v>
       </c>
       <c r="EG168" s="14">
         <v>0</v>
       </c>
       <c r="EH168" s="14">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="EI168" s="14">
         <v>0</v>
@@ -69091,11 +69445,11 @@
       <c r="ED169">
         <v>109</v>
       </c>
-      <c r="EE169" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF169" s="14">
-        <v>0</v>
+      <c r="EE169">
+        <v>138</v>
+      </c>
+      <c r="EF169" t="s">
+        <v>135</v>
       </c>
       <c r="EG169" s="14">
         <v>0</v>
@@ -69513,11 +69867,11 @@
       <c r="ED170">
         <v>737</v>
       </c>
-      <c r="EE170" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF170" s="14">
-        <v>0</v>
+      <c r="EE170">
+        <v>1083</v>
+      </c>
+      <c r="EF170" t="s">
+        <v>135</v>
       </c>
       <c r="EG170" s="14">
         <v>0</v>
@@ -69935,11 +70289,11 @@
       <c r="ED171">
         <v>2</v>
       </c>
-      <c r="EE171" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF171" s="14">
-        <v>0</v>
+      <c r="EE171">
+        <v>2</v>
+      </c>
+      <c r="EF171" t="s">
+        <v>135</v>
       </c>
       <c r="EG171" s="14">
         <v>0</v>
@@ -70357,11 +70711,11 @@
       <c r="ED172">
         <v>55</v>
       </c>
-      <c r="EE172" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF172" s="14">
-        <v>0</v>
+      <c r="EE172">
+        <v>117</v>
+      </c>
+      <c r="EF172" t="s">
+        <v>135</v>
       </c>
       <c r="EG172" s="14">
         <v>0</v>
@@ -70779,11 +71133,11 @@
       <c r="ED173">
         <v>198</v>
       </c>
-      <c r="EE173" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF173" s="14">
-        <v>0</v>
+      <c r="EE173">
+        <v>465</v>
+      </c>
+      <c r="EF173" t="s">
+        <v>139</v>
       </c>
       <c r="EG173" s="14">
         <v>0</v>
@@ -71201,11 +71555,11 @@
       <c r="ED174">
         <v>1</v>
       </c>
-      <c r="EE174" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF174" s="14">
-        <v>0</v>
+      <c r="EE174">
+        <v>3</v>
+      </c>
+      <c r="EF174" t="s">
+        <v>135</v>
       </c>
       <c r="EG174" s="14">
         <v>0</v>
@@ -71623,11 +71977,11 @@
       <c r="ED175">
         <v>0</v>
       </c>
-      <c r="EE175" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF175" s="14">
-        <v>0</v>
+      <c r="EE175">
+        <v>0</v>
+      </c>
+      <c r="EF175" t="s">
+        <v>135</v>
       </c>
       <c r="EG175" s="14">
         <v>0</v>
@@ -72045,11 +72399,11 @@
       <c r="ED176">
         <v>331</v>
       </c>
-      <c r="EE176" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF176" s="14">
-        <v>0</v>
+      <c r="EE176">
+        <v>336</v>
+      </c>
+      <c r="EF176" t="s">
+        <v>139</v>
       </c>
       <c r="EG176" s="14">
         <v>0</v>
@@ -72467,11 +72821,11 @@
       <c r="ED177" s="14">
         <v>1048</v>
       </c>
-      <c r="EE177" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF177" s="14">
-        <v>0</v>
+      <c r="EE177">
+        <v>1370</v>
+      </c>
+      <c r="EF177" t="s">
+        <v>135</v>
       </c>
       <c r="EG177" s="14">
         <v>0</v>
@@ -72889,11 +73243,11 @@
       <c r="ED178">
         <v>3901.2</v>
       </c>
-      <c r="EE178" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF178" s="14">
-        <v>0</v>
+      <c r="EE178">
+        <v>6247</v>
+      </c>
+      <c r="EF178" t="s">
+        <v>137</v>
       </c>
       <c r="EG178" s="14">
         <v>0</v>
@@ -73311,17 +73665,17 @@
       <c r="ED179">
         <v>1077</v>
       </c>
-      <c r="EE179" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF179" s="14">
-        <v>0</v>
+      <c r="EE179">
+        <v>1801</v>
+      </c>
+      <c r="EF179" t="s">
+        <v>135</v>
       </c>
       <c r="EG179" s="14">
         <v>0</v>
       </c>
       <c r="EH179" s="14">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="EI179" s="14">
         <v>0</v>
@@ -73733,11 +74087,11 @@
       <c r="ED180">
         <v>165</v>
       </c>
-      <c r="EE180" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF180" s="14">
-        <v>0</v>
+      <c r="EE180">
+        <v>491</v>
+      </c>
+      <c r="EF180" t="s">
+        <v>135</v>
       </c>
       <c r="EG180" s="14">
         <v>0</v>
@@ -74155,11 +74509,11 @@
       <c r="ED181">
         <v>5</v>
       </c>
-      <c r="EE181" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF181" s="14">
-        <v>0</v>
+      <c r="EE181">
+        <v>5</v>
+      </c>
+      <c r="EF181" t="s">
+        <v>135</v>
       </c>
       <c r="EG181" s="14">
         <v>0</v>
@@ -74577,11 +74931,11 @@
       <c r="ED182">
         <v>191</v>
       </c>
-      <c r="EE182" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF182" s="14">
-        <v>0</v>
+      <c r="EE182">
+        <v>217</v>
+      </c>
+      <c r="EF182" t="s">
+        <v>135</v>
       </c>
       <c r="EG182" s="14">
         <v>0</v>
@@ -74999,11 +75353,11 @@
       <c r="ED183">
         <v>1396.8</v>
       </c>
-      <c r="EE183" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF183" s="14">
-        <v>0</v>
+      <c r="EE183">
+        <v>1398</v>
+      </c>
+      <c r="EF183" t="s">
+        <v>139</v>
       </c>
       <c r="EG183" s="14">
         <v>0</v>
@@ -75421,11 +75775,11 @@
       <c r="ED184" s="14">
         <v>1428</v>
       </c>
-      <c r="EE184" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF184" s="14">
-        <v>0</v>
+      <c r="EE184">
+        <v>1661</v>
+      </c>
+      <c r="EF184" t="s">
+        <v>135</v>
       </c>
       <c r="EG184" s="14">
         <v>0</v>
@@ -75843,11 +76197,11 @@
       <c r="ED185">
         <v>31</v>
       </c>
-      <c r="EE185" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF185" s="14">
-        <v>0</v>
+      <c r="EE185">
+        <v>38</v>
+      </c>
+      <c r="EF185" t="s">
+        <v>135</v>
       </c>
       <c r="EG185" s="14">
         <v>0</v>
@@ -76265,11 +76619,11 @@
       <c r="ED186">
         <v>0</v>
       </c>
-      <c r="EE186" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF186" s="14">
-        <v>0</v>
+      <c r="EE186">
+        <v>0</v>
+      </c>
+      <c r="EF186" t="s">
+        <v>135</v>
       </c>
       <c r="EG186" s="14">
         <v>0</v>
@@ -76687,11 +77041,11 @@
       <c r="ED187">
         <v>2</v>
       </c>
-      <c r="EE187" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF187" s="14">
-        <v>0</v>
+      <c r="EE187">
+        <v>2</v>
+      </c>
+      <c r="EF187" t="s">
+        <v>135</v>
       </c>
       <c r="EG187" s="14">
         <v>0</v>
@@ -77109,11 +77463,11 @@
       <c r="ED188">
         <v>0</v>
       </c>
-      <c r="EE188" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF188" s="14">
-        <v>0</v>
+      <c r="EE188">
+        <v>4</v>
+      </c>
+      <c r="EF188" t="s">
+        <v>135</v>
       </c>
       <c r="EG188" s="14">
         <v>0</v>
@@ -77531,11 +77885,11 @@
       <c r="ED189">
         <v>0</v>
       </c>
-      <c r="EE189" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF189" s="14">
-        <v>0</v>
+      <c r="EE189">
+        <v>1</v>
+      </c>
+      <c r="EF189" t="s">
+        <v>135</v>
       </c>
       <c r="EG189" s="14">
         <v>0</v>
@@ -77953,11 +78307,11 @@
       <c r="ED190">
         <v>2</v>
       </c>
-      <c r="EE190" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF190" s="14">
-        <v>0</v>
+      <c r="EE190">
+        <v>2</v>
+      </c>
+      <c r="EF190" t="s">
+        <v>135</v>
       </c>
       <c r="EG190" s="14">
         <v>0</v>
@@ -78375,11 +78729,11 @@
       <c r="ED191">
         <v>14</v>
       </c>
-      <c r="EE191" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF191" s="14">
-        <v>0</v>
+      <c r="EE191">
+        <v>14</v>
+      </c>
+      <c r="EF191" t="s">
+        <v>135</v>
       </c>
       <c r="EG191" s="14">
         <v>0</v>
@@ -78797,10 +79151,10 @@
       <c r="ED192">
         <v>0</v>
       </c>
-      <c r="EE192" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF192" s="14">
+      <c r="EE192">
+        <v>0</v>
+      </c>
+      <c r="EF192">
         <v>0</v>
       </c>
       <c r="EG192" s="14">
@@ -79219,11 +79573,11 @@
       <c r="ED193">
         <v>0</v>
       </c>
-      <c r="EE193" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF193" s="14">
-        <v>0</v>
+      <c r="EE193">
+        <v>0</v>
+      </c>
+      <c r="EF193" t="s">
+        <v>135</v>
       </c>
       <c r="EG193" s="14">
         <v>0</v>
@@ -79641,11 +79995,11 @@
       <c r="ED194">
         <v>359</v>
       </c>
-      <c r="EE194" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF194" s="14">
-        <v>0</v>
+      <c r="EE194">
+        <v>389</v>
+      </c>
+      <c r="EF194" t="s">
+        <v>135</v>
       </c>
       <c r="EG194" s="14">
         <v>0</v>
@@ -80063,11 +80417,11 @@
       <c r="ED195">
         <v>155</v>
       </c>
-      <c r="EE195" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF195" s="14">
-        <v>0</v>
+      <c r="EE195">
+        <v>238</v>
+      </c>
+      <c r="EF195" t="s">
+        <v>135</v>
       </c>
       <c r="EG195" s="14">
         <v>0</v>
@@ -80485,11 +80839,11 @@
       <c r="ED196">
         <v>29</v>
       </c>
-      <c r="EE196" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF196" s="14">
-        <v>0</v>
+      <c r="EE196">
+        <v>52</v>
+      </c>
+      <c r="EF196" t="s">
+        <v>135</v>
       </c>
       <c r="EG196" s="14">
         <v>0</v>
@@ -80907,11 +81261,11 @@
       <c r="ED197">
         <v>4</v>
       </c>
-      <c r="EE197" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF197" s="14">
-        <v>0</v>
+      <c r="EE197">
+        <v>9</v>
+      </c>
+      <c r="EF197" t="s">
+        <v>135</v>
       </c>
       <c r="EG197" s="14">
         <v>0</v>
@@ -81329,11 +81683,11 @@
       <c r="ED198">
         <v>4</v>
       </c>
-      <c r="EE198" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF198" s="14">
-        <v>0</v>
+      <c r="EE198">
+        <v>4</v>
+      </c>
+      <c r="EF198" t="s">
+        <v>140</v>
       </c>
       <c r="EG198" s="14">
         <v>0</v>
@@ -81751,11 +82105,11 @@
       <c r="ED199">
         <v>0</v>
       </c>
-      <c r="EE199" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF199" s="14">
-        <v>0</v>
+      <c r="EE199">
+        <v>433</v>
+      </c>
+      <c r="EF199" t="s">
+        <v>139</v>
       </c>
       <c r="EG199" s="14">
         <v>0</v>
@@ -82173,11 +82527,11 @@
       <c r="ED200">
         <v>542</v>
       </c>
-      <c r="EE200" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF200" s="14">
-        <v>0</v>
+      <c r="EE200">
+        <v>535</v>
+      </c>
+      <c r="EF200" t="s">
+        <v>135</v>
       </c>
       <c r="EG200" s="14">
         <v>0</v>
@@ -82595,11 +82949,11 @@
       <c r="ED201">
         <v>382.1</v>
       </c>
-      <c r="EE201" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF201" s="14">
-        <v>0</v>
+      <c r="EE201">
+        <v>367</v>
+      </c>
+      <c r="EF201" t="s">
+        <v>139</v>
       </c>
       <c r="EG201" s="14">
         <v>0</v>
@@ -83017,11 +83371,11 @@
       <c r="ED202">
         <v>0</v>
       </c>
-      <c r="EE202" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF202" s="14">
-        <v>0</v>
+      <c r="EE202">
+        <v>3</v>
+      </c>
+      <c r="EF202" t="s">
+        <v>135</v>
       </c>
       <c r="EG202" s="14">
         <v>0</v>
@@ -83439,11 +83793,11 @@
       <c r="ED203" s="14">
         <v>23</v>
       </c>
-      <c r="EE203" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF203" s="14">
-        <v>0</v>
+      <c r="EE203">
+        <v>24</v>
+      </c>
+      <c r="EF203" t="s">
+        <v>140</v>
       </c>
       <c r="EG203" s="14">
         <v>0</v>
@@ -83861,11 +84215,11 @@
       <c r="ED204">
         <v>4172</v>
       </c>
-      <c r="EE204" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF204" s="14">
-        <v>0</v>
+      <c r="EE204">
+        <v>5721</v>
+      </c>
+      <c r="EF204" t="s">
+        <v>135</v>
       </c>
       <c r="EG204" s="14">
         <v>0</v>
@@ -84283,17 +84637,17 @@
       <c r="ED205">
         <v>15888</v>
       </c>
-      <c r="EE205" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF205" s="14">
-        <v>0</v>
+      <c r="EE205">
+        <v>18161</v>
+      </c>
+      <c r="EF205" t="s">
+        <v>139</v>
       </c>
       <c r="EG205" s="14">
         <v>0</v>
       </c>
       <c r="EH205" s="14">
-        <v>0</v>
+        <v>20100</v>
       </c>
       <c r="EI205" s="14">
         <v>0</v>
@@ -84705,11 +85059,11 @@
       <c r="ED206">
         <v>1</v>
       </c>
-      <c r="EE206" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF206" s="14">
-        <v>0</v>
+      <c r="EE206">
+        <v>1</v>
+      </c>
+      <c r="EF206" t="s">
+        <v>140</v>
       </c>
       <c r="EG206" s="14">
         <v>0</v>
@@ -85127,17 +85481,17 @@
       <c r="ED207">
         <v>13603</v>
       </c>
-      <c r="EE207" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF207" s="14">
-        <v>0</v>
+      <c r="EE207">
+        <v>13648</v>
+      </c>
+      <c r="EF207" t="s">
+        <v>135</v>
       </c>
       <c r="EG207" s="14">
         <v>0</v>
       </c>
       <c r="EH207" s="14">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="EI207" s="14">
         <v>0</v>
@@ -85549,11 +85903,11 @@
       <c r="ED208">
         <v>230</v>
       </c>
-      <c r="EE208" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF208" s="14">
-        <v>0</v>
+      <c r="EE208">
+        <v>434</v>
+      </c>
+      <c r="EF208" t="s">
+        <v>135</v>
       </c>
       <c r="EG208" s="14">
         <v>0</v>
@@ -85971,11 +86325,11 @@
       <c r="ED209">
         <v>19</v>
       </c>
-      <c r="EE209" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF209" s="14">
-        <v>0</v>
+      <c r="EE209">
+        <v>136</v>
+      </c>
+      <c r="EF209" t="s">
+        <v>140</v>
       </c>
       <c r="EG209" s="14">
         <v>0</v>
@@ -86393,11 +86747,11 @@
       <c r="ED210">
         <v>7</v>
       </c>
-      <c r="EE210" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF210" s="14">
-        <v>0</v>
+      <c r="EE210">
+        <v>9</v>
+      </c>
+      <c r="EF210" t="s">
+        <v>135</v>
       </c>
       <c r="EG210" s="14">
         <v>0</v>
@@ -86815,11 +87169,11 @@
       <c r="ED211">
         <v>1</v>
       </c>
-      <c r="EE211" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF211" s="14">
-        <v>0</v>
+      <c r="EE211">
+        <v>11</v>
+      </c>
+      <c r="EF211" t="s">
+        <v>135</v>
       </c>
       <c r="EG211" s="14">
         <v>0</v>
@@ -87237,17 +87591,17 @@
       <c r="ED212">
         <v>1226</v>
       </c>
-      <c r="EE212" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF212" s="14">
-        <v>0</v>
+      <c r="EE212">
+        <v>1577</v>
+      </c>
+      <c r="EF212" t="s">
+        <v>135</v>
       </c>
       <c r="EG212" s="14">
         <v>0</v>
       </c>
       <c r="EH212" s="14">
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="EI212" s="14">
         <v>0</v>
@@ -87659,17 +88013,17 @@
       <c r="ED213">
         <v>2973</v>
       </c>
-      <c r="EE213" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF213" s="14">
-        <v>0</v>
+      <c r="EE213">
+        <v>3449</v>
+      </c>
+      <c r="EF213" t="s">
+        <v>135</v>
       </c>
       <c r="EG213" s="14">
         <v>0</v>
       </c>
       <c r="EH213" s="14">
-        <v>0</v>
+        <v>3589</v>
       </c>
       <c r="EI213" s="14">
         <v>0</v>
@@ -88081,11 +88435,11 @@
       <c r="ED214">
         <v>2</v>
       </c>
-      <c r="EE214" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF214" s="14">
-        <v>0</v>
+      <c r="EE214">
+        <v>2</v>
+      </c>
+      <c r="EF214" t="s">
+        <v>135</v>
       </c>
       <c r="EG214" s="14">
         <v>0</v>
@@ -88503,11 +88857,11 @@
       <c r="ED215" s="14">
         <v>5817</v>
       </c>
-      <c r="EE215" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF215" s="14">
-        <v>0</v>
+      <c r="EE215">
+        <v>7700</v>
+      </c>
+      <c r="EF215" t="s">
+        <v>139</v>
       </c>
       <c r="EG215" s="14">
         <v>0</v>
@@ -88925,10 +89279,10 @@
       <c r="ED216">
         <v>0</v>
       </c>
-      <c r="EE216" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF216" s="14">
+      <c r="EE216">
+        <v>0</v>
+      </c>
+      <c r="EF216">
         <v>0</v>
       </c>
       <c r="EG216" s="14">
@@ -89347,11 +89701,11 @@
       <c r="ED217">
         <v>26</v>
       </c>
-      <c r="EE217" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF217" s="14">
-        <v>0</v>
+      <c r="EE217">
+        <v>24</v>
+      </c>
+      <c r="EF217" t="s">
+        <v>135</v>
       </c>
       <c r="EG217" s="14">
         <v>0</v>
@@ -89769,11 +90123,11 @@
       <c r="ED218">
         <v>3578</v>
       </c>
-      <c r="EE218" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF218" s="14">
-        <v>0</v>
+      <c r="EE218">
+        <v>3044</v>
+      </c>
+      <c r="EF218" t="s">
+        <v>135</v>
       </c>
       <c r="EG218" s="14">
         <v>0</v>
@@ -90191,11 +90545,11 @@
       <c r="ED219">
         <v>0</v>
       </c>
-      <c r="EE219" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF219" s="14">
-        <v>0</v>
+      <c r="EE219">
+        <v>56</v>
+      </c>
+      <c r="EF219" t="s">
+        <v>140</v>
       </c>
       <c r="EG219" s="14">
         <v>0</v>
@@ -90613,11 +90967,11 @@
       <c r="ED220">
         <v>1</v>
       </c>
-      <c r="EE220" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF220" s="14">
-        <v>0</v>
+      <c r="EE220">
+        <v>1</v>
+      </c>
+      <c r="EF220" t="s">
+        <v>135</v>
       </c>
       <c r="EG220" s="14">
         <v>0</v>
@@ -91035,11 +91389,11 @@
       <c r="ED221">
         <v>6</v>
       </c>
-      <c r="EE221" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF221" s="14">
-        <v>0</v>
+      <c r="EE221">
+        <v>6</v>
+      </c>
+      <c r="EF221" t="s">
+        <v>135</v>
       </c>
       <c r="EG221" s="14">
         <v>0</v>
@@ -91457,11 +91811,11 @@
       <c r="ED222">
         <v>3</v>
       </c>
-      <c r="EE222" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF222" s="14">
-        <v>0</v>
+      <c r="EE222">
+        <v>4</v>
+      </c>
+      <c r="EF222" t="s">
+        <v>137</v>
       </c>
       <c r="EG222" s="14">
         <v>0</v>
@@ -91879,11 +92233,11 @@
       <c r="ED223">
         <v>95</v>
       </c>
-      <c r="EE223" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF223" s="14">
-        <v>0</v>
+      <c r="EE223">
+        <v>95</v>
+      </c>
+      <c r="EF223" t="s">
+        <v>135</v>
       </c>
       <c r="EG223" s="14">
         <v>0</v>
@@ -92301,17 +92655,17 @@
       <c r="ED224">
         <v>9504</v>
       </c>
-      <c r="EE224" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF224" s="14">
-        <v>0</v>
+      <c r="EE224">
+        <v>7816</v>
+      </c>
+      <c r="EF224" t="s">
+        <v>139</v>
       </c>
       <c r="EG224" s="14">
         <v>0</v>
       </c>
       <c r="EH224" s="14">
-        <v>0</v>
+        <v>10504</v>
       </c>
       <c r="EI224" s="14">
         <v>0</v>
@@ -92723,10 +93077,10 @@
       <c r="ED225">
         <v>0</v>
       </c>
-      <c r="EE225" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF225" s="14">
+      <c r="EE225">
+        <v>0</v>
+      </c>
+      <c r="EF225">
         <v>0</v>
       </c>
       <c r="EG225" s="14">
@@ -93145,11 +93499,11 @@
       <c r="ED226">
         <v>1</v>
       </c>
-      <c r="EE226" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF226" s="14">
-        <v>0</v>
+      <c r="EE226">
+        <v>1</v>
+      </c>
+      <c r="EF226" t="s">
+        <v>135</v>
       </c>
       <c r="EG226" s="14">
         <v>0</v>
@@ -93567,11 +93921,11 @@
       <c r="ED227">
         <v>2</v>
       </c>
-      <c r="EE227" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF227" s="14">
-        <v>0</v>
+      <c r="EE227">
+        <v>2</v>
+      </c>
+      <c r="EF227" t="s">
+        <v>135</v>
       </c>
       <c r="EG227" s="14">
         <v>0</v>
@@ -93989,11 +94343,11 @@
       <c r="ED228">
         <v>5</v>
       </c>
-      <c r="EE228" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF228" s="14">
-        <v>0</v>
+      <c r="EE228">
+        <v>10</v>
+      </c>
+      <c r="EF228" t="s">
+        <v>137</v>
       </c>
       <c r="EG228" s="14">
         <v>0</v>
@@ -94411,11 +94765,11 @@
       <c r="ED229">
         <v>82</v>
       </c>
-      <c r="EE229" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF229" s="14">
-        <v>0</v>
+      <c r="EE229">
+        <v>92</v>
+      </c>
+      <c r="EF229" t="s">
+        <v>135</v>
       </c>
       <c r="EG229" s="14">
         <v>0</v>
@@ -94833,11 +95187,11 @@
       <c r="ED230">
         <v>0</v>
       </c>
-      <c r="EE230" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF230" s="14">
-        <v>0</v>
+      <c r="EE230">
+        <v>8062</v>
+      </c>
+      <c r="EF230" t="s">
+        <v>140</v>
       </c>
       <c r="EG230" s="14">
         <v>0</v>
@@ -95255,11 +95609,11 @@
       <c r="ED231" s="14">
         <v>2439</v>
       </c>
-      <c r="EE231" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF231" s="14">
-        <v>0</v>
+      <c r="EE231">
+        <v>2605</v>
+      </c>
+      <c r="EF231" t="s">
+        <v>135</v>
       </c>
       <c r="EG231" s="14">
         <v>0</v>
@@ -95677,11 +96031,11 @@
       <c r="ED232">
         <v>13434.4</v>
       </c>
-      <c r="EE232" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF232" s="14">
-        <v>0</v>
+      <c r="EE232">
+        <v>13689</v>
+      </c>
+      <c r="EF232" t="s">
+        <v>139</v>
       </c>
       <c r="EG232" s="14">
         <v>0</v>
@@ -96099,17 +96453,17 @@
       <c r="ED233">
         <v>95495</v>
       </c>
-      <c r="EE233" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF233" s="14">
-        <v>0</v>
+      <c r="EE233">
+        <v>93713</v>
+      </c>
+      <c r="EF233" t="s">
+        <v>139</v>
       </c>
       <c r="EG233" s="14">
         <v>0</v>
       </c>
       <c r="EH233" s="14">
-        <v>0</v>
+        <v>122900</v>
       </c>
       <c r="EI233" s="14">
         <v>0</v>
@@ -96521,11 +96875,11 @@
       <c r="ED234">
         <v>0</v>
       </c>
-      <c r="EE234" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF234" s="14">
-        <v>0</v>
+      <c r="EE234">
+        <v>258</v>
+      </c>
+      <c r="EF234" t="s">
+        <v>135</v>
       </c>
       <c r="EG234" s="14">
         <v>0</v>
@@ -96943,11 +97297,11 @@
       <c r="ED235">
         <v>0</v>
       </c>
-      <c r="EE235" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF235" s="14">
-        <v>0</v>
+      <c r="EE235">
+        <v>104</v>
+      </c>
+      <c r="EF235" t="s">
+        <v>135</v>
       </c>
       <c r="EG235" s="14">
         <v>0</v>
@@ -97365,11 +97719,11 @@
       <c r="ED236">
         <v>3</v>
       </c>
-      <c r="EE236" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF236" s="14">
-        <v>0</v>
+      <c r="EE236">
+        <v>4</v>
+      </c>
+      <c r="EF236" t="s">
+        <v>135</v>
       </c>
       <c r="EG236" s="14">
         <v>0</v>
@@ -97787,11 +98141,11 @@
       <c r="ED237">
         <v>5</v>
       </c>
-      <c r="EE237" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF237" s="14">
-        <v>0</v>
+      <c r="EE237">
+        <v>5</v>
+      </c>
+      <c r="EF237" t="s">
+        <v>135</v>
       </c>
       <c r="EG237" s="14">
         <v>0</v>
@@ -98209,10 +98563,10 @@
       <c r="ED238">
         <v>0</v>
       </c>
-      <c r="EE238" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF238" s="14">
+      <c r="EE238">
+        <v>0</v>
+      </c>
+      <c r="EF238">
         <v>0</v>
       </c>
       <c r="EG238" s="14">
@@ -98631,11 +98985,11 @@
       <c r="ED239">
         <v>18070</v>
       </c>
-      <c r="EE239" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF239" s="14">
-        <v>0</v>
+      <c r="EE239">
+        <v>16660</v>
+      </c>
+      <c r="EF239" t="s">
+        <v>135</v>
       </c>
       <c r="EG239" s="14">
         <v>0</v>
@@ -99053,11 +99407,11 @@
       <c r="ED240" s="14">
         <v>253</v>
       </c>
-      <c r="EE240" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF240" s="14">
-        <v>0</v>
+      <c r="EE240">
+        <v>253</v>
+      </c>
+      <c r="EF240" t="s">
+        <v>135</v>
       </c>
       <c r="EG240" s="14">
         <v>0</v>
@@ -99475,11 +99829,11 @@
       <c r="ED241">
         <v>99</v>
       </c>
-      <c r="EE241" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF241" s="14">
-        <v>0</v>
+      <c r="EE241">
+        <v>96</v>
+      </c>
+      <c r="EF241" t="s">
+        <v>135</v>
       </c>
       <c r="EG241" s="14">
         <v>0</v>
@@ -99897,11 +100251,11 @@
       <c r="ED242">
         <v>17</v>
       </c>
-      <c r="EE242" s="14">
-        <v>0</v>
-      </c>
-      <c r="EF242" s="14">
-        <v>0</v>
+      <c r="EE242">
+        <v>30</v>
+      </c>
+      <c r="EF242" t="s">
+        <v>135</v>
       </c>
       <c r="EG242" s="14">
         <v>0</v>

--- a/Reference_accumulated_2022.xlsx
+++ b/Reference_accumulated_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD00A2A-42A4-4530-8489-A4053DDE349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEED02-A78E-4B32-BC47-949C64D06D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="1992" windowWidth="17280" windowHeight="8964" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
+    <workbookView xWindow="30555" yWindow="870" windowWidth="17250" windowHeight="8955" xr2:uid="{5862BC9C-312F-4040-B5DA-F85B399940A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1264,20 +1264,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E83C2-AD12-448E-BE1F-6285F70594CB}">
-  <dimension ref="A1:EY242"/>
+  <dimension ref="A1:EJ242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="EA141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="EA211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EO18" sqref="EO18"/>
+      <selection pane="bottomRight" activeCell="EB239" sqref="EB239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,7 +1592,7 @@
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2009,568 +1995,436 @@
       <c r="ED1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EE1" t="s">
         <v>379</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EF1" t="s">
         <v>380</v>
       </c>
-      <c r="EG1" s="14" t="s">
+      <c r="EG1" t="s">
         <v>381</v>
       </c>
-      <c r="EH1" s="14" t="s">
+      <c r="EH1" t="s">
         <v>382</v>
       </c>
-      <c r="EI1" s="14" t="s">
+      <c r="EI1" t="s">
         <v>383</v>
       </c>
-      <c r="EJ1" s="14" t="s">
+      <c r="EJ1" t="s">
         <v>384</v>
       </c>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BO2" s="14">
+      <c r="BO2">
         <v>5805</v>
       </c>
-      <c r="BU2" s="4">
+      <c r="BU2">
         <v>9785</v>
       </c>
-      <c r="CA2" s="5">
+      <c r="CA2">
         <v>22675</v>
       </c>
-      <c r="CG2" s="6">
+      <c r="CG2">
         <v>29274</v>
       </c>
-      <c r="CM2" s="7">
+      <c r="CM2">
         <v>32322</v>
       </c>
-      <c r="CS2" s="8">
+      <c r="CS2">
         <v>34645</v>
       </c>
-      <c r="CY2" s="9">
+      <c r="CY2">
         <v>37205</v>
       </c>
-      <c r="DE2" s="10">
+      <c r="DE2">
         <v>39531</v>
       </c>
-      <c r="DK2" s="11">
+      <c r="DK2">
         <v>42544</v>
       </c>
-      <c r="DR2" s="12">
+      <c r="DR2">
         <v>46129</v>
       </c>
-      <c r="DX2" s="13">
+      <c r="DX2">
         <v>55294</v>
       </c>
-      <c r="ED2" s="14">
+      <c r="ED2">
         <v>64351</v>
       </c>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BO3" s="14">
+      <c r="BO3">
         <v>3596</v>
       </c>
-      <c r="BU3" s="4">
+      <c r="BU3">
         <v>5232</v>
       </c>
-      <c r="CA3" s="5">
+      <c r="CA3">
         <v>9864</v>
       </c>
-      <c r="CG3" s="6">
+      <c r="CG3">
         <v>16635</v>
       </c>
-      <c r="CM3" s="7">
+      <c r="CM3">
         <v>37226</v>
       </c>
-      <c r="CS3" s="8">
+      <c r="CS3">
         <v>60698</v>
       </c>
-      <c r="CY3" s="9">
+      <c r="CY3">
         <v>91413</v>
       </c>
-      <c r="DE3" s="10">
+      <c r="DE3">
         <v>142477</v>
       </c>
-      <c r="DK3" s="11">
+      <c r="DK3">
         <v>217229</v>
       </c>
-      <c r="DR3" s="12">
+      <c r="DR3">
         <v>282466</v>
       </c>
-      <c r="DX3" s="13">
+      <c r="DX3">
         <v>341857</v>
       </c>
-      <c r="ED3" s="14">
+      <c r="ED3">
         <v>422172</v>
       </c>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BO4" s="14">
+      <c r="BO4">
         <v>17229.7</v>
       </c>
-      <c r="BU4" s="4">
+      <c r="BU4">
         <v>30529.599999999999</v>
       </c>
-      <c r="CA4" s="5">
+      <c r="CA4">
         <v>53566.5</v>
       </c>
-      <c r="CG4" s="6">
+      <c r="CG4">
         <v>71659.100000000006</v>
       </c>
-      <c r="CM4" s="7">
+      <c r="CM4">
         <v>81693.60000000002</v>
       </c>
-      <c r="CS4" s="8">
+      <c r="CS4">
         <v>88360.800000000017</v>
       </c>
-      <c r="CY4" s="9">
+      <c r="CY4">
         <v>96983.3</v>
       </c>
-      <c r="DE4" s="10">
+      <c r="DE4">
         <v>103614.64</v>
       </c>
-      <c r="DK4" s="11">
+      <c r="DK4">
         <v>110163.7</v>
       </c>
-      <c r="DR4" s="12">
+      <c r="DR4">
         <v>119829.2</v>
       </c>
-      <c r="DX4" s="13">
+      <c r="DX4">
         <v>141662.6</v>
       </c>
-      <c r="ED4" s="14">
+      <c r="ED4">
         <v>164049.4</v>
       </c>
-      <c r="EN4" s="14"/>
-      <c r="EO4" s="14"/>
-      <c r="EP4" s="14"/>
-      <c r="EQ4" s="14"/>
-      <c r="ER4" s="14"/>
-      <c r="ES4" s="14"/>
-      <c r="ET4" s="14"/>
-      <c r="EU4" s="14"/>
-      <c r="EV4" s="14"/>
-      <c r="EW4" s="14"/>
-      <c r="EX4" s="14"/>
-      <c r="EY4" s="14"/>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BO5" s="14">
+      <c r="BO5">
         <v>63</v>
       </c>
-      <c r="BU5" s="4">
+      <c r="BU5">
         <v>103</v>
       </c>
-      <c r="CA5" s="5">
+      <c r="CA5">
         <v>131</v>
       </c>
-      <c r="CG5" s="6">
+      <c r="CG5">
         <v>180</v>
       </c>
-      <c r="CM5" s="7">
+      <c r="CM5">
         <v>544</v>
       </c>
-      <c r="CS5" s="8">
+      <c r="CS5">
         <v>1718</v>
       </c>
-      <c r="CY5" s="9">
+      <c r="CY5">
         <v>1964</v>
       </c>
-      <c r="DE5" s="10">
+      <c r="DE5">
         <v>3075</v>
       </c>
-      <c r="DK5" s="11">
+      <c r="DK5">
         <v>3702</v>
       </c>
-      <c r="DR5" s="12">
+      <c r="DR5">
         <v>4919</v>
       </c>
-      <c r="DX5" s="13">
+      <c r="DX5">
         <v>6549</v>
       </c>
-      <c r="ED5" s="14">
+      <c r="ED5">
         <v>7993</v>
       </c>
-      <c r="EN5" s="14"/>
-      <c r="EO5" s="14"/>
-      <c r="EP5" s="14"/>
-      <c r="EQ5" s="14"/>
-      <c r="ER5" s="14"/>
-      <c r="ES5" s="14"/>
-      <c r="ET5" s="14"/>
-      <c r="EU5" s="14"/>
-      <c r="EV5" s="14"/>
-      <c r="EW5" s="14"/>
-      <c r="EX5" s="14"/>
-      <c r="EY5" s="14"/>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BO6" s="14">
+      <c r="BO6">
         <v>1308</v>
       </c>
-      <c r="BU6" s="4">
+      <c r="BU6">
         <v>2330</v>
       </c>
-      <c r="CA6" s="5">
+      <c r="CA6">
         <v>4536</v>
       </c>
-      <c r="CG6" s="6">
+      <c r="CG6">
         <v>7948</v>
       </c>
-      <c r="CM6" s="7">
+      <c r="CM6">
         <v>13399</v>
       </c>
-      <c r="CS6" s="8">
+      <c r="CS6">
         <v>20343</v>
       </c>
-      <c r="CY6" s="9">
+      <c r="CY6">
         <v>28586</v>
       </c>
-      <c r="DE6" s="10">
+      <c r="DE6">
         <v>43949</v>
       </c>
-      <c r="DK6" s="11">
+      <c r="DK6">
         <v>55216</v>
       </c>
-      <c r="DR6" s="12">
+      <c r="DR6">
         <v>68668</v>
       </c>
-      <c r="DX6" s="13">
+      <c r="DX6">
         <v>84096</v>
       </c>
-      <c r="ED6" s="14">
+      <c r="ED6">
         <v>105594</v>
       </c>
-      <c r="EN6" s="14"/>
-      <c r="EO6" s="14"/>
-      <c r="EP6" s="14"/>
-      <c r="EQ6" s="14"/>
-      <c r="ER6" s="14"/>
-      <c r="ES6" s="14"/>
-      <c r="ET6" s="14"/>
-      <c r="EU6" s="14"/>
-      <c r="EV6" s="14"/>
-      <c r="EW6" s="14"/>
-      <c r="EX6" s="14"/>
-      <c r="EY6" s="14"/>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BO7" s="14">
+      <c r="BO7">
         <v>17</v>
       </c>
-      <c r="BU7" s="4">
+      <c r="BU7">
         <v>20</v>
       </c>
-      <c r="CA7" s="5">
+      <c r="CA7">
         <v>22</v>
       </c>
-      <c r="CG7" s="6">
+      <c r="CG7">
         <v>34</v>
       </c>
-      <c r="CM7" s="7">
+      <c r="CM7">
         <v>73</v>
       </c>
-      <c r="CS7" s="8">
+      <c r="CS7">
         <v>121</v>
       </c>
-      <c r="CY7" s="9">
+      <c r="CY7">
         <v>676</v>
       </c>
-      <c r="DE7" s="10">
+      <c r="DE7">
         <v>843</v>
       </c>
-      <c r="DK7" s="11">
+      <c r="DK7">
         <v>1148</v>
       </c>
-      <c r="DR7" s="12">
+      <c r="DR7">
         <v>1506</v>
       </c>
-      <c r="DX7" s="13">
+      <c r="DX7">
         <v>1905</v>
       </c>
-      <c r="ED7" s="14">
+      <c r="ED7">
         <v>2037</v>
       </c>
-      <c r="EN7" s="14"/>
-      <c r="EO7" s="14"/>
-      <c r="EP7" s="14"/>
-      <c r="EQ7" s="14"/>
-      <c r="ER7" s="14"/>
-      <c r="ES7" s="14"/>
-      <c r="ET7" s="14"/>
-      <c r="EU7" s="14"/>
-      <c r="EV7" s="14"/>
-      <c r="EW7" s="14"/>
-      <c r="EX7" s="14"/>
-      <c r="EY7" s="14"/>
     </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BO8" s="14">
+      <c r="BO8">
         <v>14</v>
       </c>
-      <c r="BU8" s="4">
+      <c r="BU8">
         <v>21</v>
       </c>
-      <c r="CA8" s="5">
+      <c r="CA8">
         <v>29</v>
       </c>
-      <c r="CG8" s="6">
+      <c r="CG8">
         <v>129.19999999999999</v>
       </c>
-      <c r="CM8" s="7">
+      <c r="CM8">
         <v>154.6</v>
       </c>
-      <c r="CS8" s="8">
+      <c r="CS8">
         <v>429.6</v>
       </c>
-      <c r="CY8" s="9">
+      <c r="CY8">
         <v>875</v>
       </c>
-      <c r="DE8" s="10">
+      <c r="DE8">
         <v>1505.6</v>
       </c>
-      <c r="DK8" s="11">
+      <c r="DK8">
         <v>3592.5</v>
       </c>
-      <c r="DR8" s="12">
+      <c r="DR8">
         <v>5716.5</v>
       </c>
-      <c r="DX8" s="13">
+      <c r="DX8">
         <v>8438.5</v>
       </c>
-      <c r="ED8" s="14">
+      <c r="ED8">
         <v>12722.5</v>
       </c>
-      <c r="EN8" s="14"/>
-      <c r="EO8" s="14"/>
-      <c r="EP8" s="14"/>
-      <c r="EQ8" s="14"/>
-      <c r="ER8" s="14"/>
-      <c r="ES8" s="14"/>
-      <c r="ET8" s="14"/>
-      <c r="EU8" s="14"/>
-      <c r="EV8" s="14"/>
-      <c r="EW8" s="14"/>
-      <c r="EX8" s="14"/>
-      <c r="EY8" s="14"/>
     </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BO9" s="14">
+      <c r="BO9">
         <v>1</v>
       </c>
-      <c r="BU9" s="4">
+      <c r="BU9">
         <v>1</v>
       </c>
-      <c r="CA9" s="5">
+      <c r="CA9">
         <v>2</v>
       </c>
-      <c r="CG9" s="6">
+      <c r="CG9">
         <v>7</v>
       </c>
-      <c r="CM9" s="7">
+      <c r="CM9">
         <v>33</v>
       </c>
-      <c r="CS9" s="8">
+      <c r="CS9">
         <v>66</v>
       </c>
-      <c r="CY9" s="9">
+      <c r="CY9">
         <v>363</v>
       </c>
-      <c r="DE9" s="10">
+      <c r="DE9">
         <v>1201</v>
       </c>
-      <c r="DK9" s="11">
+      <c r="DK9">
         <v>4236</v>
       </c>
-      <c r="DR9" s="12">
+      <c r="DR9">
         <v>7201</v>
       </c>
-      <c r="DX9" s="13">
+      <c r="DX9">
         <v>8632</v>
       </c>
-      <c r="ED9" s="14">
+      <c r="ED9">
         <v>9639</v>
       </c>
-      <c r="EN9" s="14"/>
-      <c r="EO9" s="14"/>
-      <c r="EP9" s="14"/>
-      <c r="EQ9" s="14"/>
-      <c r="ER9" s="14"/>
-      <c r="ES9" s="14"/>
-      <c r="ET9" s="14"/>
-      <c r="EU9" s="14"/>
-      <c r="EV9" s="14"/>
-      <c r="EW9" s="14"/>
-      <c r="EX9" s="14"/>
-      <c r="EY9" s="14"/>
     </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BO10" s="14">
+      <c r="BO10">
         <v>194</v>
       </c>
-      <c r="BU10" s="4">
+      <c r="BU10">
         <v>587</v>
       </c>
-      <c r="CA10" s="5">
+      <c r="CA10">
         <v>1453</v>
       </c>
-      <c r="CG10" s="6">
+      <c r="CG10">
         <v>2502</v>
       </c>
-      <c r="CM10" s="7">
+      <c r="CM10">
         <v>3301</v>
       </c>
-      <c r="CS10" s="8">
+      <c r="CS10">
         <v>4163</v>
       </c>
-      <c r="CY10" s="9">
+      <c r="CY10">
         <v>5146</v>
       </c>
-      <c r="DE10" s="10">
+      <c r="DE10">
         <v>6023</v>
       </c>
-      <c r="DK10" s="11">
+      <c r="DK10">
         <v>7346</v>
       </c>
-      <c r="DR10" s="12">
+      <c r="DR10">
         <v>11782</v>
       </c>
-      <c r="DX10" s="13">
+      <c r="DX10">
         <v>16610</v>
       </c>
-      <c r="ED10" s="14">
+      <c r="ED10">
         <v>21174</v>
       </c>
-      <c r="EN10" s="14"/>
-      <c r="EO10" s="14"/>
-      <c r="EP10" s="14"/>
-      <c r="EQ10" s="14"/>
-      <c r="ER10" s="14"/>
-      <c r="ES10" s="14"/>
-      <c r="ET10" s="14"/>
-      <c r="EU10" s="14"/>
-      <c r="EV10" s="14"/>
-      <c r="EW10" s="14"/>
-      <c r="EX10" s="14"/>
-      <c r="EY10" s="14"/>
     </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BO11" s="14">
+      <c r="BO11">
         <v>33</v>
       </c>
-      <c r="BU11" s="4">
+      <c r="BU11">
         <v>81</v>
       </c>
-      <c r="CA11" s="5">
+      <c r="CA11">
         <v>205</v>
       </c>
-      <c r="CG11" s="6">
+      <c r="CG11">
         <v>307</v>
       </c>
-      <c r="CM11" s="7">
+      <c r="CM11">
         <v>473</v>
       </c>
-      <c r="CS11" s="8">
+      <c r="CS11">
         <v>726</v>
       </c>
-      <c r="CY11" s="9">
+      <c r="CY11">
         <v>1002</v>
       </c>
-      <c r="DE11" s="10">
+      <c r="DE11">
         <v>1846</v>
       </c>
-      <c r="DK11" s="11">
+      <c r="DK11">
         <v>2577</v>
       </c>
-      <c r="DR11" s="12">
+      <c r="DR11">
         <v>4546</v>
       </c>
-      <c r="DX11" s="13">
+      <c r="DX11">
         <v>7474</v>
       </c>
-      <c r="ED11" s="14">
+      <c r="ED11">
         <v>9457</v>
       </c>
-      <c r="EN11" s="14"/>
-      <c r="EO11" s="14"/>
-      <c r="EP11" s="14"/>
-      <c r="EQ11" s="14"/>
-      <c r="ER11" s="14"/>
-      <c r="ES11" s="14"/>
-      <c r="ET11" s="14"/>
-      <c r="EU11" s="14"/>
-      <c r="EV11" s="14"/>
-      <c r="EW11" s="14"/>
-      <c r="EX11" s="14"/>
-      <c r="EY11" s="14"/>
     </row>
-    <row r="12" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -2979,30 +2833,20 @@
       <c r="EF12" t="s">
         <v>135</v>
       </c>
-      <c r="EG12" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH12" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP12" s="14"/>
-      <c r="EQ12" s="14"/>
-      <c r="ER12" s="14"/>
-      <c r="ES12" s="14"/>
-      <c r="ET12" s="14"/>
-      <c r="EU12" s="14"/>
-      <c r="EV12" s="14"/>
-      <c r="EW12" s="14"/>
-      <c r="EX12" s="14"/>
-      <c r="EY12" s="14"/>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3411,30 +3255,20 @@
       <c r="EF13" t="s">
         <v>135</v>
       </c>
-      <c r="EG13" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH13" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI13" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP13" s="14"/>
-      <c r="EQ13" s="14"/>
-      <c r="ER13" s="14"/>
-      <c r="ES13" s="14"/>
-      <c r="ET13" s="14"/>
-      <c r="EU13" s="14"/>
-      <c r="EV13" s="14"/>
-      <c r="EW13" s="14"/>
-      <c r="EX13" s="14"/>
-      <c r="EY13" s="14"/>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13">
+        <v>0</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -3843,30 +3677,20 @@
       <c r="EF14" t="s">
         <v>135</v>
       </c>
-      <c r="EG14" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH14" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI14" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ14" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP14" s="14"/>
-      <c r="EQ14" s="14"/>
-      <c r="ER14" s="14"/>
-      <c r="ES14" s="14"/>
-      <c r="ET14" s="14"/>
-      <c r="EU14" s="14"/>
-      <c r="EV14" s="14"/>
-      <c r="EW14" s="14"/>
-      <c r="EX14" s="14"/>
-      <c r="EY14" s="14"/>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14">
+        <v>0</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -4275,30 +4099,20 @@
       <c r="EF15" t="s">
         <v>135</v>
       </c>
-      <c r="EG15" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH15" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI15" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ15" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP15" s="14"/>
-      <c r="EQ15" s="14"/>
-      <c r="ER15" s="14"/>
-      <c r="ES15" s="14"/>
-      <c r="ET15" s="14"/>
-      <c r="EU15" s="14"/>
-      <c r="EV15" s="14"/>
-      <c r="EW15" s="14"/>
-      <c r="EX15" s="14"/>
-      <c r="EY15" s="14"/>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -4707,30 +4521,20 @@
       <c r="EF16" t="s">
         <v>135</v>
       </c>
-      <c r="EG16" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH16" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI16" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ16" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP16" s="14"/>
-      <c r="EQ16" s="14"/>
-      <c r="ER16" s="14"/>
-      <c r="ES16" s="14"/>
-      <c r="ET16" s="14"/>
-      <c r="EU16" s="14"/>
-      <c r="EV16" s="14"/>
-      <c r="EW16" s="14"/>
-      <c r="EX16" s="14"/>
-      <c r="EY16" s="14"/>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -5139,30 +4943,20 @@
       <c r="EF17" t="s">
         <v>135</v>
       </c>
-      <c r="EG17" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH17" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI17" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ17" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP17" s="14"/>
-      <c r="EQ17" s="14"/>
-      <c r="ER17" s="14"/>
-      <c r="ES17" s="14"/>
-      <c r="ET17" s="14"/>
-      <c r="EU17" s="14"/>
-      <c r="EV17" s="14"/>
-      <c r="EW17" s="14"/>
-      <c r="EX17" s="14"/>
-      <c r="EY17" s="14"/>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17">
+        <v>0</v>
+      </c>
+      <c r="EJ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -5571,30 +5365,20 @@
       <c r="EF18" t="s">
         <v>135</v>
       </c>
-      <c r="EG18" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH18" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI18" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ18" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP18" s="14"/>
-      <c r="EQ18" s="14"/>
-      <c r="ER18" s="14"/>
-      <c r="ES18" s="14"/>
-      <c r="ET18" s="14"/>
-      <c r="EU18" s="14"/>
-      <c r="EV18" s="14"/>
-      <c r="EW18" s="14"/>
-      <c r="EX18" s="14"/>
-      <c r="EY18" s="14"/>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -6003,30 +5787,20 @@
       <c r="EF19" t="s">
         <v>135</v>
       </c>
-      <c r="EG19" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH19" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI19" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ19" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP19" s="14"/>
-      <c r="EQ19" s="14"/>
-      <c r="ER19" s="14"/>
-      <c r="ES19" s="14"/>
-      <c r="ET19" s="14"/>
-      <c r="EU19" s="14"/>
-      <c r="EV19" s="14"/>
-      <c r="EW19" s="14"/>
-      <c r="EX19" s="14"/>
-      <c r="EY19" s="14"/>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -6435,30 +6209,20 @@
       <c r="EF20" t="s">
         <v>135</v>
       </c>
-      <c r="EG20" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH20" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI20" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ20" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP20" s="14"/>
-      <c r="EQ20" s="14"/>
-      <c r="ER20" s="14"/>
-      <c r="ES20" s="14"/>
-      <c r="ET20" s="14"/>
-      <c r="EU20" s="14"/>
-      <c r="EV20" s="14"/>
-      <c r="EW20" s="14"/>
-      <c r="EX20" s="14"/>
-      <c r="EY20" s="14"/>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -6867,30 +6631,20 @@
       <c r="EF21" t="s">
         <v>135</v>
       </c>
-      <c r="EG21" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH21" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI21" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ21" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP21" s="14"/>
-      <c r="EQ21" s="14"/>
-      <c r="ER21" s="14"/>
-      <c r="ES21" s="14"/>
-      <c r="ET21" s="14"/>
-      <c r="EU21" s="14"/>
-      <c r="EV21" s="14"/>
-      <c r="EW21" s="14"/>
-      <c r="EX21" s="14"/>
-      <c r="EY21" s="14"/>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -7299,30 +7053,20 @@
       <c r="EF22" t="s">
         <v>135</v>
       </c>
-      <c r="EG22" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH22" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI22" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ22" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP22" s="14"/>
-      <c r="EQ22" s="14"/>
-      <c r="ER22" s="14"/>
-      <c r="ES22" s="14"/>
-      <c r="ET22" s="14"/>
-      <c r="EU22" s="14"/>
-      <c r="EV22" s="14"/>
-      <c r="EW22" s="14"/>
-      <c r="EX22" s="14"/>
-      <c r="EY22" s="14"/>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -7699,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="DV23">
-        <v>16320</v>
+        <v>16399</v>
       </c>
       <c r="DW23">
         <v>15977</v>
       </c>
       <c r="DX23">
-        <v>16320</v>
+        <v>16399</v>
       </c>
       <c r="DY23">
         <v>17625</v>
@@ -7717,13 +7461,13 @@
         <v>0</v>
       </c>
       <c r="EB23">
-        <v>20823</v>
+        <v>21091</v>
       </c>
       <c r="EC23">
         <v>21053</v>
       </c>
       <c r="ED23">
-        <v>20823</v>
+        <v>21091</v>
       </c>
       <c r="EE23">
         <v>19074</v>
@@ -7731,30 +7475,20 @@
       <c r="EF23" t="s">
         <v>139</v>
       </c>
-      <c r="EG23" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH23" s="14">
-        <v>25400</v>
-      </c>
-      <c r="EI23" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ23" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP23" s="14"/>
-      <c r="EQ23" s="14"/>
-      <c r="ER23" s="14"/>
-      <c r="ES23" s="14"/>
-      <c r="ET23" s="14"/>
-      <c r="EU23" s="14"/>
-      <c r="EV23" s="14"/>
-      <c r="EW23" s="14"/>
-      <c r="EX23" s="14"/>
-      <c r="EY23" s="14"/>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>26035</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23">
+        <v>26035</v>
+      </c>
     </row>
-    <row r="24" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -8163,30 +7897,20 @@
       <c r="EF24" t="s">
         <v>135</v>
       </c>
-      <c r="EG24" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH24" s="14">
-        <v>2493</v>
-      </c>
-      <c r="EI24" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ24" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP24" s="14"/>
-      <c r="EQ24" s="14"/>
-      <c r="ER24" s="14"/>
-      <c r="ES24" s="14"/>
-      <c r="ET24" s="14"/>
-      <c r="EU24" s="14"/>
-      <c r="EV24" s="14"/>
-      <c r="EW24" s="14"/>
-      <c r="EX24" s="14"/>
-      <c r="EY24" s="14"/>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>2783</v>
+      </c>
+      <c r="EI24">
+        <v>0</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -8586,7 +8310,7 @@
       <c r="EC25">
         <v>0</v>
       </c>
-      <c r="ED25" s="14">
+      <c r="ED25">
         <v>40</v>
       </c>
       <c r="EE25">
@@ -8595,30 +8319,20 @@
       <c r="EF25" t="s">
         <v>135</v>
       </c>
-      <c r="EG25" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH25" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI25" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ25" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP25" s="14"/>
-      <c r="EQ25" s="14"/>
-      <c r="ER25" s="14"/>
-      <c r="ES25" s="14"/>
-      <c r="ET25" s="14"/>
-      <c r="EU25" s="14"/>
-      <c r="EV25" s="14"/>
-      <c r="EW25" s="14"/>
-      <c r="EX25" s="14"/>
-      <c r="EY25" s="14"/>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -9018,7 +8732,7 @@
       <c r="EC26">
         <v>0</v>
       </c>
-      <c r="ED26" s="14">
+      <c r="ED26">
         <v>2</v>
       </c>
       <c r="EE26">
@@ -9027,30 +8741,20 @@
       <c r="EF26" t="s">
         <v>135</v>
       </c>
-      <c r="EG26" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH26" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI26" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ26" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP26" s="14"/>
-      <c r="EQ26" s="14"/>
-      <c r="ER26" s="14"/>
-      <c r="ES26" s="14"/>
-      <c r="ET26" s="14"/>
-      <c r="EU26" s="14"/>
-      <c r="EV26" s="14"/>
-      <c r="EW26" s="14"/>
-      <c r="EX26" s="14"/>
-      <c r="EY26" s="14"/>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>0</v>
+      </c>
+      <c r="EI26">
+        <v>0</v>
+      </c>
+      <c r="EJ26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -9450,7 +9154,7 @@
       <c r="EC27">
         <v>0</v>
       </c>
-      <c r="ED27" s="14">
+      <c r="ED27">
         <v>10</v>
       </c>
       <c r="EE27">
@@ -9459,30 +9163,20 @@
       <c r="EF27" t="s">
         <v>140</v>
       </c>
-      <c r="EG27" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH27" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI27" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ27" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP27" s="14"/>
-      <c r="EQ27" s="14"/>
-      <c r="ER27" s="14"/>
-      <c r="ES27" s="14"/>
-      <c r="ET27" s="14"/>
-      <c r="EU27" s="14"/>
-      <c r="EV27" s="14"/>
-      <c r="EW27" s="14"/>
-      <c r="EX27" s="14"/>
-      <c r="EY27" s="14"/>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -9882,7 +9576,7 @@
       <c r="EC28">
         <v>0</v>
       </c>
-      <c r="ED28" s="14">
+      <c r="ED28">
         <v>301</v>
       </c>
       <c r="EE28">
@@ -9891,30 +9585,20 @@
       <c r="EF28" t="s">
         <v>135</v>
       </c>
-      <c r="EG28" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH28" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI28" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ28" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP28" s="14"/>
-      <c r="EQ28" s="14"/>
-      <c r="ER28" s="14"/>
-      <c r="ES28" s="14"/>
-      <c r="ET28" s="14"/>
-      <c r="EU28" s="14"/>
-      <c r="EV28" s="14"/>
-      <c r="EW28" s="14"/>
-      <c r="EX28" s="14"/>
-      <c r="EY28" s="14"/>
+      <c r="EG28">
+        <v>0</v>
+      </c>
+      <c r="EH28">
+        <v>0</v>
+      </c>
+      <c r="EI28">
+        <v>0</v>
+      </c>
+      <c r="EJ28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -10314,7 +9998,7 @@
       <c r="EC29">
         <v>0</v>
       </c>
-      <c r="ED29" s="14">
+      <c r="ED29">
         <v>50</v>
       </c>
       <c r="EE29">
@@ -10323,30 +10007,20 @@
       <c r="EF29" t="s">
         <v>135</v>
       </c>
-      <c r="EG29" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH29" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI29" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ29" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP29" s="14"/>
-      <c r="EQ29" s="14"/>
-      <c r="ER29" s="14"/>
-      <c r="ES29" s="14"/>
-      <c r="ET29" s="14"/>
-      <c r="EU29" s="14"/>
-      <c r="EV29" s="14"/>
-      <c r="EW29" s="14"/>
-      <c r="EX29" s="14"/>
-      <c r="EY29" s="14"/>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29">
+        <v>0</v>
+      </c>
+      <c r="EJ29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -10746,7 +10420,7 @@
       <c r="EC30">
         <v>0</v>
       </c>
-      <c r="ED30" s="14">
+      <c r="ED30">
         <v>159</v>
       </c>
       <c r="EE30">
@@ -10755,30 +10429,20 @@
       <c r="EF30" t="s">
         <v>137</v>
       </c>
-      <c r="EG30" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH30" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI30" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ30" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP30" s="14"/>
-      <c r="EQ30" s="14"/>
-      <c r="ER30" s="14"/>
-      <c r="ES30" s="14"/>
-      <c r="ET30" s="14"/>
-      <c r="EU30" s="14"/>
-      <c r="EV30" s="14"/>
-      <c r="EW30" s="14"/>
-      <c r="EX30" s="14"/>
-      <c r="EY30" s="14"/>
+      <c r="EG30">
+        <v>0</v>
+      </c>
+      <c r="EH30">
+        <v>0</v>
+      </c>
+      <c r="EI30">
+        <v>0</v>
+      </c>
+      <c r="EJ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -11155,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="DV31">
-        <v>4960</v>
+        <v>5127</v>
       </c>
       <c r="DW31">
         <v>5120</v>
@@ -11173,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="EB31">
-        <v>6008</v>
+        <v>6273</v>
       </c>
       <c r="EC31">
         <v>6259</v>
@@ -11187,20 +10851,20 @@
       <c r="EF31" t="s">
         <v>139</v>
       </c>
-      <c r="EG31" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH31" s="14">
-        <v>6858</v>
-      </c>
-      <c r="EI31" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ31" s="14">
-        <v>0</v>
+      <c r="EG31">
+        <v>0</v>
+      </c>
+      <c r="EH31">
+        <v>7123</v>
+      </c>
+      <c r="EI31">
+        <v>0</v>
+      </c>
+      <c r="EJ31">
+        <v>7123</v>
       </c>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -11609,16 +11273,16 @@
       <c r="EF32" t="s">
         <v>135</v>
       </c>
-      <c r="EG32" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH32" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI32" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ32" s="14">
+      <c r="EG32">
+        <v>0</v>
+      </c>
+      <c r="EH32">
+        <v>0</v>
+      </c>
+      <c r="EI32">
+        <v>0</v>
+      </c>
+      <c r="EJ32">
         <v>0</v>
       </c>
     </row>
@@ -12031,16 +11695,16 @@
       <c r="EF33" t="s">
         <v>135</v>
       </c>
-      <c r="EG33" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH33" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI33" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ33" s="14">
+      <c r="EG33">
+        <v>0</v>
+      </c>
+      <c r="EH33">
+        <v>0</v>
+      </c>
+      <c r="EI33">
+        <v>0</v>
+      </c>
+      <c r="EJ33">
         <v>0</v>
       </c>
     </row>
@@ -12453,16 +12117,16 @@
       <c r="EF34">
         <v>0</v>
       </c>
-      <c r="EG34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI34" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ34" s="14">
+      <c r="EG34">
+        <v>0</v>
+      </c>
+      <c r="EH34">
+        <v>0</v>
+      </c>
+      <c r="EI34">
+        <v>0</v>
+      </c>
+      <c r="EJ34">
         <v>0</v>
       </c>
     </row>
@@ -12875,16 +12539,16 @@
       <c r="EF35" t="s">
         <v>135</v>
       </c>
-      <c r="EG35" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH35" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI35" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ35" s="14">
+      <c r="EG35">
+        <v>0</v>
+      </c>
+      <c r="EH35">
+        <v>0</v>
+      </c>
+      <c r="EI35">
+        <v>0</v>
+      </c>
+      <c r="EJ35">
         <v>0</v>
       </c>
     </row>
@@ -13297,16 +12961,16 @@
       <c r="EF36" t="s">
         <v>135</v>
       </c>
-      <c r="EG36" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH36" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI36" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ36" s="14">
+      <c r="EG36">
+        <v>0</v>
+      </c>
+      <c r="EH36">
+        <v>0</v>
+      </c>
+      <c r="EI36">
+        <v>0</v>
+      </c>
+      <c r="EJ36">
         <v>0</v>
       </c>
     </row>
@@ -13710,7 +13374,7 @@
       <c r="EC37">
         <v>0</v>
       </c>
-      <c r="ED37" s="14">
+      <c r="ED37">
         <v>35</v>
       </c>
       <c r="EE37">
@@ -13719,16 +13383,16 @@
       <c r="EF37" t="s">
         <v>135</v>
       </c>
-      <c r="EG37" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH37" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI37" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ37" s="14">
+      <c r="EG37">
+        <v>0</v>
+      </c>
+      <c r="EH37">
+        <v>0</v>
+      </c>
+      <c r="EI37">
+        <v>0</v>
+      </c>
+      <c r="EJ37">
         <v>0</v>
       </c>
     </row>
@@ -14141,16 +13805,16 @@
       <c r="EF38" t="s">
         <v>135</v>
       </c>
-      <c r="EG38" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH38" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI38" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ38" s="14">
+      <c r="EG38">
+        <v>0</v>
+      </c>
+      <c r="EH38">
+        <v>0</v>
+      </c>
+      <c r="EI38">
+        <v>0</v>
+      </c>
+      <c r="EJ38">
         <v>0</v>
       </c>
     </row>
@@ -14563,16 +14227,16 @@
       <c r="EF39" t="s">
         <v>139</v>
       </c>
-      <c r="EG39" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH39" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI39" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ39" s="14">
+      <c r="EG39">
+        <v>0</v>
+      </c>
+      <c r="EH39">
+        <v>0</v>
+      </c>
+      <c r="EI39">
+        <v>0</v>
+      </c>
+      <c r="EJ39">
         <v>0</v>
       </c>
     </row>
@@ -14985,16 +14649,16 @@
       <c r="EF40" t="s">
         <v>135</v>
       </c>
-      <c r="EG40" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH40" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI40" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ40" s="14">
+      <c r="EG40">
+        <v>0</v>
+      </c>
+      <c r="EH40">
+        <v>0</v>
+      </c>
+      <c r="EI40">
+        <v>0</v>
+      </c>
+      <c r="EJ40">
         <v>0</v>
       </c>
     </row>
@@ -15407,16 +15071,16 @@
       <c r="EF41" t="s">
         <v>135</v>
       </c>
-      <c r="EG41" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH41" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI41" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ41" s="14">
+      <c r="EG41">
+        <v>0</v>
+      </c>
+      <c r="EH41">
+        <v>0</v>
+      </c>
+      <c r="EI41">
+        <v>0</v>
+      </c>
+      <c r="EJ41">
         <v>0</v>
       </c>
     </row>
@@ -15829,16 +15493,16 @@
       <c r="EF42" t="s">
         <v>139</v>
       </c>
-      <c r="EG42" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH42" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI42" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ42" s="14">
+      <c r="EG42">
+        <v>0</v>
+      </c>
+      <c r="EH42">
+        <v>0</v>
+      </c>
+      <c r="EI42">
+        <v>0</v>
+      </c>
+      <c r="EJ42">
         <v>0</v>
       </c>
     </row>
@@ -16251,16 +15915,16 @@
       <c r="EF43" t="s">
         <v>135</v>
       </c>
-      <c r="EG43" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH43" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI43" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ43" s="14">
+      <c r="EG43">
+        <v>0</v>
+      </c>
+      <c r="EH43">
+        <v>0</v>
+      </c>
+      <c r="EI43">
+        <v>0</v>
+      </c>
+      <c r="EJ43">
         <v>0</v>
       </c>
     </row>
@@ -16673,16 +16337,16 @@
       <c r="EF44" t="s">
         <v>135</v>
       </c>
-      <c r="EG44" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH44" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI44" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ44" s="14">
+      <c r="EG44">
+        <v>0</v>
+      </c>
+      <c r="EH44">
+        <v>0</v>
+      </c>
+      <c r="EI44">
+        <v>0</v>
+      </c>
+      <c r="EJ44">
         <v>0</v>
       </c>
     </row>
@@ -17095,16 +16759,16 @@
       <c r="EF45" t="s">
         <v>135</v>
       </c>
-      <c r="EG45" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH45" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI45" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ45" s="14">
+      <c r="EG45">
+        <v>0</v>
+      </c>
+      <c r="EH45">
+        <v>0</v>
+      </c>
+      <c r="EI45">
+        <v>0</v>
+      </c>
+      <c r="EJ45">
         <v>0</v>
       </c>
     </row>
@@ -17517,16 +17181,16 @@
       <c r="EF46" t="s">
         <v>135</v>
       </c>
-      <c r="EG46" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH46" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI46" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ46" s="14">
+      <c r="EG46">
+        <v>0</v>
+      </c>
+      <c r="EH46">
+        <v>0</v>
+      </c>
+      <c r="EI46">
+        <v>0</v>
+      </c>
+      <c r="EJ46">
         <v>0</v>
       </c>
     </row>
@@ -17930,7 +17594,7 @@
       <c r="EC47">
         <v>0</v>
       </c>
-      <c r="ED47" s="14">
+      <c r="ED47">
         <v>14</v>
       </c>
       <c r="EE47">
@@ -17939,16 +17603,16 @@
       <c r="EF47" t="s">
         <v>135</v>
       </c>
-      <c r="EG47" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH47" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI47" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ47" s="14">
+      <c r="EG47">
+        <v>0</v>
+      </c>
+      <c r="EH47">
+        <v>0</v>
+      </c>
+      <c r="EI47">
+        <v>0</v>
+      </c>
+      <c r="EJ47">
         <v>0</v>
       </c>
     </row>
@@ -18329,13 +17993,13 @@
         <v>0</v>
       </c>
       <c r="DV48">
-        <v>3325</v>
+        <v>3388</v>
       </c>
       <c r="DW48">
         <v>0</v>
       </c>
       <c r="DX48">
-        <v>3325</v>
+        <v>3388</v>
       </c>
       <c r="DY48">
         <v>3325</v>
@@ -18347,13 +18011,13 @@
         <v>0</v>
       </c>
       <c r="EB48">
-        <v>3525</v>
+        <v>3713</v>
       </c>
       <c r="EC48">
         <v>0</v>
       </c>
       <c r="ED48">
-        <v>3525</v>
+        <v>3713</v>
       </c>
       <c r="EE48">
         <v>3630</v>
@@ -18361,17 +18025,17 @@
       <c r="EF48" t="s">
         <v>137</v>
       </c>
-      <c r="EG48" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH48" s="14">
-        <v>3925</v>
-      </c>
-      <c r="EI48" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ48" s="14">
-        <v>0</v>
+      <c r="EG48">
+        <v>0</v>
+      </c>
+      <c r="EH48">
+        <v>4135</v>
+      </c>
+      <c r="EI48">
+        <v>0</v>
+      </c>
+      <c r="EJ48">
+        <v>4135</v>
       </c>
     </row>
     <row r="49" spans="1:140" x14ac:dyDescent="0.3">
@@ -18783,16 +18447,16 @@
       <c r="EF49" t="s">
         <v>135</v>
       </c>
-      <c r="EG49" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH49" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI49" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ49" s="14">
+      <c r="EG49">
+        <v>0</v>
+      </c>
+      <c r="EH49">
+        <v>0</v>
+      </c>
+      <c r="EI49">
+        <v>0</v>
+      </c>
+      <c r="EJ49">
         <v>0</v>
       </c>
     </row>
@@ -19196,7 +18860,7 @@
       <c r="EC50">
         <v>0</v>
       </c>
-      <c r="ED50" s="14">
+      <c r="ED50">
         <v>13</v>
       </c>
       <c r="EE50">
@@ -19205,16 +18869,16 @@
       <c r="EF50" t="s">
         <v>137</v>
       </c>
-      <c r="EG50" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH50" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI50" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ50" s="14">
+      <c r="EG50">
+        <v>0</v>
+      </c>
+      <c r="EH50">
+        <v>0</v>
+      </c>
+      <c r="EI50">
+        <v>0</v>
+      </c>
+      <c r="EJ50">
         <v>0</v>
       </c>
     </row>
@@ -19627,16 +19291,16 @@
       <c r="EF51" t="s">
         <v>135</v>
       </c>
-      <c r="EG51" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH51" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI51" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ51" s="14">
+      <c r="EG51">
+        <v>0</v>
+      </c>
+      <c r="EH51">
+        <v>0</v>
+      </c>
+      <c r="EI51">
+        <v>0</v>
+      </c>
+      <c r="EJ51">
         <v>0</v>
       </c>
     </row>
@@ -20049,16 +19713,16 @@
       <c r="EF52" t="s">
         <v>135</v>
       </c>
-      <c r="EG52" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH52" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI52" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ52" s="14">
+      <c r="EG52">
+        <v>0</v>
+      </c>
+      <c r="EH52">
+        <v>0</v>
+      </c>
+      <c r="EI52">
+        <v>0</v>
+      </c>
+      <c r="EJ52">
         <v>0</v>
       </c>
     </row>
@@ -20471,16 +20135,16 @@
       <c r="EF53">
         <v>0</v>
       </c>
-      <c r="EG53" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH53" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI53" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ53" s="14">
+      <c r="EG53">
+        <v>0</v>
+      </c>
+      <c r="EH53">
+        <v>0</v>
+      </c>
+      <c r="EI53">
+        <v>0</v>
+      </c>
+      <c r="EJ53">
         <v>0</v>
       </c>
     </row>
@@ -20893,17 +20557,17 @@
       <c r="EF54" t="s">
         <v>139</v>
       </c>
-      <c r="EG54" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH54" s="14">
-        <v>4784</v>
-      </c>
-      <c r="EI54" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ54" s="14">
-        <v>0</v>
+      <c r="EG54">
+        <v>0</v>
+      </c>
+      <c r="EH54">
+        <v>6165</v>
+      </c>
+      <c r="EI54">
+        <v>0</v>
+      </c>
+      <c r="EJ54">
+        <v>6165</v>
       </c>
     </row>
     <row r="55" spans="1:140" x14ac:dyDescent="0.3">
@@ -21315,17 +20979,17 @@
       <c r="EF55" t="s">
         <v>135</v>
       </c>
-      <c r="EG55" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH55" s="14">
-        <v>308500</v>
-      </c>
-      <c r="EI55" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ55" s="14">
-        <v>0</v>
+      <c r="EG55">
+        <v>0</v>
+      </c>
+      <c r="EH55">
+        <v>308520</v>
+      </c>
+      <c r="EI55">
+        <v>0</v>
+      </c>
+      <c r="EJ55">
+        <v>308520</v>
       </c>
     </row>
     <row r="56" spans="1:140" x14ac:dyDescent="0.3">
@@ -21728,7 +21392,7 @@
       <c r="EC56">
         <v>0</v>
       </c>
-      <c r="ED56" s="14">
+      <c r="ED56">
         <v>107</v>
       </c>
       <c r="EE56">
@@ -21737,16 +21401,16 @@
       <c r="EF56" t="s">
         <v>135</v>
       </c>
-      <c r="EG56" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH56" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI56" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ56" s="14">
+      <c r="EG56">
+        <v>0</v>
+      </c>
+      <c r="EH56">
+        <v>0</v>
+      </c>
+      <c r="EI56">
+        <v>0</v>
+      </c>
+      <c r="EJ56">
         <v>0</v>
       </c>
     </row>
@@ -22159,16 +21823,16 @@
       <c r="EF57">
         <v>0</v>
       </c>
-      <c r="EG57" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH57" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI57" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ57" s="14">
+      <c r="EG57">
+        <v>0</v>
+      </c>
+      <c r="EH57">
+        <v>0</v>
+      </c>
+      <c r="EI57">
+        <v>0</v>
+      </c>
+      <c r="EJ57">
         <v>0</v>
       </c>
     </row>
@@ -22581,16 +22245,16 @@
       <c r="EF58" t="s">
         <v>135</v>
       </c>
-      <c r="EG58" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH58" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI58" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ58" s="14">
+      <c r="EG58">
+        <v>0</v>
+      </c>
+      <c r="EH58">
+        <v>0</v>
+      </c>
+      <c r="EI58">
+        <v>0</v>
+      </c>
+      <c r="EJ58">
         <v>0</v>
       </c>
     </row>
@@ -23003,16 +22667,16 @@
       <c r="EF59" t="s">
         <v>135</v>
       </c>
-      <c r="EG59" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH59" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI59" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ59" s="14">
+      <c r="EG59">
+        <v>0</v>
+      </c>
+      <c r="EH59">
+        <v>0</v>
+      </c>
+      <c r="EI59">
+        <v>0</v>
+      </c>
+      <c r="EJ59">
         <v>0</v>
       </c>
     </row>
@@ -23425,16 +23089,16 @@
       <c r="EF60" t="s">
         <v>135</v>
       </c>
-      <c r="EG60" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH60" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI60" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ60" s="14">
+      <c r="EG60">
+        <v>0</v>
+      </c>
+      <c r="EH60">
+        <v>0</v>
+      </c>
+      <c r="EI60">
+        <v>0</v>
+      </c>
+      <c r="EJ60">
         <v>0</v>
       </c>
     </row>
@@ -23847,16 +23511,16 @@
       <c r="EF61" t="s">
         <v>139</v>
       </c>
-      <c r="EG61" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH61" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI61" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ61" s="14">
+      <c r="EG61">
+        <v>0</v>
+      </c>
+      <c r="EH61">
+        <v>0</v>
+      </c>
+      <c r="EI61">
+        <v>0</v>
+      </c>
+      <c r="EJ61">
         <v>0</v>
       </c>
     </row>
@@ -24260,7 +23924,7 @@
       <c r="EC62">
         <v>0</v>
       </c>
-      <c r="ED62" s="14">
+      <c r="ED62">
         <v>163</v>
       </c>
       <c r="EE62">
@@ -24269,16 +23933,16 @@
       <c r="EF62" t="s">
         <v>137</v>
       </c>
-      <c r="EG62" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH62" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI62" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ62" s="14">
+      <c r="EG62">
+        <v>0</v>
+      </c>
+      <c r="EH62">
+        <v>0</v>
+      </c>
+      <c r="EI62">
+        <v>0</v>
+      </c>
+      <c r="EJ62">
         <v>0</v>
       </c>
     </row>
@@ -24691,16 +24355,16 @@
       <c r="EF63" t="s">
         <v>135</v>
       </c>
-      <c r="EG63" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH63" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI63" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ63" s="14">
+      <c r="EG63">
+        <v>0</v>
+      </c>
+      <c r="EH63">
+        <v>0</v>
+      </c>
+      <c r="EI63">
+        <v>0</v>
+      </c>
+      <c r="EJ63">
         <v>0</v>
       </c>
     </row>
@@ -25113,20 +24777,20 @@
       <c r="EF64" t="s">
         <v>135</v>
       </c>
-      <c r="EG64" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH64" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI64" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ64" s="14">
+      <c r="EG64">
+        <v>0</v>
+      </c>
+      <c r="EH64">
+        <v>0</v>
+      </c>
+      <c r="EI64">
+        <v>0</v>
+      </c>
+      <c r="EJ64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -25535,20 +25199,20 @@
       <c r="EF65" t="s">
         <v>139</v>
       </c>
-      <c r="EG65" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH65" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI65" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ65" s="14">
+      <c r="EG65">
+        <v>0</v>
+      </c>
+      <c r="EH65">
+        <v>0</v>
+      </c>
+      <c r="EI65">
+        <v>0</v>
+      </c>
+      <c r="EJ65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -25957,21 +25621,20 @@
       <c r="EF66" t="s">
         <v>135</v>
       </c>
-      <c r="EG66" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH66" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI66" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ66" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP66" s="14"/>
+      <c r="EG66">
+        <v>0</v>
+      </c>
+      <c r="EH66">
+        <v>0</v>
+      </c>
+      <c r="EI66">
+        <v>0</v>
+      </c>
+      <c r="EJ66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -26348,13 +26011,13 @@
         <v>0</v>
       </c>
       <c r="DV67">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="DW67">
         <v>1410</v>
       </c>
       <c r="DX67">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="DY67">
         <v>1300</v>
@@ -26366,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="EB67">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="EC67">
         <v>1644</v>
       </c>
       <c r="ED67">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="EE67">
         <v>1540</v>
@@ -26380,30 +26043,20 @@
       <c r="EF67" t="s">
         <v>139</v>
       </c>
-      <c r="EG67" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH67" s="14">
-        <v>1936</v>
-      </c>
-      <c r="EI67" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ67" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP67" s="14"/>
-      <c r="EQ67" s="14"/>
-      <c r="ER67" s="14"/>
-      <c r="ES67" s="14"/>
-      <c r="ET67" s="14"/>
-      <c r="EU67" s="14"/>
-      <c r="EV67" s="14"/>
-      <c r="EW67" s="14"/>
-      <c r="EX67" s="14"/>
-      <c r="EY67" s="14"/>
+      <c r="EG67">
+        <v>0</v>
+      </c>
+      <c r="EH67">
+        <v>2344</v>
+      </c>
+      <c r="EI67">
+        <v>0</v>
+      </c>
+      <c r="EJ67">
+        <v>2344</v>
+      </c>
     </row>
-    <row r="68" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -26812,27 +26465,20 @@
       <c r="EF68" t="s">
         <v>135</v>
       </c>
-      <c r="EG68" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH68" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI68" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ68" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP68" s="14"/>
-      <c r="ET68" s="14"/>
-      <c r="EU68" s="14"/>
-      <c r="EV68" s="14"/>
-      <c r="EW68" s="14"/>
-      <c r="EX68" s="14"/>
-      <c r="EY68" s="14"/>
+      <c r="EG68">
+        <v>0</v>
+      </c>
+      <c r="EH68">
+        <v>0</v>
+      </c>
+      <c r="EI68">
+        <v>0</v>
+      </c>
+      <c r="EJ68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -27241,30 +26887,20 @@
       <c r="EF69" t="s">
         <v>135</v>
       </c>
-      <c r="EG69" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH69" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI69" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ69" s="14">
-        <v>0</v>
-      </c>
-      <c r="EP69" s="14"/>
-      <c r="EQ69" s="14"/>
-      <c r="ER69" s="14"/>
-      <c r="ES69" s="14"/>
-      <c r="ET69" s="14"/>
-      <c r="EU69" s="14"/>
-      <c r="EV69" s="14"/>
-      <c r="EW69" s="14"/>
-      <c r="EX69" s="14"/>
-      <c r="EY69" s="14"/>
+      <c r="EG69">
+        <v>0</v>
+      </c>
+      <c r="EH69">
+        <v>0</v>
+      </c>
+      <c r="EI69">
+        <v>0</v>
+      </c>
+      <c r="EJ69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -27664,7 +27300,7 @@
       <c r="EC70">
         <v>0</v>
       </c>
-      <c r="ED70" s="14">
+      <c r="ED70">
         <v>370</v>
       </c>
       <c r="EE70">
@@ -27673,20 +27309,20 @@
       <c r="EF70" t="s">
         <v>135</v>
       </c>
-      <c r="EG70" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH70" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI70" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ70" s="14">
+      <c r="EG70">
+        <v>0</v>
+      </c>
+      <c r="EH70">
+        <v>0</v>
+      </c>
+      <c r="EI70">
+        <v>0</v>
+      </c>
+      <c r="EJ70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -28095,20 +27731,20 @@
       <c r="EF71" t="s">
         <v>135</v>
       </c>
-      <c r="EG71" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH71" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI71" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ71" s="14">
+      <c r="EG71">
+        <v>0</v>
+      </c>
+      <c r="EH71">
+        <v>0</v>
+      </c>
+      <c r="EI71">
+        <v>0</v>
+      </c>
+      <c r="EJ71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>199</v>
       </c>
@@ -28508,7 +28144,7 @@
       <c r="EC72">
         <v>0</v>
       </c>
-      <c r="ED72" s="14">
+      <c r="ED72">
         <v>28</v>
       </c>
       <c r="EE72">
@@ -28517,20 +28153,20 @@
       <c r="EF72" t="s">
         <v>135</v>
       </c>
-      <c r="EG72" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH72" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI72" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ72" s="14">
+      <c r="EG72">
+        <v>0</v>
+      </c>
+      <c r="EH72">
+        <v>0</v>
+      </c>
+      <c r="EI72">
+        <v>0</v>
+      </c>
+      <c r="EJ72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -28930,7 +28566,7 @@
       <c r="EC73">
         <v>0</v>
       </c>
-      <c r="ED73" s="14">
+      <c r="ED73">
         <v>1673</v>
       </c>
       <c r="EE73">
@@ -28939,20 +28575,20 @@
       <c r="EF73" t="s">
         <v>135</v>
       </c>
-      <c r="EG73" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH73" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI73" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ73" s="14">
+      <c r="EG73">
+        <v>0</v>
+      </c>
+      <c r="EH73">
+        <v>0</v>
+      </c>
+      <c r="EI73">
+        <v>0</v>
+      </c>
+      <c r="EJ73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -29361,20 +28997,20 @@
       <c r="EF74" t="s">
         <v>135</v>
       </c>
-      <c r="EG74" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH74" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI74" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ74" s="14">
+      <c r="EG74">
+        <v>0</v>
+      </c>
+      <c r="EH74">
+        <v>0</v>
+      </c>
+      <c r="EI74">
+        <v>0</v>
+      </c>
+      <c r="EJ74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -29783,20 +29419,20 @@
       <c r="EF75">
         <v>0</v>
       </c>
-      <c r="EG75" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH75" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI75" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ75" s="14">
+      <c r="EG75">
+        <v>0</v>
+      </c>
+      <c r="EH75">
+        <v>0</v>
+      </c>
+      <c r="EI75">
+        <v>0</v>
+      </c>
+      <c r="EJ75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -30205,20 +29841,20 @@
       <c r="EF76" t="s">
         <v>135</v>
       </c>
-      <c r="EG76" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH76" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI76" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ76" s="14">
+      <c r="EG76">
+        <v>0</v>
+      </c>
+      <c r="EH76">
+        <v>0</v>
+      </c>
+      <c r="EI76">
+        <v>0</v>
+      </c>
+      <c r="EJ76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>204</v>
       </c>
@@ -30627,20 +30263,20 @@
       <c r="EF77" t="s">
         <v>139</v>
       </c>
-      <c r="EG77" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH77" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI77" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ77" s="14">
+      <c r="EG77">
+        <v>0</v>
+      </c>
+      <c r="EH77">
+        <v>0</v>
+      </c>
+      <c r="EI77">
+        <v>0</v>
+      </c>
+      <c r="EJ77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -31049,20 +30685,20 @@
       <c r="EF78" t="s">
         <v>137</v>
       </c>
-      <c r="EG78" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH78" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI78" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ78" s="14">
+      <c r="EG78">
+        <v>0</v>
+      </c>
+      <c r="EH78">
+        <v>0</v>
+      </c>
+      <c r="EI78">
+        <v>0</v>
+      </c>
+      <c r="EJ78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>363</v>
       </c>
@@ -31471,20 +31107,20 @@
       <c r="EF79">
         <v>0</v>
       </c>
-      <c r="EG79" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH79" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI79" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ79" s="14">
+      <c r="EG79">
+        <v>0</v>
+      </c>
+      <c r="EH79">
+        <v>0</v>
+      </c>
+      <c r="EI79">
+        <v>0</v>
+      </c>
+      <c r="EJ79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:140" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -31893,16 +31529,16 @@
       <c r="EF80" t="s">
         <v>135</v>
       </c>
-      <c r="EG80" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH80" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI80" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ80" s="14">
+      <c r="EG80">
+        <v>0</v>
+      </c>
+      <c r="EH80">
+        <v>0</v>
+      </c>
+      <c r="EI80">
+        <v>0</v>
+      </c>
+      <c r="EJ80">
         <v>0</v>
       </c>
     </row>
@@ -32315,16 +31951,16 @@
       <c r="EF81" t="s">
         <v>135</v>
       </c>
-      <c r="EG81" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH81" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI81" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ81" s="14">
+      <c r="EG81">
+        <v>0</v>
+      </c>
+      <c r="EH81">
+        <v>0</v>
+      </c>
+      <c r="EI81">
+        <v>0</v>
+      </c>
+      <c r="EJ81">
         <v>0</v>
       </c>
     </row>
@@ -32737,17 +32373,17 @@
       <c r="EF82" t="s">
         <v>135</v>
       </c>
-      <c r="EG82" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH82" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI82" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ82" s="14">
-        <v>0</v>
+      <c r="EG82">
+        <v>0</v>
+      </c>
+      <c r="EH82">
+        <v>413</v>
+      </c>
+      <c r="EI82">
+        <v>0</v>
+      </c>
+      <c r="EJ82">
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:140" x14ac:dyDescent="0.3">
@@ -32962,13 +32598,13 @@
         <v>1050</v>
       </c>
       <c r="BS83">
-        <v>1209</v>
+        <v>1446</v>
       </c>
       <c r="BT83">
         <v>1184</v>
       </c>
       <c r="BU83">
-        <v>1209</v>
+        <v>1446</v>
       </c>
       <c r="BV83">
         <v>3004</v>
@@ -32980,13 +32616,13 @@
         <v>2850</v>
       </c>
       <c r="BY83">
-        <v>2973</v>
+        <v>3562</v>
       </c>
       <c r="BZ83">
         <v>2949</v>
       </c>
       <c r="CA83">
-        <v>2973</v>
+        <v>3562</v>
       </c>
       <c r="CB83">
         <v>4359</v>
@@ -32998,13 +32634,13 @@
         <v>3990</v>
       </c>
       <c r="CE83">
-        <v>4093</v>
+        <v>4906</v>
       </c>
       <c r="CF83">
         <v>4069</v>
       </c>
       <c r="CG83">
-        <v>4093</v>
+        <v>4906</v>
       </c>
       <c r="CH83">
         <v>5277</v>
@@ -33016,13 +32652,13 @@
         <v>4690</v>
       </c>
       <c r="CK83">
-        <v>4747</v>
+        <v>5692</v>
       </c>
       <c r="CL83">
         <v>4725</v>
       </c>
       <c r="CM83">
-        <v>4747</v>
+        <v>5692</v>
       </c>
       <c r="CN83">
         <v>6034</v>
@@ -33034,13 +32670,13 @@
         <v>5620</v>
       </c>
       <c r="CQ83">
-        <v>5701</v>
+        <v>6837</v>
       </c>
       <c r="CR83">
         <v>5680</v>
       </c>
       <c r="CS83">
-        <v>5701</v>
+        <v>6837</v>
       </c>
       <c r="CT83">
         <v>7138</v>
@@ -33052,13 +32688,13 @@
         <v>6540</v>
       </c>
       <c r="CW83">
-        <v>6605</v>
+        <v>7920</v>
       </c>
       <c r="CX83">
         <v>6575</v>
       </c>
       <c r="CY83">
-        <v>6605</v>
+        <v>7920</v>
       </c>
       <c r="CZ83">
         <v>7702</v>
@@ -33070,13 +32706,13 @@
         <v>7120</v>
       </c>
       <c r="DC83">
-        <v>7201</v>
+        <v>8636</v>
       </c>
       <c r="DD83">
         <v>7139</v>
       </c>
       <c r="DE83">
-        <v>7201</v>
+        <v>8636</v>
       </c>
       <c r="DF83">
         <v>8610</v>
@@ -33088,13 +32724,13 @@
         <v>8050</v>
       </c>
       <c r="DI83">
-        <v>8099</v>
+        <v>9713</v>
       </c>
       <c r="DJ83">
         <v>8047</v>
       </c>
       <c r="DK83">
-        <v>8099</v>
+        <v>9713</v>
       </c>
       <c r="DL83">
         <v>9691</v>
@@ -33106,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="DO83">
-        <v>8968</v>
+        <v>10755</v>
       </c>
       <c r="DP83">
         <v>5274.0803830638997</v>
@@ -33115,7 +32751,7 @@
         <v>8909</v>
       </c>
       <c r="DR83">
-        <v>8968</v>
+        <v>10755</v>
       </c>
       <c r="DS83">
         <v>10795</v>
@@ -33127,13 +32763,13 @@
         <v>0</v>
       </c>
       <c r="DV83">
-        <v>9947</v>
+        <v>11930</v>
       </c>
       <c r="DW83">
         <v>9930</v>
       </c>
       <c r="DX83">
-        <v>9947</v>
+        <v>10930</v>
       </c>
       <c r="DY83">
         <v>11724</v>
@@ -33145,13 +32781,13 @@
         <v>0</v>
       </c>
       <c r="EB83">
-        <v>10920</v>
+        <v>13098</v>
       </c>
       <c r="EC83">
         <v>10967</v>
       </c>
       <c r="ED83">
-        <v>10920</v>
+        <v>13098</v>
       </c>
       <c r="EE83">
         <v>14709</v>
@@ -33159,17 +32795,17 @@
       <c r="EF83" t="s">
         <v>135</v>
       </c>
-      <c r="EG83" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH83" s="14">
-        <v>14300</v>
-      </c>
-      <c r="EI83" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ83" s="14">
-        <v>0</v>
+      <c r="EG83">
+        <v>0</v>
+      </c>
+      <c r="EH83">
+        <v>16450</v>
+      </c>
+      <c r="EI83">
+        <v>0</v>
+      </c>
+      <c r="EJ83">
+        <v>16450</v>
       </c>
     </row>
     <row r="84" spans="1:140" x14ac:dyDescent="0.3">
@@ -33581,16 +33217,16 @@
       <c r="EF84" t="s">
         <v>137</v>
       </c>
-      <c r="EG84" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH84" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI84" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ84" s="14">
+      <c r="EG84">
+        <v>0</v>
+      </c>
+      <c r="EH84">
+        <v>0</v>
+      </c>
+      <c r="EI84">
+        <v>0</v>
+      </c>
+      <c r="EJ84">
         <v>0</v>
       </c>
     </row>
@@ -34003,16 +33639,16 @@
       <c r="EF85" t="s">
         <v>135</v>
       </c>
-      <c r="EG85" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH85" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI85" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ85" s="14">
+      <c r="EG85">
+        <v>0</v>
+      </c>
+      <c r="EH85">
+        <v>0</v>
+      </c>
+      <c r="EI85">
+        <v>0</v>
+      </c>
+      <c r="EJ85">
         <v>0</v>
       </c>
     </row>
@@ -34425,16 +34061,16 @@
       <c r="EF86" t="s">
         <v>135</v>
       </c>
-      <c r="EG86" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH86" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI86" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ86" s="14">
+      <c r="EG86">
+        <v>0</v>
+      </c>
+      <c r="EH86">
+        <v>0</v>
+      </c>
+      <c r="EI86">
+        <v>0</v>
+      </c>
+      <c r="EJ86">
         <v>0</v>
       </c>
     </row>
@@ -34847,16 +34483,16 @@
       <c r="EF87" t="s">
         <v>135</v>
       </c>
-      <c r="EG87" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH87" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI87" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ87" s="14">
+      <c r="EG87">
+        <v>0</v>
+      </c>
+      <c r="EH87">
+        <v>0</v>
+      </c>
+      <c r="EI87">
+        <v>0</v>
+      </c>
+      <c r="EJ87">
         <v>0</v>
       </c>
     </row>
@@ -35269,16 +34905,16 @@
       <c r="EF88" t="s">
         <v>135</v>
       </c>
-      <c r="EG88" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH88" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI88" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ88" s="14">
+      <c r="EG88">
+        <v>0</v>
+      </c>
+      <c r="EH88">
+        <v>0</v>
+      </c>
+      <c r="EI88">
+        <v>0</v>
+      </c>
+      <c r="EJ88">
         <v>0</v>
       </c>
     </row>
@@ -35691,17 +35327,17 @@
       <c r="EF89" t="s">
         <v>139</v>
       </c>
-      <c r="EG89" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH89" s="14">
-        <v>59200</v>
-      </c>
-      <c r="EI89" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ89" s="14">
-        <v>0</v>
+      <c r="EG89">
+        <v>0</v>
+      </c>
+      <c r="EH89">
+        <v>59661</v>
+      </c>
+      <c r="EI89">
+        <v>0</v>
+      </c>
+      <c r="EJ89">
+        <v>59661</v>
       </c>
     </row>
     <row r="90" spans="1:140" x14ac:dyDescent="0.3">
@@ -36113,16 +35749,16 @@
       <c r="EF90" t="s">
         <v>135</v>
       </c>
-      <c r="EG90" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH90" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI90" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ90" s="14">
+      <c r="EG90">
+        <v>0</v>
+      </c>
+      <c r="EH90">
+        <v>0</v>
+      </c>
+      <c r="EI90">
+        <v>0</v>
+      </c>
+      <c r="EJ90">
         <v>0</v>
       </c>
     </row>
@@ -36535,16 +36171,16 @@
       <c r="EF91">
         <v>0</v>
       </c>
-      <c r="EG91" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH91" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI91" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ91" s="14">
+      <c r="EG91">
+        <v>0</v>
+      </c>
+      <c r="EH91">
+        <v>0</v>
+      </c>
+      <c r="EI91">
+        <v>0</v>
+      </c>
+      <c r="EJ91">
         <v>0</v>
       </c>
     </row>
@@ -36957,16 +36593,16 @@
       <c r="EF92" t="s">
         <v>139</v>
       </c>
-      <c r="EG92" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH92" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI92" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ92" s="14">
+      <c r="EG92">
+        <v>0</v>
+      </c>
+      <c r="EH92">
+        <v>0</v>
+      </c>
+      <c r="EI92">
+        <v>0</v>
+      </c>
+      <c r="EJ92">
         <v>0</v>
       </c>
     </row>
@@ -37379,16 +37015,16 @@
       <c r="EF93" t="s">
         <v>135</v>
       </c>
-      <c r="EG93" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH93" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI93" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ93" s="14">
+      <c r="EG93">
+        <v>0</v>
+      </c>
+      <c r="EH93">
+        <v>0</v>
+      </c>
+      <c r="EI93">
+        <v>0</v>
+      </c>
+      <c r="EJ93">
         <v>0</v>
       </c>
     </row>
@@ -37801,16 +37437,16 @@
       <c r="EF94" t="s">
         <v>137</v>
       </c>
-      <c r="EG94" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH94" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI94" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ94" s="14">
+      <c r="EG94">
+        <v>0</v>
+      </c>
+      <c r="EH94">
+        <v>0</v>
+      </c>
+      <c r="EI94">
+        <v>0</v>
+      </c>
+      <c r="EJ94">
         <v>0</v>
       </c>
     </row>
@@ -38214,7 +37850,7 @@
       <c r="EC95">
         <v>0</v>
       </c>
-      <c r="ED95" s="14">
+      <c r="ED95">
         <v>85</v>
       </c>
       <c r="EE95">
@@ -38223,16 +37859,16 @@
       <c r="EF95" t="s">
         <v>137</v>
       </c>
-      <c r="EG95" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH95" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI95" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ95" s="14">
+      <c r="EG95">
+        <v>0</v>
+      </c>
+      <c r="EH95">
+        <v>0</v>
+      </c>
+      <c r="EI95">
+        <v>0</v>
+      </c>
+      <c r="EJ95">
         <v>0</v>
       </c>
     </row>
@@ -38645,16 +38281,16 @@
       <c r="EF96" t="s">
         <v>135</v>
       </c>
-      <c r="EG96" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH96" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI96" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ96" s="14">
+      <c r="EG96">
+        <v>0</v>
+      </c>
+      <c r="EH96">
+        <v>0</v>
+      </c>
+      <c r="EI96">
+        <v>0</v>
+      </c>
+      <c r="EJ96">
         <v>0</v>
       </c>
     </row>
@@ -39067,16 +38703,16 @@
       <c r="EF97" t="s">
         <v>135</v>
       </c>
-      <c r="EG97" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH97" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI97" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ97" s="14">
+      <c r="EG97">
+        <v>0</v>
+      </c>
+      <c r="EH97">
+        <v>0</v>
+      </c>
+      <c r="EI97">
+        <v>0</v>
+      </c>
+      <c r="EJ97">
         <v>0</v>
       </c>
     </row>
@@ -39489,16 +39125,16 @@
       <c r="EF98" t="s">
         <v>135</v>
       </c>
-      <c r="EG98" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH98" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI98" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ98" s="14">
+      <c r="EG98">
+        <v>0</v>
+      </c>
+      <c r="EH98">
+        <v>0</v>
+      </c>
+      <c r="EI98">
+        <v>0</v>
+      </c>
+      <c r="EJ98">
         <v>0</v>
       </c>
     </row>
@@ -39911,16 +39547,16 @@
       <c r="EF99" t="s">
         <v>135</v>
       </c>
-      <c r="EG99" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH99" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI99" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ99" s="14">
+      <c r="EG99">
+        <v>0</v>
+      </c>
+      <c r="EH99">
+        <v>0</v>
+      </c>
+      <c r="EI99">
+        <v>0</v>
+      </c>
+      <c r="EJ99">
         <v>0</v>
       </c>
     </row>
@@ -40333,16 +39969,16 @@
       <c r="EF100" t="s">
         <v>135</v>
       </c>
-      <c r="EG100" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH100" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI100" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ100" s="14">
+      <c r="EG100">
+        <v>0</v>
+      </c>
+      <c r="EH100">
+        <v>0</v>
+      </c>
+      <c r="EI100">
+        <v>0</v>
+      </c>
+      <c r="EJ100">
         <v>0</v>
       </c>
     </row>
@@ -40755,16 +40391,16 @@
       <c r="EF101" t="s">
         <v>135</v>
       </c>
-      <c r="EG101" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH101" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI101" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ101" s="14">
+      <c r="EG101">
+        <v>0</v>
+      </c>
+      <c r="EH101">
+        <v>0</v>
+      </c>
+      <c r="EI101">
+        <v>0</v>
+      </c>
+      <c r="EJ101">
         <v>0</v>
       </c>
     </row>
@@ -41177,16 +40813,16 @@
       <c r="EF102">
         <v>0</v>
       </c>
-      <c r="EG102" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH102" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI102" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ102" s="14">
+      <c r="EG102">
+        <v>0</v>
+      </c>
+      <c r="EH102">
+        <v>0</v>
+      </c>
+      <c r="EI102">
+        <v>0</v>
+      </c>
+      <c r="EJ102">
         <v>0</v>
       </c>
     </row>
@@ -41599,16 +41235,16 @@
       <c r="EF103" t="s">
         <v>135</v>
       </c>
-      <c r="EG103" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH103" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI103" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ103" s="14">
+      <c r="EG103">
+        <v>0</v>
+      </c>
+      <c r="EH103">
+        <v>0</v>
+      </c>
+      <c r="EI103">
+        <v>0</v>
+      </c>
+      <c r="EJ103">
         <v>0</v>
       </c>
     </row>
@@ -42021,16 +41657,16 @@
       <c r="EF104">
         <v>0</v>
       </c>
-      <c r="EG104" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH104" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI104" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ104" s="14">
+      <c r="EG104">
+        <v>0</v>
+      </c>
+      <c r="EH104">
+        <v>0</v>
+      </c>
+      <c r="EI104">
+        <v>0</v>
+      </c>
+      <c r="EJ104">
         <v>0</v>
       </c>
     </row>
@@ -42443,16 +42079,16 @@
       <c r="EF105" t="s">
         <v>135</v>
       </c>
-      <c r="EG105" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH105" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI105" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ105" s="14">
+      <c r="EG105">
+        <v>0</v>
+      </c>
+      <c r="EH105">
+        <v>0</v>
+      </c>
+      <c r="EI105">
+        <v>0</v>
+      </c>
+      <c r="EJ105">
         <v>0</v>
       </c>
     </row>
@@ -42865,16 +42501,16 @@
       <c r="EF106" t="s">
         <v>135</v>
       </c>
-      <c r="EG106" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH106" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI106" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ106" s="14">
+      <c r="EG106">
+        <v>0</v>
+      </c>
+      <c r="EH106">
+        <v>0</v>
+      </c>
+      <c r="EI106">
+        <v>0</v>
+      </c>
+      <c r="EJ106">
         <v>0</v>
       </c>
     </row>
@@ -43287,16 +42923,16 @@
       <c r="EF107" t="s">
         <v>135</v>
       </c>
-      <c r="EG107" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH107" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI107" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ107" s="14">
+      <c r="EG107">
+        <v>0</v>
+      </c>
+      <c r="EH107">
+        <v>0</v>
+      </c>
+      <c r="EI107">
+        <v>0</v>
+      </c>
+      <c r="EJ107">
         <v>0</v>
       </c>
     </row>
@@ -43709,16 +43345,16 @@
       <c r="EF108" t="s">
         <v>139</v>
       </c>
-      <c r="EG108" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH108" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI108" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ108" s="14">
+      <c r="EG108">
+        <v>0</v>
+      </c>
+      <c r="EH108">
+        <v>0</v>
+      </c>
+      <c r="EI108">
+        <v>0</v>
+      </c>
+      <c r="EJ108">
         <v>0</v>
       </c>
     </row>
@@ -44131,16 +43767,16 @@
       <c r="EF109" t="s">
         <v>135</v>
       </c>
-      <c r="EG109" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH109" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI109" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ109" s="14">
+      <c r="EG109">
+        <v>0</v>
+      </c>
+      <c r="EH109">
+        <v>0</v>
+      </c>
+      <c r="EI109">
+        <v>0</v>
+      </c>
+      <c r="EJ109">
         <v>0</v>
       </c>
     </row>
@@ -44553,16 +44189,16 @@
       <c r="EF110" t="s">
         <v>135</v>
       </c>
-      <c r="EG110" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH110" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI110" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ110" s="14">
+      <c r="EG110">
+        <v>0</v>
+      </c>
+      <c r="EH110">
+        <v>0</v>
+      </c>
+      <c r="EI110">
+        <v>0</v>
+      </c>
+      <c r="EJ110">
         <v>0</v>
       </c>
     </row>
@@ -44975,16 +44611,16 @@
       <c r="EF111" t="s">
         <v>135</v>
       </c>
-      <c r="EG111" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH111" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI111" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ111" s="14">
+      <c r="EG111">
+        <v>0</v>
+      </c>
+      <c r="EH111">
+        <v>0</v>
+      </c>
+      <c r="EI111">
+        <v>0</v>
+      </c>
+      <c r="EJ111">
         <v>0</v>
       </c>
     </row>
@@ -45397,16 +45033,16 @@
       <c r="EF112">
         <v>0</v>
       </c>
-      <c r="EG112" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH112" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI112" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ112" s="14">
+      <c r="EG112">
+        <v>0</v>
+      </c>
+      <c r="EH112">
+        <v>0</v>
+      </c>
+      <c r="EI112">
+        <v>0</v>
+      </c>
+      <c r="EJ112">
         <v>0</v>
       </c>
     </row>
@@ -45805,13 +45441,13 @@
         <v>0</v>
       </c>
       <c r="EB113">
-        <v>2550</v>
+        <v>2414</v>
       </c>
       <c r="EC113">
         <v>0</v>
       </c>
       <c r="ED113">
-        <v>2550</v>
+        <v>2414</v>
       </c>
       <c r="EE113">
         <v>2313</v>
@@ -45819,17 +45455,17 @@
       <c r="EF113" t="s">
         <v>137</v>
       </c>
-      <c r="EG113" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH113" s="14">
-        <v>3485</v>
-      </c>
-      <c r="EI113" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ113" s="14">
-        <v>0</v>
+      <c r="EG113">
+        <v>0</v>
+      </c>
+      <c r="EH113">
+        <v>3349</v>
+      </c>
+      <c r="EI113">
+        <v>0</v>
+      </c>
+      <c r="EJ113">
+        <v>3349</v>
       </c>
     </row>
     <row r="114" spans="1:140" x14ac:dyDescent="0.3">
@@ -46241,17 +45877,17 @@
       <c r="EF114" t="s">
         <v>139</v>
       </c>
-      <c r="EG114" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH114" s="14">
-        <v>22600</v>
-      </c>
-      <c r="EI114" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ114" s="14">
-        <v>0</v>
+      <c r="EG114">
+        <v>0</v>
+      </c>
+      <c r="EH114">
+        <v>22594</v>
+      </c>
+      <c r="EI114">
+        <v>0</v>
+      </c>
+      <c r="EJ114">
+        <v>22594</v>
       </c>
     </row>
     <row r="115" spans="1:140" x14ac:dyDescent="0.3">
@@ -46663,16 +46299,16 @@
       <c r="EF115" t="s">
         <v>135</v>
       </c>
-      <c r="EG115" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH115" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI115" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ115" s="14">
+      <c r="EG115">
+        <v>0</v>
+      </c>
+      <c r="EH115">
+        <v>0</v>
+      </c>
+      <c r="EI115">
+        <v>0</v>
+      </c>
+      <c r="EJ115">
         <v>0</v>
       </c>
     </row>
@@ -47085,16 +46721,16 @@
       <c r="EF116" t="s">
         <v>135</v>
       </c>
-      <c r="EG116" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH116" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI116" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ116" s="14">
+      <c r="EG116">
+        <v>0</v>
+      </c>
+      <c r="EH116">
+        <v>0</v>
+      </c>
+      <c r="EI116">
+        <v>0</v>
+      </c>
+      <c r="EJ116">
         <v>0</v>
       </c>
     </row>
@@ -47507,17 +47143,17 @@
       <c r="EF117" t="s">
         <v>139</v>
       </c>
-      <c r="EG117" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH117" s="14">
-        <v>78200</v>
-      </c>
-      <c r="EI117" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ117" s="14">
-        <v>0</v>
+      <c r="EG117">
+        <v>0</v>
+      </c>
+      <c r="EH117">
+        <v>78413</v>
+      </c>
+      <c r="EI117">
+        <v>0</v>
+      </c>
+      <c r="EJ117">
+        <v>78413</v>
       </c>
     </row>
     <row r="118" spans="1:140" x14ac:dyDescent="0.3">
@@ -47929,16 +47565,16 @@
       <c r="EF118" t="s">
         <v>135</v>
       </c>
-      <c r="EG118" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH118" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI118" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ118" s="14">
+      <c r="EG118">
+        <v>0</v>
+      </c>
+      <c r="EH118">
+        <v>0</v>
+      </c>
+      <c r="EI118">
+        <v>0</v>
+      </c>
+      <c r="EJ118">
         <v>0</v>
       </c>
     </row>
@@ -48342,7 +47978,7 @@
       <c r="EC119">
         <v>0</v>
       </c>
-      <c r="ED119" s="14">
+      <c r="ED119">
         <v>1150</v>
       </c>
       <c r="EE119">
@@ -48351,16 +47987,16 @@
       <c r="EF119" t="s">
         <v>135</v>
       </c>
-      <c r="EG119" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH119" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI119" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ119" s="14">
+      <c r="EG119">
+        <v>0</v>
+      </c>
+      <c r="EH119">
+        <v>0</v>
+      </c>
+      <c r="EI119">
+        <v>0</v>
+      </c>
+      <c r="EJ119">
         <v>0</v>
       </c>
     </row>
@@ -48773,16 +48409,16 @@
       <c r="EF120" t="s">
         <v>135</v>
       </c>
-      <c r="EG120" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH120" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI120" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ120" s="14">
+      <c r="EG120">
+        <v>0</v>
+      </c>
+      <c r="EH120">
+        <v>0</v>
+      </c>
+      <c r="EI120">
+        <v>0</v>
+      </c>
+      <c r="EJ120">
         <v>0</v>
       </c>
     </row>
@@ -49195,16 +48831,16 @@
       <c r="EF121" t="s">
         <v>135</v>
       </c>
-      <c r="EG121" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH121" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI121" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ121" s="14">
+      <c r="EG121">
+        <v>0</v>
+      </c>
+      <c r="EH121">
+        <v>0</v>
+      </c>
+      <c r="EI121">
+        <v>0</v>
+      </c>
+      <c r="EJ121">
         <v>0</v>
       </c>
     </row>
@@ -49617,16 +49253,16 @@
       <c r="EF122" t="s">
         <v>135</v>
       </c>
-      <c r="EG122" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH122" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI122" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ122" s="14">
+      <c r="EG122">
+        <v>0</v>
+      </c>
+      <c r="EH122">
+        <v>0</v>
+      </c>
+      <c r="EI122">
+        <v>0</v>
+      </c>
+      <c r="EJ122">
         <v>0</v>
       </c>
     </row>
@@ -50039,16 +49675,16 @@
       <c r="EF123" t="s">
         <v>135</v>
       </c>
-      <c r="EG123" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH123" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI123" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ123" s="14">
+      <c r="EG123">
+        <v>0</v>
+      </c>
+      <c r="EH123">
+        <v>0</v>
+      </c>
+      <c r="EI123">
+        <v>0</v>
+      </c>
+      <c r="EJ123">
         <v>0</v>
       </c>
     </row>
@@ -50461,16 +50097,16 @@
       <c r="EF124">
         <v>0</v>
       </c>
-      <c r="EG124" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH124" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI124" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ124" s="14">
+      <c r="EG124">
+        <v>0</v>
+      </c>
+      <c r="EH124">
+        <v>0</v>
+      </c>
+      <c r="EI124">
+        <v>0</v>
+      </c>
+      <c r="EJ124">
         <v>0</v>
       </c>
     </row>
@@ -50883,16 +50519,16 @@
       <c r="EF125" t="s">
         <v>135</v>
       </c>
-      <c r="EG125" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH125" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI125" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ125" s="14">
+      <c r="EG125">
+        <v>0</v>
+      </c>
+      <c r="EH125">
+        <v>0</v>
+      </c>
+      <c r="EI125">
+        <v>0</v>
+      </c>
+      <c r="EJ125">
         <v>0</v>
       </c>
     </row>
@@ -51305,16 +50941,16 @@
       <c r="EF126" t="s">
         <v>139</v>
       </c>
-      <c r="EG126" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH126" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI126" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ126" s="14">
+      <c r="EG126">
+        <v>0</v>
+      </c>
+      <c r="EH126">
+        <v>0</v>
+      </c>
+      <c r="EI126">
+        <v>0</v>
+      </c>
+      <c r="EJ126">
         <v>0</v>
       </c>
     </row>
@@ -51727,16 +51363,16 @@
       <c r="EF127" t="s">
         <v>139</v>
       </c>
-      <c r="EG127" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH127" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI127" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ127" s="14">
+      <c r="EG127">
+        <v>0</v>
+      </c>
+      <c r="EH127">
+        <v>0</v>
+      </c>
+      <c r="EI127">
+        <v>0</v>
+      </c>
+      <c r="EJ127">
         <v>0</v>
       </c>
     </row>
@@ -52149,16 +51785,16 @@
       <c r="EF128" t="s">
         <v>135</v>
       </c>
-      <c r="EG128" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH128" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI128" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ128" s="14">
+      <c r="EG128">
+        <v>0</v>
+      </c>
+      <c r="EH128">
+        <v>0</v>
+      </c>
+      <c r="EI128">
+        <v>0</v>
+      </c>
+      <c r="EJ128">
         <v>0</v>
       </c>
     </row>
@@ -52571,16 +52207,16 @@
       <c r="EF129" t="s">
         <v>135</v>
       </c>
-      <c r="EG129" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH129" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI129" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ129" s="14">
+      <c r="EG129">
+        <v>0</v>
+      </c>
+      <c r="EH129">
+        <v>0</v>
+      </c>
+      <c r="EI129">
+        <v>0</v>
+      </c>
+      <c r="EJ129">
         <v>0</v>
       </c>
     </row>
@@ -52993,16 +52629,16 @@
       <c r="EF130" t="s">
         <v>140</v>
       </c>
-      <c r="EG130" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH130" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI130" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ130" s="14">
+      <c r="EG130">
+        <v>0</v>
+      </c>
+      <c r="EH130">
+        <v>0</v>
+      </c>
+      <c r="EI130">
+        <v>0</v>
+      </c>
+      <c r="EJ130">
         <v>0</v>
       </c>
     </row>
@@ -53415,16 +53051,16 @@
       <c r="EF131">
         <v>0</v>
       </c>
-      <c r="EG131" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH131" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI131" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ131" s="14">
+      <c r="EG131">
+        <v>0</v>
+      </c>
+      <c r="EH131">
+        <v>0</v>
+      </c>
+      <c r="EI131">
+        <v>0</v>
+      </c>
+      <c r="EJ131">
         <v>0</v>
       </c>
     </row>
@@ -53837,16 +53473,16 @@
       <c r="EF132" t="s">
         <v>135</v>
       </c>
-      <c r="EG132" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH132" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI132" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ132" s="14">
+      <c r="EG132">
+        <v>0</v>
+      </c>
+      <c r="EH132">
+        <v>0</v>
+      </c>
+      <c r="EI132">
+        <v>0</v>
+      </c>
+      <c r="EJ132">
         <v>0</v>
       </c>
     </row>
@@ -54259,16 +53895,16 @@
       <c r="EF133" t="s">
         <v>139</v>
       </c>
-      <c r="EG133" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH133" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI133" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ133" s="14">
+      <c r="EG133">
+        <v>0</v>
+      </c>
+      <c r="EH133">
+        <v>0</v>
+      </c>
+      <c r="EI133">
+        <v>0</v>
+      </c>
+      <c r="EJ133">
         <v>0</v>
       </c>
     </row>
@@ -54681,16 +54317,16 @@
       <c r="EF134" t="s">
         <v>135</v>
       </c>
-      <c r="EG134" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH134" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI134" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ134" s="14">
+      <c r="EG134">
+        <v>0</v>
+      </c>
+      <c r="EH134">
+        <v>0</v>
+      </c>
+      <c r="EI134">
+        <v>0</v>
+      </c>
+      <c r="EJ134">
         <v>0</v>
       </c>
     </row>
@@ -55103,16 +54739,16 @@
       <c r="EF135" t="s">
         <v>135</v>
       </c>
-      <c r="EG135" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH135" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI135" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ135" s="14">
+      <c r="EG135">
+        <v>0</v>
+      </c>
+      <c r="EH135">
+        <v>0</v>
+      </c>
+      <c r="EI135">
+        <v>0</v>
+      </c>
+      <c r="EJ135">
         <v>0</v>
       </c>
     </row>
@@ -55525,16 +55161,16 @@
       <c r="EF136" t="s">
         <v>135</v>
       </c>
-      <c r="EG136" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH136" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI136" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ136" s="14">
+      <c r="EG136">
+        <v>0</v>
+      </c>
+      <c r="EH136">
+        <v>0</v>
+      </c>
+      <c r="EI136">
+        <v>0</v>
+      </c>
+      <c r="EJ136">
         <v>0</v>
       </c>
     </row>
@@ -55933,13 +55569,13 @@
         <v>0</v>
       </c>
       <c r="EB137">
-        <v>2300</v>
+        <v>1961</v>
       </c>
       <c r="EC137">
         <v>0</v>
       </c>
       <c r="ED137">
-        <v>2300</v>
+        <v>1961</v>
       </c>
       <c r="EE137">
         <v>1787</v>
@@ -55947,17 +55583,17 @@
       <c r="EF137" t="s">
         <v>135</v>
       </c>
-      <c r="EG137" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH137" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI137" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ137" s="14">
-        <v>0</v>
+      <c r="EG137">
+        <v>0</v>
+      </c>
+      <c r="EH137">
+        <v>2330</v>
+      </c>
+      <c r="EI137">
+        <v>0</v>
+      </c>
+      <c r="EJ137">
+        <v>2330</v>
       </c>
     </row>
     <row r="138" spans="1:140" x14ac:dyDescent="0.3">
@@ -56369,16 +56005,16 @@
       <c r="EF138" t="s">
         <v>140</v>
       </c>
-      <c r="EG138" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH138" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI138" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ138" s="14">
+      <c r="EG138">
+        <v>0</v>
+      </c>
+      <c r="EH138">
+        <v>0</v>
+      </c>
+      <c r="EI138">
+        <v>0</v>
+      </c>
+      <c r="EJ138">
         <v>0</v>
       </c>
     </row>
@@ -56791,16 +56427,16 @@
       <c r="EF139" t="s">
         <v>140</v>
       </c>
-      <c r="EG139" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH139" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI139" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ139" s="14">
+      <c r="EG139">
+        <v>0</v>
+      </c>
+      <c r="EH139">
+        <v>0</v>
+      </c>
+      <c r="EI139">
+        <v>0</v>
+      </c>
+      <c r="EJ139">
         <v>0</v>
       </c>
     </row>
@@ -57213,16 +56849,16 @@
       <c r="EF140" t="s">
         <v>139</v>
       </c>
-      <c r="EG140" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH140" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI140" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ140" s="14">
+      <c r="EG140">
+        <v>0</v>
+      </c>
+      <c r="EH140">
+        <v>0</v>
+      </c>
+      <c r="EI140">
+        <v>0</v>
+      </c>
+      <c r="EJ140">
         <v>0</v>
       </c>
     </row>
@@ -57635,16 +57271,16 @@
       <c r="EF141" t="s">
         <v>135</v>
       </c>
-      <c r="EG141" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH141" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI141" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ141" s="14">
+      <c r="EG141">
+        <v>0</v>
+      </c>
+      <c r="EH141">
+        <v>0</v>
+      </c>
+      <c r="EI141">
+        <v>0</v>
+      </c>
+      <c r="EJ141">
         <v>0</v>
       </c>
     </row>
@@ -58048,7 +57684,7 @@
       <c r="EC142">
         <v>0</v>
       </c>
-      <c r="ED142" s="14">
+      <c r="ED142">
         <v>71</v>
       </c>
       <c r="EE142">
@@ -58057,16 +57693,16 @@
       <c r="EF142" t="s">
         <v>137</v>
       </c>
-      <c r="EG142" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH142" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI142" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ142" s="14">
+      <c r="EG142">
+        <v>0</v>
+      </c>
+      <c r="EH142">
+        <v>0</v>
+      </c>
+      <c r="EI142">
+        <v>0</v>
+      </c>
+      <c r="EJ142">
         <v>0</v>
       </c>
     </row>
@@ -58479,16 +58115,16 @@
       <c r="EF143" t="s">
         <v>135</v>
       </c>
-      <c r="EG143" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH143" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI143" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ143" s="14">
+      <c r="EG143">
+        <v>0</v>
+      </c>
+      <c r="EH143">
+        <v>0</v>
+      </c>
+      <c r="EI143">
+        <v>0</v>
+      </c>
+      <c r="EJ143">
         <v>0</v>
       </c>
     </row>
@@ -58901,16 +58537,16 @@
       <c r="EF144" t="s">
         <v>135</v>
       </c>
-      <c r="EG144" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH144" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI144" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ144" s="14">
+      <c r="EG144">
+        <v>0</v>
+      </c>
+      <c r="EH144">
+        <v>0</v>
+      </c>
+      <c r="EI144">
+        <v>0</v>
+      </c>
+      <c r="EJ144">
         <v>0</v>
       </c>
     </row>
@@ -59323,16 +58959,16 @@
       <c r="EF145" t="s">
         <v>137</v>
       </c>
-      <c r="EG145" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH145" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI145" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ145" s="14">
+      <c r="EG145">
+        <v>0</v>
+      </c>
+      <c r="EH145">
+        <v>0</v>
+      </c>
+      <c r="EI145">
+        <v>0</v>
+      </c>
+      <c r="EJ145">
         <v>0</v>
       </c>
     </row>
@@ -59745,17 +59381,17 @@
       <c r="EF146" t="s">
         <v>139</v>
       </c>
-      <c r="EG146" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH146" s="14">
-        <v>8374</v>
-      </c>
-      <c r="EI146" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ146" s="14">
-        <v>0</v>
+      <c r="EG146">
+        <v>0</v>
+      </c>
+      <c r="EH146">
+        <v>8199</v>
+      </c>
+      <c r="EI146">
+        <v>0</v>
+      </c>
+      <c r="EJ146">
+        <v>8199</v>
       </c>
     </row>
     <row r="147" spans="1:140" x14ac:dyDescent="0.3">
@@ -60167,16 +59803,16 @@
       <c r="EF147" t="s">
         <v>135</v>
       </c>
-      <c r="EG147" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH147" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI147" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ147" s="14">
+      <c r="EG147">
+        <v>0</v>
+      </c>
+      <c r="EH147">
+        <v>0</v>
+      </c>
+      <c r="EI147">
+        <v>0</v>
+      </c>
+      <c r="EJ147">
         <v>0</v>
       </c>
     </row>
@@ -60580,7 +60216,7 @@
       <c r="EC148">
         <v>0</v>
       </c>
-      <c r="ED148" s="14">
+      <c r="ED148">
         <v>5</v>
       </c>
       <c r="EE148">
@@ -60589,16 +60225,16 @@
       <c r="EF148" t="s">
         <v>139</v>
       </c>
-      <c r="EG148" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH148" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI148" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ148" s="14">
+      <c r="EG148">
+        <v>0</v>
+      </c>
+      <c r="EH148">
+        <v>0</v>
+      </c>
+      <c r="EI148">
+        <v>0</v>
+      </c>
+      <c r="EJ148">
         <v>0</v>
       </c>
     </row>
@@ -61002,7 +60638,7 @@
       <c r="EC149">
         <v>0</v>
       </c>
-      <c r="ED149" s="14">
+      <c r="ED149">
         <v>0</v>
       </c>
       <c r="EE149">
@@ -61011,16 +60647,16 @@
       <c r="EF149">
         <v>0</v>
       </c>
-      <c r="EG149" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH149" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI149" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ149" s="14">
+      <c r="EG149">
+        <v>0</v>
+      </c>
+      <c r="EH149">
+        <v>0</v>
+      </c>
+      <c r="EI149">
+        <v>0</v>
+      </c>
+      <c r="EJ149">
         <v>0</v>
       </c>
     </row>
@@ -61424,7 +61060,7 @@
       <c r="EC150">
         <v>0</v>
       </c>
-      <c r="ED150" s="14">
+      <c r="ED150">
         <v>90</v>
       </c>
       <c r="EE150">
@@ -61433,16 +61069,16 @@
       <c r="EF150" t="s">
         <v>135</v>
       </c>
-      <c r="EG150" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH150" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI150" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ150" s="14">
+      <c r="EG150">
+        <v>0</v>
+      </c>
+      <c r="EH150">
+        <v>0</v>
+      </c>
+      <c r="EI150">
+        <v>0</v>
+      </c>
+      <c r="EJ150">
         <v>0</v>
       </c>
     </row>
@@ -61855,16 +61491,16 @@
       <c r="EF151" t="s">
         <v>135</v>
       </c>
-      <c r="EG151" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH151" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI151" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ151" s="14">
+      <c r="EG151">
+        <v>0</v>
+      </c>
+      <c r="EH151">
+        <v>0</v>
+      </c>
+      <c r="EI151">
+        <v>0</v>
+      </c>
+      <c r="EJ151">
         <v>0</v>
       </c>
     </row>
@@ -62277,16 +61913,16 @@
       <c r="EF152" t="s">
         <v>137</v>
       </c>
-      <c r="EG152" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH152" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI152" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ152" s="14">
+      <c r="EG152">
+        <v>0</v>
+      </c>
+      <c r="EH152">
+        <v>0</v>
+      </c>
+      <c r="EI152">
+        <v>0</v>
+      </c>
+      <c r="EJ152">
         <v>0</v>
       </c>
     </row>
@@ -62699,17 +62335,17 @@
       <c r="EF153" t="s">
         <v>135</v>
       </c>
-      <c r="EG153" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH153" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI153" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ153" s="14">
-        <v>0</v>
+      <c r="EG153">
+        <v>0</v>
+      </c>
+      <c r="EH153">
+        <v>699</v>
+      </c>
+      <c r="EI153">
+        <v>0</v>
+      </c>
+      <c r="EJ153">
+        <v>699</v>
       </c>
     </row>
     <row r="154" spans="1:140" x14ac:dyDescent="0.3">
@@ -63121,16 +62757,16 @@
       <c r="EF154" t="s">
         <v>135</v>
       </c>
-      <c r="EG154" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH154" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI154" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ154" s="14">
+      <c r="EG154">
+        <v>0</v>
+      </c>
+      <c r="EH154">
+        <v>0</v>
+      </c>
+      <c r="EI154">
+        <v>0</v>
+      </c>
+      <c r="EJ154">
         <v>0</v>
       </c>
     </row>
@@ -63543,16 +63179,16 @@
       <c r="EF155" t="s">
         <v>135</v>
       </c>
-      <c r="EG155" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH155" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI155" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ155" s="14">
+      <c r="EG155">
+        <v>0</v>
+      </c>
+      <c r="EH155">
+        <v>0</v>
+      </c>
+      <c r="EI155">
+        <v>0</v>
+      </c>
+      <c r="EJ155">
         <v>0</v>
       </c>
     </row>
@@ -63965,16 +63601,16 @@
       <c r="EF156" t="s">
         <v>135</v>
       </c>
-      <c r="EG156" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH156" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI156" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ156" s="14">
+      <c r="EG156">
+        <v>0</v>
+      </c>
+      <c r="EH156">
+        <v>0</v>
+      </c>
+      <c r="EI156">
+        <v>0</v>
+      </c>
+      <c r="EJ156">
         <v>0</v>
       </c>
     </row>
@@ -64387,16 +64023,16 @@
       <c r="EF157" t="s">
         <v>135</v>
       </c>
-      <c r="EG157" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH157" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI157" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ157" s="14">
+      <c r="EG157">
+        <v>0</v>
+      </c>
+      <c r="EH157">
+        <v>0</v>
+      </c>
+      <c r="EI157">
+        <v>0</v>
+      </c>
+      <c r="EJ157">
         <v>0</v>
       </c>
     </row>
@@ -64809,16 +64445,16 @@
       <c r="EF158" t="s">
         <v>135</v>
       </c>
-      <c r="EG158" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH158" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI158" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ158" s="14">
+      <c r="EG158">
+        <v>0</v>
+      </c>
+      <c r="EH158">
+        <v>0</v>
+      </c>
+      <c r="EI158">
+        <v>0</v>
+      </c>
+      <c r="EJ158">
         <v>0</v>
       </c>
     </row>
@@ -65160,13 +64796,13 @@
         <v>2760</v>
       </c>
       <c r="DI159">
-        <v>2901</v>
+        <v>2914</v>
       </c>
       <c r="DJ159">
         <v>2745</v>
       </c>
       <c r="DK159">
-        <v>2901</v>
+        <v>2914</v>
       </c>
       <c r="DL159">
         <v>4608</v>
@@ -65178,7 +64814,7 @@
         <v>0</v>
       </c>
       <c r="DO159">
-        <v>4522</v>
+        <v>4609</v>
       </c>
       <c r="DP159">
         <v>415.794898952854</v>
@@ -65187,7 +64823,7 @@
         <v>4443</v>
       </c>
       <c r="DR159">
-        <v>4522</v>
+        <v>4609</v>
       </c>
       <c r="DS159">
         <v>7177</v>
@@ -65199,13 +64835,13 @@
         <v>0</v>
       </c>
       <c r="DV159">
-        <v>6874</v>
+        <v>7225</v>
       </c>
       <c r="DW159">
         <v>7188</v>
       </c>
       <c r="DX159">
-        <v>6874</v>
+        <v>7225</v>
       </c>
       <c r="DY159">
         <v>10213</v>
@@ -65217,13 +64853,13 @@
         <v>0</v>
       </c>
       <c r="EB159">
-        <v>9910</v>
+        <v>10717</v>
       </c>
       <c r="EC159">
         <v>10324</v>
       </c>
       <c r="ED159">
-        <v>9910</v>
+        <v>10717</v>
       </c>
       <c r="EE159">
         <v>14249</v>
@@ -65231,17 +64867,17 @@
       <c r="EF159" t="s">
         <v>139</v>
       </c>
-      <c r="EG159" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH159" s="14">
-        <v>13200</v>
-      </c>
-      <c r="EI159" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ159" s="14">
-        <v>0</v>
+      <c r="EG159">
+        <v>0</v>
+      </c>
+      <c r="EH159">
+        <v>14349</v>
+      </c>
+      <c r="EI159">
+        <v>0</v>
+      </c>
+      <c r="EJ159">
+        <v>14349</v>
       </c>
     </row>
     <row r="160" spans="1:140" x14ac:dyDescent="0.3">
@@ -65653,16 +65289,16 @@
       <c r="EF160" t="s">
         <v>135</v>
       </c>
-      <c r="EG160" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH160" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI160" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ160" s="14">
+      <c r="EG160">
+        <v>0</v>
+      </c>
+      <c r="EH160">
+        <v>0</v>
+      </c>
+      <c r="EI160">
+        <v>0</v>
+      </c>
+      <c r="EJ160">
         <v>0</v>
       </c>
     </row>
@@ -66066,7 +65702,7 @@
       <c r="EC161">
         <v>0</v>
       </c>
-      <c r="ED161" s="14">
+      <c r="ED161">
         <v>142</v>
       </c>
       <c r="EE161">
@@ -66075,16 +65711,16 @@
       <c r="EF161" t="s">
         <v>137</v>
       </c>
-      <c r="EG161" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH161" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI161" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ161" s="14">
+      <c r="EG161">
+        <v>0</v>
+      </c>
+      <c r="EH161">
+        <v>0</v>
+      </c>
+      <c r="EI161">
+        <v>0</v>
+      </c>
+      <c r="EJ161">
         <v>0</v>
       </c>
     </row>
@@ -66488,7 +66124,7 @@
       <c r="EC162">
         <v>0</v>
       </c>
-      <c r="ED162" s="14">
+      <c r="ED162">
         <v>16</v>
       </c>
       <c r="EE162">
@@ -66497,16 +66133,16 @@
       <c r="EF162" t="s">
         <v>135</v>
       </c>
-      <c r="EG162" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH162" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI162" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ162" s="14">
+      <c r="EG162">
+        <v>0</v>
+      </c>
+      <c r="EH162">
+        <v>0</v>
+      </c>
+      <c r="EI162">
+        <v>0</v>
+      </c>
+      <c r="EJ162">
         <v>0</v>
       </c>
     </row>
@@ -66919,16 +66555,16 @@
       <c r="EF163" t="s">
         <v>135</v>
       </c>
-      <c r="EG163" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH163" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI163" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ163" s="14">
+      <c r="EG163">
+        <v>0</v>
+      </c>
+      <c r="EH163">
+        <v>0</v>
+      </c>
+      <c r="EI163">
+        <v>0</v>
+      </c>
+      <c r="EJ163">
         <v>0</v>
       </c>
     </row>
@@ -67341,16 +66977,16 @@
       <c r="EF164" t="s">
         <v>135</v>
       </c>
-      <c r="EG164" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH164" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI164" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ164" s="14">
+      <c r="EG164">
+        <v>0</v>
+      </c>
+      <c r="EH164">
+        <v>0</v>
+      </c>
+      <c r="EI164">
+        <v>0</v>
+      </c>
+      <c r="EJ164">
         <v>0</v>
       </c>
     </row>
@@ -67763,16 +67399,16 @@
       <c r="EF165" t="s">
         <v>135</v>
       </c>
-      <c r="EG165" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH165" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI165" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ165" s="14">
+      <c r="EG165">
+        <v>0</v>
+      </c>
+      <c r="EH165">
+        <v>0</v>
+      </c>
+      <c r="EI165">
+        <v>0</v>
+      </c>
+      <c r="EJ165">
         <v>0</v>
       </c>
     </row>
@@ -68185,16 +67821,16 @@
       <c r="EF166">
         <v>0</v>
       </c>
-      <c r="EG166" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH166" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI166" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ166" s="14">
+      <c r="EG166">
+        <v>0</v>
+      </c>
+      <c r="EH166">
+        <v>0</v>
+      </c>
+      <c r="EI166">
+        <v>0</v>
+      </c>
+      <c r="EJ166">
         <v>0</v>
       </c>
     </row>
@@ -68607,16 +68243,16 @@
       <c r="EF167" t="s">
         <v>135</v>
       </c>
-      <c r="EG167" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH167" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI167" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ167" s="14">
+      <c r="EG167">
+        <v>0</v>
+      </c>
+      <c r="EH167">
+        <v>0</v>
+      </c>
+      <c r="EI167">
+        <v>0</v>
+      </c>
+      <c r="EJ167">
         <v>0</v>
       </c>
     </row>
@@ -69029,17 +68665,17 @@
       <c r="EF168" t="s">
         <v>135</v>
       </c>
-      <c r="EG168" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH168" s="14">
+      <c r="EG168">
+        <v>0</v>
+      </c>
+      <c r="EH168">
         <v>205</v>
       </c>
-      <c r="EI168" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ168" s="14">
-        <v>0</v>
+      <c r="EI168">
+        <v>0</v>
+      </c>
+      <c r="EJ168">
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:140" x14ac:dyDescent="0.3">
@@ -69451,16 +69087,16 @@
       <c r="EF169" t="s">
         <v>135</v>
       </c>
-      <c r="EG169" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH169" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI169" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ169" s="14">
+      <c r="EG169">
+        <v>0</v>
+      </c>
+      <c r="EH169">
+        <v>0</v>
+      </c>
+      <c r="EI169">
+        <v>0</v>
+      </c>
+      <c r="EJ169">
         <v>0</v>
       </c>
     </row>
@@ -69873,16 +69509,16 @@
       <c r="EF170" t="s">
         <v>135</v>
       </c>
-      <c r="EG170" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH170" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI170" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ170" s="14">
+      <c r="EG170">
+        <v>0</v>
+      </c>
+      <c r="EH170">
+        <v>0</v>
+      </c>
+      <c r="EI170">
+        <v>0</v>
+      </c>
+      <c r="EJ170">
         <v>0</v>
       </c>
     </row>
@@ -70295,16 +69931,16 @@
       <c r="EF171" t="s">
         <v>135</v>
       </c>
-      <c r="EG171" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH171" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI171" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ171" s="14">
+      <c r="EG171">
+        <v>0</v>
+      </c>
+      <c r="EH171">
+        <v>0</v>
+      </c>
+      <c r="EI171">
+        <v>0</v>
+      </c>
+      <c r="EJ171">
         <v>0</v>
       </c>
     </row>
@@ -70717,16 +70353,16 @@
       <c r="EF172" t="s">
         <v>135</v>
       </c>
-      <c r="EG172" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH172" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI172" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ172" s="14">
+      <c r="EG172">
+        <v>0</v>
+      </c>
+      <c r="EH172">
+        <v>0</v>
+      </c>
+      <c r="EI172">
+        <v>0</v>
+      </c>
+      <c r="EJ172">
         <v>0</v>
       </c>
     </row>
@@ -71139,16 +70775,16 @@
       <c r="EF173" t="s">
         <v>139</v>
       </c>
-      <c r="EG173" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH173" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI173" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ173" s="14">
+      <c r="EG173">
+        <v>0</v>
+      </c>
+      <c r="EH173">
+        <v>0</v>
+      </c>
+      <c r="EI173">
+        <v>0</v>
+      </c>
+      <c r="EJ173">
         <v>0</v>
       </c>
     </row>
@@ -71561,16 +71197,16 @@
       <c r="EF174" t="s">
         <v>135</v>
       </c>
-      <c r="EG174" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH174" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI174" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ174" s="14">
+      <c r="EG174">
+        <v>0</v>
+      </c>
+      <c r="EH174">
+        <v>0</v>
+      </c>
+      <c r="EI174">
+        <v>0</v>
+      </c>
+      <c r="EJ174">
         <v>0</v>
       </c>
     </row>
@@ -71983,16 +71619,16 @@
       <c r="EF175" t="s">
         <v>135</v>
       </c>
-      <c r="EG175" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH175" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI175" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ175" s="14">
+      <c r="EG175">
+        <v>0</v>
+      </c>
+      <c r="EH175">
+        <v>0</v>
+      </c>
+      <c r="EI175">
+        <v>0</v>
+      </c>
+      <c r="EJ175">
         <v>0</v>
       </c>
     </row>
@@ -72405,16 +72041,16 @@
       <c r="EF176" t="s">
         <v>139</v>
       </c>
-      <c r="EG176" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH176" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI176" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ176" s="14">
+      <c r="EG176">
+        <v>0</v>
+      </c>
+      <c r="EH176">
+        <v>0</v>
+      </c>
+      <c r="EI176">
+        <v>0</v>
+      </c>
+      <c r="EJ176">
         <v>0</v>
       </c>
     </row>
@@ -72818,7 +72454,7 @@
       <c r="EC177">
         <v>0</v>
       </c>
-      <c r="ED177" s="14">
+      <c r="ED177">
         <v>1048</v>
       </c>
       <c r="EE177">
@@ -72827,16 +72463,16 @@
       <c r="EF177" t="s">
         <v>135</v>
       </c>
-      <c r="EG177" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH177" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI177" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ177" s="14">
+      <c r="EG177">
+        <v>0</v>
+      </c>
+      <c r="EH177">
+        <v>0</v>
+      </c>
+      <c r="EI177">
+        <v>0</v>
+      </c>
+      <c r="EJ177">
         <v>0</v>
       </c>
     </row>
@@ -73249,16 +72885,16 @@
       <c r="EF178" t="s">
         <v>137</v>
       </c>
-      <c r="EG178" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH178" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI178" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ178" s="14">
+      <c r="EG178">
+        <v>0</v>
+      </c>
+      <c r="EH178">
+        <v>0</v>
+      </c>
+      <c r="EI178">
+        <v>0</v>
+      </c>
+      <c r="EJ178">
         <v>0</v>
       </c>
     </row>
@@ -73671,17 +73307,17 @@
       <c r="EF179" t="s">
         <v>135</v>
       </c>
-      <c r="EG179" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH179" s="14">
-        <v>1649</v>
-      </c>
-      <c r="EI179" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ179" s="14">
-        <v>0</v>
+      <c r="EG179">
+        <v>0</v>
+      </c>
+      <c r="EH179">
+        <v>1647</v>
+      </c>
+      <c r="EI179">
+        <v>0</v>
+      </c>
+      <c r="EJ179">
+        <v>1647</v>
       </c>
     </row>
     <row r="180" spans="1:140" x14ac:dyDescent="0.3">
@@ -74093,16 +73729,16 @@
       <c r="EF180" t="s">
         <v>135</v>
       </c>
-      <c r="EG180" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH180" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI180" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ180" s="14">
+      <c r="EG180">
+        <v>0</v>
+      </c>
+      <c r="EH180">
+        <v>0</v>
+      </c>
+      <c r="EI180">
+        <v>0</v>
+      </c>
+      <c r="EJ180">
         <v>0</v>
       </c>
     </row>
@@ -74515,16 +74151,16 @@
       <c r="EF181" t="s">
         <v>135</v>
       </c>
-      <c r="EG181" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH181" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI181" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ181" s="14">
+      <c r="EG181">
+        <v>0</v>
+      </c>
+      <c r="EH181">
+        <v>0</v>
+      </c>
+      <c r="EI181">
+        <v>0</v>
+      </c>
+      <c r="EJ181">
         <v>0</v>
       </c>
     </row>
@@ -74937,16 +74573,16 @@
       <c r="EF182" t="s">
         <v>135</v>
       </c>
-      <c r="EG182" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH182" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI182" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ182" s="14">
+      <c r="EG182">
+        <v>0</v>
+      </c>
+      <c r="EH182">
+        <v>0</v>
+      </c>
+      <c r="EI182">
+        <v>0</v>
+      </c>
+      <c r="EJ182">
         <v>0</v>
       </c>
     </row>
@@ -75359,16 +74995,16 @@
       <c r="EF183" t="s">
         <v>139</v>
       </c>
-      <c r="EG183" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH183" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI183" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ183" s="14">
+      <c r="EG183">
+        <v>0</v>
+      </c>
+      <c r="EH183">
+        <v>0</v>
+      </c>
+      <c r="EI183">
+        <v>0</v>
+      </c>
+      <c r="EJ183">
         <v>0</v>
       </c>
     </row>
@@ -75772,7 +75408,7 @@
       <c r="EC184">
         <v>0</v>
       </c>
-      <c r="ED184" s="14">
+      <c r="ED184">
         <v>1428</v>
       </c>
       <c r="EE184">
@@ -75781,16 +75417,16 @@
       <c r="EF184" t="s">
         <v>135</v>
       </c>
-      <c r="EG184" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH184" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI184" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ184" s="14">
+      <c r="EG184">
+        <v>0</v>
+      </c>
+      <c r="EH184">
+        <v>0</v>
+      </c>
+      <c r="EI184">
+        <v>0</v>
+      </c>
+      <c r="EJ184">
         <v>0</v>
       </c>
     </row>
@@ -76203,16 +75839,16 @@
       <c r="EF185" t="s">
         <v>135</v>
       </c>
-      <c r="EG185" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH185" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI185" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ185" s="14">
+      <c r="EG185">
+        <v>0</v>
+      </c>
+      <c r="EH185">
+        <v>0</v>
+      </c>
+      <c r="EI185">
+        <v>0</v>
+      </c>
+      <c r="EJ185">
         <v>0</v>
       </c>
     </row>
@@ -76625,16 +76261,16 @@
       <c r="EF186" t="s">
         <v>135</v>
       </c>
-      <c r="EG186" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH186" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI186" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ186" s="14">
+      <c r="EG186">
+        <v>0</v>
+      </c>
+      <c r="EH186">
+        <v>0</v>
+      </c>
+      <c r="EI186">
+        <v>0</v>
+      </c>
+      <c r="EJ186">
         <v>0</v>
       </c>
     </row>
@@ -77047,16 +76683,16 @@
       <c r="EF187" t="s">
         <v>135</v>
       </c>
-      <c r="EG187" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH187" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI187" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ187" s="14">
+      <c r="EG187">
+        <v>0</v>
+      </c>
+      <c r="EH187">
+        <v>0</v>
+      </c>
+      <c r="EI187">
+        <v>0</v>
+      </c>
+      <c r="EJ187">
         <v>0</v>
       </c>
     </row>
@@ -77469,16 +77105,16 @@
       <c r="EF188" t="s">
         <v>135</v>
       </c>
-      <c r="EG188" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH188" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI188" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ188" s="14">
+      <c r="EG188">
+        <v>0</v>
+      </c>
+      <c r="EH188">
+        <v>0</v>
+      </c>
+      <c r="EI188">
+        <v>0</v>
+      </c>
+      <c r="EJ188">
         <v>0</v>
       </c>
     </row>
@@ -77891,16 +77527,16 @@
       <c r="EF189" t="s">
         <v>135</v>
       </c>
-      <c r="EG189" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH189" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI189" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ189" s="14">
+      <c r="EG189">
+        <v>0</v>
+      </c>
+      <c r="EH189">
+        <v>0</v>
+      </c>
+      <c r="EI189">
+        <v>0</v>
+      </c>
+      <c r="EJ189">
         <v>0</v>
       </c>
     </row>
@@ -78313,16 +77949,16 @@
       <c r="EF190" t="s">
         <v>135</v>
       </c>
-      <c r="EG190" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH190" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI190" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ190" s="14">
+      <c r="EG190">
+        <v>0</v>
+      </c>
+      <c r="EH190">
+        <v>0</v>
+      </c>
+      <c r="EI190">
+        <v>0</v>
+      </c>
+      <c r="EJ190">
         <v>0</v>
       </c>
     </row>
@@ -78735,16 +78371,16 @@
       <c r="EF191" t="s">
         <v>135</v>
       </c>
-      <c r="EG191" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH191" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI191" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ191" s="14">
+      <c r="EG191">
+        <v>0</v>
+      </c>
+      <c r="EH191">
+        <v>0</v>
+      </c>
+      <c r="EI191">
+        <v>0</v>
+      </c>
+      <c r="EJ191">
         <v>0</v>
       </c>
     </row>
@@ -79157,16 +78793,16 @@
       <c r="EF192">
         <v>0</v>
       </c>
-      <c r="EG192" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH192" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI192" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ192" s="14">
+      <c r="EG192">
+        <v>0</v>
+      </c>
+      <c r="EH192">
+        <v>0</v>
+      </c>
+      <c r="EI192">
+        <v>0</v>
+      </c>
+      <c r="EJ192">
         <v>0</v>
       </c>
     </row>
@@ -79579,16 +79215,16 @@
       <c r="EF193" t="s">
         <v>135</v>
       </c>
-      <c r="EG193" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH193" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI193" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ193" s="14">
+      <c r="EG193">
+        <v>0</v>
+      </c>
+      <c r="EH193">
+        <v>0</v>
+      </c>
+      <c r="EI193">
+        <v>0</v>
+      </c>
+      <c r="EJ193">
         <v>0</v>
       </c>
     </row>
@@ -80001,16 +79637,16 @@
       <c r="EF194" t="s">
         <v>135</v>
       </c>
-      <c r="EG194" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH194" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI194" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ194" s="14">
+      <c r="EG194">
+        <v>0</v>
+      </c>
+      <c r="EH194">
+        <v>0</v>
+      </c>
+      <c r="EI194">
+        <v>0</v>
+      </c>
+      <c r="EJ194">
         <v>0</v>
       </c>
     </row>
@@ -80423,16 +80059,16 @@
       <c r="EF195" t="s">
         <v>135</v>
       </c>
-      <c r="EG195" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH195" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI195" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ195" s="14">
+      <c r="EG195">
+        <v>0</v>
+      </c>
+      <c r="EH195">
+        <v>0</v>
+      </c>
+      <c r="EI195">
+        <v>0</v>
+      </c>
+      <c r="EJ195">
         <v>0</v>
       </c>
     </row>
@@ -80845,16 +80481,16 @@
       <c r="EF196" t="s">
         <v>135</v>
       </c>
-      <c r="EG196" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH196" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI196" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ196" s="14">
+      <c r="EG196">
+        <v>0</v>
+      </c>
+      <c r="EH196">
+        <v>0</v>
+      </c>
+      <c r="EI196">
+        <v>0</v>
+      </c>
+      <c r="EJ196">
         <v>0</v>
       </c>
     </row>
@@ -81267,16 +80903,16 @@
       <c r="EF197" t="s">
         <v>135</v>
       </c>
-      <c r="EG197" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH197" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI197" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ197" s="14">
+      <c r="EG197">
+        <v>0</v>
+      </c>
+      <c r="EH197">
+        <v>0</v>
+      </c>
+      <c r="EI197">
+        <v>0</v>
+      </c>
+      <c r="EJ197">
         <v>0</v>
       </c>
     </row>
@@ -81689,16 +81325,16 @@
       <c r="EF198" t="s">
         <v>140</v>
       </c>
-      <c r="EG198" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH198" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI198" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ198" s="14">
+      <c r="EG198">
+        <v>0</v>
+      </c>
+      <c r="EH198">
+        <v>0</v>
+      </c>
+      <c r="EI198">
+        <v>0</v>
+      </c>
+      <c r="EJ198">
         <v>0</v>
       </c>
     </row>
@@ -82111,16 +81747,16 @@
       <c r="EF199" t="s">
         <v>139</v>
       </c>
-      <c r="EG199" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH199" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI199" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ199" s="14">
+      <c r="EG199">
+        <v>0</v>
+      </c>
+      <c r="EH199">
+        <v>0</v>
+      </c>
+      <c r="EI199">
+        <v>0</v>
+      </c>
+      <c r="EJ199">
         <v>0</v>
       </c>
     </row>
@@ -82533,16 +82169,16 @@
       <c r="EF200" t="s">
         <v>135</v>
       </c>
-      <c r="EG200" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH200" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI200" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ200" s="14">
+      <c r="EG200">
+        <v>0</v>
+      </c>
+      <c r="EH200">
+        <v>0</v>
+      </c>
+      <c r="EI200">
+        <v>0</v>
+      </c>
+      <c r="EJ200">
         <v>0</v>
       </c>
     </row>
@@ -82955,16 +82591,16 @@
       <c r="EF201" t="s">
         <v>139</v>
       </c>
-      <c r="EG201" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH201" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI201" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ201" s="14">
+      <c r="EG201">
+        <v>0</v>
+      </c>
+      <c r="EH201">
+        <v>0</v>
+      </c>
+      <c r="EI201">
+        <v>0</v>
+      </c>
+      <c r="EJ201">
         <v>0</v>
       </c>
     </row>
@@ -83377,16 +83013,16 @@
       <c r="EF202" t="s">
         <v>135</v>
       </c>
-      <c r="EG202" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH202" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI202" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ202" s="14">
+      <c r="EG202">
+        <v>0</v>
+      </c>
+      <c r="EH202">
+        <v>0</v>
+      </c>
+      <c r="EI202">
+        <v>0</v>
+      </c>
+      <c r="EJ202">
         <v>0</v>
       </c>
     </row>
@@ -83790,7 +83426,7 @@
       <c r="EC203">
         <v>0</v>
       </c>
-      <c r="ED203" s="14">
+      <c r="ED203">
         <v>23</v>
       </c>
       <c r="EE203">
@@ -83799,16 +83435,16 @@
       <c r="EF203" t="s">
         <v>140</v>
       </c>
-      <c r="EG203" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH203" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI203" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ203" s="14">
+      <c r="EG203">
+        <v>0</v>
+      </c>
+      <c r="EH203">
+        <v>0</v>
+      </c>
+      <c r="EI203">
+        <v>0</v>
+      </c>
+      <c r="EJ203">
         <v>0</v>
       </c>
     </row>
@@ -84221,17 +83857,17 @@
       <c r="EF204" t="s">
         <v>135</v>
       </c>
-      <c r="EG204" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH204" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI204" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ204" s="14">
-        <v>0</v>
+      <c r="EG204">
+        <v>0</v>
+      </c>
+      <c r="EH204">
+        <v>4630</v>
+      </c>
+      <c r="EI204">
+        <v>0</v>
+      </c>
+      <c r="EJ204">
+        <v>4630</v>
       </c>
     </row>
     <row r="205" spans="1:140" x14ac:dyDescent="0.3">
@@ -84590,7 +84226,7 @@
         <v>0</v>
       </c>
       <c r="DO205">
-        <v>7979</v>
+        <v>8099</v>
       </c>
       <c r="DP205">
         <v>3316.0755663393202</v>
@@ -84599,7 +84235,7 @@
         <v>7741.6</v>
       </c>
       <c r="DR205">
-        <v>7979</v>
+        <v>8099</v>
       </c>
       <c r="DS205">
         <v>10505</v>
@@ -84611,13 +84247,13 @@
         <v>0</v>
       </c>
       <c r="DV205">
-        <v>11768</v>
+        <v>12665</v>
       </c>
       <c r="DW205">
         <v>10871.6</v>
       </c>
       <c r="DX205">
-        <v>11768</v>
+        <v>12665</v>
       </c>
       <c r="DY205">
         <v>14575</v>
@@ -84629,13 +84265,13 @@
         <v>0</v>
       </c>
       <c r="EB205">
-        <v>15888</v>
+        <v>17323</v>
       </c>
       <c r="EC205">
         <v>14976.6</v>
       </c>
       <c r="ED205">
-        <v>15888</v>
+        <v>17323</v>
       </c>
       <c r="EE205">
         <v>18161</v>
@@ -84643,17 +84279,17 @@
       <c r="EF205" t="s">
         <v>139</v>
       </c>
-      <c r="EG205" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH205" s="14">
-        <v>20100</v>
-      </c>
-      <c r="EI205" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ205" s="14">
-        <v>0</v>
+      <c r="EG205">
+        <v>0</v>
+      </c>
+      <c r="EH205">
+        <v>21548</v>
+      </c>
+      <c r="EI205">
+        <v>0</v>
+      </c>
+      <c r="EJ205">
+        <v>21548</v>
       </c>
     </row>
     <row r="206" spans="1:140" x14ac:dyDescent="0.3">
@@ -85065,16 +84701,16 @@
       <c r="EF206" t="s">
         <v>140</v>
       </c>
-      <c r="EG206" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH206" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI206" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ206" s="14">
+      <c r="EG206">
+        <v>0</v>
+      </c>
+      <c r="EH206">
+        <v>0</v>
+      </c>
+      <c r="EI206">
+        <v>0</v>
+      </c>
+      <c r="EJ206">
         <v>0</v>
       </c>
     </row>
@@ -85487,17 +85123,17 @@
       <c r="EF207" t="s">
         <v>135</v>
       </c>
-      <c r="EG207" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH207" s="14">
-        <v>18500</v>
-      </c>
-      <c r="EI207" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ207" s="14">
-        <v>0</v>
+      <c r="EG207">
+        <v>0</v>
+      </c>
+      <c r="EH207">
+        <v>18503</v>
+      </c>
+      <c r="EI207">
+        <v>0</v>
+      </c>
+      <c r="EJ207">
+        <v>18503</v>
       </c>
     </row>
     <row r="208" spans="1:140" x14ac:dyDescent="0.3">
@@ -85909,16 +85545,16 @@
       <c r="EF208" t="s">
         <v>135</v>
       </c>
-      <c r="EG208" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH208" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI208" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ208" s="14">
+      <c r="EG208">
+        <v>0</v>
+      </c>
+      <c r="EH208">
+        <v>0</v>
+      </c>
+      <c r="EI208">
+        <v>0</v>
+      </c>
+      <c r="EJ208">
         <v>0</v>
       </c>
     </row>
@@ -86331,16 +85967,16 @@
       <c r="EF209" t="s">
         <v>140</v>
       </c>
-      <c r="EG209" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH209" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI209" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ209" s="14">
+      <c r="EG209">
+        <v>0</v>
+      </c>
+      <c r="EH209">
+        <v>0</v>
+      </c>
+      <c r="EI209">
+        <v>0</v>
+      </c>
+      <c r="EJ209">
         <v>0</v>
       </c>
     </row>
@@ -86753,16 +86389,16 @@
       <c r="EF210" t="s">
         <v>135</v>
       </c>
-      <c r="EG210" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH210" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI210" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ210" s="14">
+      <c r="EG210">
+        <v>0</v>
+      </c>
+      <c r="EH210">
+        <v>0</v>
+      </c>
+      <c r="EI210">
+        <v>0</v>
+      </c>
+      <c r="EJ210">
         <v>0</v>
       </c>
     </row>
@@ -87175,16 +86811,16 @@
       <c r="EF211" t="s">
         <v>135</v>
       </c>
-      <c r="EG211" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH211" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI211" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ211" s="14">
+      <c r="EG211">
+        <v>0</v>
+      </c>
+      <c r="EH211">
+        <v>0</v>
+      </c>
+      <c r="EI211">
+        <v>0</v>
+      </c>
+      <c r="EJ211">
         <v>0</v>
       </c>
     </row>
@@ -87583,13 +87219,13 @@
         <v>0</v>
       </c>
       <c r="EB212">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="EC212">
         <v>1175.5</v>
       </c>
       <c r="ED212">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="EE212">
         <v>1577</v>
@@ -87597,17 +87233,17 @@
       <c r="EF212" t="s">
         <v>135</v>
       </c>
-      <c r="EG212" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH212" s="14">
-        <v>1726</v>
-      </c>
-      <c r="EI212" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ212" s="14">
-        <v>0</v>
+      <c r="EG212">
+        <v>0</v>
+      </c>
+      <c r="EH212">
+        <v>1798</v>
+      </c>
+      <c r="EI212">
+        <v>0</v>
+      </c>
+      <c r="EJ212">
+        <v>1798</v>
       </c>
     </row>
     <row r="213" spans="1:140" x14ac:dyDescent="0.3">
@@ -88019,17 +87655,17 @@
       <c r="EF213" t="s">
         <v>135</v>
       </c>
-      <c r="EG213" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH213" s="14">
-        <v>3589</v>
-      </c>
-      <c r="EI213" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ213" s="14">
-        <v>0</v>
+      <c r="EG213">
+        <v>0</v>
+      </c>
+      <c r="EH213">
+        <v>3656</v>
+      </c>
+      <c r="EI213">
+        <v>0</v>
+      </c>
+      <c r="EJ213">
+        <v>3656</v>
       </c>
     </row>
     <row r="214" spans="1:140" x14ac:dyDescent="0.3">
@@ -88441,16 +88077,16 @@
       <c r="EF214" t="s">
         <v>135</v>
       </c>
-      <c r="EG214" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH214" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI214" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ214" s="14">
+      <c r="EG214">
+        <v>0</v>
+      </c>
+      <c r="EH214">
+        <v>0</v>
+      </c>
+      <c r="EI214">
+        <v>0</v>
+      </c>
+      <c r="EJ214">
         <v>0</v>
       </c>
     </row>
@@ -88854,7 +88490,7 @@
       <c r="EC215">
         <v>0</v>
       </c>
-      <c r="ED215" s="14">
+      <c r="ED215">
         <v>5817</v>
       </c>
       <c r="EE215">
@@ -88863,16 +88499,16 @@
       <c r="EF215" t="s">
         <v>139</v>
       </c>
-      <c r="EG215" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH215" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI215" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ215" s="14">
+      <c r="EG215">
+        <v>0</v>
+      </c>
+      <c r="EH215">
+        <v>0</v>
+      </c>
+      <c r="EI215">
+        <v>0</v>
+      </c>
+      <c r="EJ215">
         <v>0</v>
       </c>
     </row>
@@ -89285,16 +88921,16 @@
       <c r="EF216">
         <v>0</v>
       </c>
-      <c r="EG216" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH216" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI216" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ216" s="14">
+      <c r="EG216">
+        <v>0</v>
+      </c>
+      <c r="EH216">
+        <v>0</v>
+      </c>
+      <c r="EI216">
+        <v>0</v>
+      </c>
+      <c r="EJ216">
         <v>0</v>
       </c>
     </row>
@@ -89707,16 +89343,16 @@
       <c r="EF217" t="s">
         <v>135</v>
       </c>
-      <c r="EG217" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH217" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI217" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ217" s="14">
+      <c r="EG217">
+        <v>0</v>
+      </c>
+      <c r="EH217">
+        <v>0</v>
+      </c>
+      <c r="EI217">
+        <v>0</v>
+      </c>
+      <c r="EJ217">
         <v>0</v>
       </c>
     </row>
@@ -90129,17 +89765,17 @@
       <c r="EF218" t="s">
         <v>135</v>
       </c>
-      <c r="EG218" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH218" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI218" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ218" s="14">
-        <v>0</v>
+      <c r="EG218">
+        <v>0</v>
+      </c>
+      <c r="EH218">
+        <v>4078</v>
+      </c>
+      <c r="EI218">
+        <v>0</v>
+      </c>
+      <c r="EJ218">
+        <v>4078</v>
       </c>
     </row>
     <row r="219" spans="1:140" x14ac:dyDescent="0.3">
@@ -90551,16 +90187,16 @@
       <c r="EF219" t="s">
         <v>140</v>
       </c>
-      <c r="EG219" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH219" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI219" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ219" s="14">
+      <c r="EG219">
+        <v>0</v>
+      </c>
+      <c r="EH219">
+        <v>0</v>
+      </c>
+      <c r="EI219">
+        <v>0</v>
+      </c>
+      <c r="EJ219">
         <v>0</v>
       </c>
     </row>
@@ -90973,16 +90609,16 @@
       <c r="EF220" t="s">
         <v>135</v>
       </c>
-      <c r="EG220" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH220" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI220" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ220" s="14">
+      <c r="EG220">
+        <v>0</v>
+      </c>
+      <c r="EH220">
+        <v>0</v>
+      </c>
+      <c r="EI220">
+        <v>0</v>
+      </c>
+      <c r="EJ220">
         <v>0</v>
       </c>
     </row>
@@ -91395,16 +91031,16 @@
       <c r="EF221" t="s">
         <v>135</v>
       </c>
-      <c r="EG221" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH221" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI221" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ221" s="14">
+      <c r="EG221">
+        <v>0</v>
+      </c>
+      <c r="EH221">
+        <v>0</v>
+      </c>
+      <c r="EI221">
+        <v>0</v>
+      </c>
+      <c r="EJ221">
         <v>0</v>
       </c>
     </row>
@@ -91817,16 +91453,16 @@
       <c r="EF222" t="s">
         <v>137</v>
       </c>
-      <c r="EG222" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH222" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI222" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ222" s="14">
+      <c r="EG222">
+        <v>0</v>
+      </c>
+      <c r="EH222">
+        <v>0</v>
+      </c>
+      <c r="EI222">
+        <v>0</v>
+      </c>
+      <c r="EJ222">
         <v>0</v>
       </c>
     </row>
@@ -92239,16 +91875,16 @@
       <c r="EF223" t="s">
         <v>135</v>
       </c>
-      <c r="EG223" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH223" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI223" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ223" s="14">
+      <c r="EG223">
+        <v>0</v>
+      </c>
+      <c r="EH223">
+        <v>0</v>
+      </c>
+      <c r="EI223">
+        <v>0</v>
+      </c>
+      <c r="EJ223">
         <v>0</v>
       </c>
     </row>
@@ -92608,7 +92244,7 @@
         <v>0</v>
       </c>
       <c r="DO224">
-        <v>7149</v>
+        <v>7339</v>
       </c>
       <c r="DP224">
         <v>6435.8538414930999</v>
@@ -92617,7 +92253,7 @@
         <v>0</v>
       </c>
       <c r="DR224">
-        <v>7149</v>
+        <v>7339</v>
       </c>
       <c r="DS224">
         <v>5995</v>
@@ -92629,13 +92265,13 @@
         <v>0</v>
       </c>
       <c r="DV224">
-        <v>8547</v>
+        <v>8551</v>
       </c>
       <c r="DW224">
         <v>0</v>
       </c>
       <c r="DX224">
-        <v>8547</v>
+        <v>8551</v>
       </c>
       <c r="DY224">
         <v>6667</v>
@@ -92647,13 +92283,13 @@
         <v>0</v>
       </c>
       <c r="EB224">
-        <v>9504</v>
+        <v>9424</v>
       </c>
       <c r="EC224">
         <v>0</v>
       </c>
       <c r="ED224">
-        <v>9504</v>
+        <v>9424</v>
       </c>
       <c r="EE224">
         <v>7816</v>
@@ -92661,17 +92297,17 @@
       <c r="EF224" t="s">
         <v>139</v>
       </c>
-      <c r="EG224" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH224" s="14">
-        <v>10504</v>
-      </c>
-      <c r="EI224" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ224" s="14">
-        <v>0</v>
+      <c r="EG224">
+        <v>0</v>
+      </c>
+      <c r="EH224">
+        <v>10917</v>
+      </c>
+      <c r="EI224">
+        <v>0</v>
+      </c>
+      <c r="EJ224">
+        <v>10917</v>
       </c>
     </row>
     <row r="225" spans="1:140" x14ac:dyDescent="0.3">
@@ -93083,16 +92719,16 @@
       <c r="EF225">
         <v>0</v>
       </c>
-      <c r="EG225" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH225" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI225" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ225" s="14">
+      <c r="EG225">
+        <v>0</v>
+      </c>
+      <c r="EH225">
+        <v>0</v>
+      </c>
+      <c r="EI225">
+        <v>0</v>
+      </c>
+      <c r="EJ225">
         <v>0</v>
       </c>
     </row>
@@ -93505,16 +93141,16 @@
       <c r="EF226" t="s">
         <v>135</v>
       </c>
-      <c r="EG226" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH226" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI226" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ226" s="14">
+      <c r="EG226">
+        <v>0</v>
+      </c>
+      <c r="EH226">
+        <v>0</v>
+      </c>
+      <c r="EI226">
+        <v>0</v>
+      </c>
+      <c r="EJ226">
         <v>0</v>
       </c>
     </row>
@@ -93927,16 +93563,16 @@
       <c r="EF227" t="s">
         <v>135</v>
       </c>
-      <c r="EG227" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH227" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI227" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ227" s="14">
+      <c r="EG227">
+        <v>0</v>
+      </c>
+      <c r="EH227">
+        <v>0</v>
+      </c>
+      <c r="EI227">
+        <v>0</v>
+      </c>
+      <c r="EJ227">
         <v>0</v>
       </c>
     </row>
@@ -94349,16 +93985,16 @@
       <c r="EF228" t="s">
         <v>137</v>
       </c>
-      <c r="EG228" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH228" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI228" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ228" s="14">
+      <c r="EG228">
+        <v>0</v>
+      </c>
+      <c r="EH228">
+        <v>0</v>
+      </c>
+      <c r="EI228">
+        <v>0</v>
+      </c>
+      <c r="EJ228">
         <v>0</v>
       </c>
     </row>
@@ -94771,16 +94407,16 @@
       <c r="EF229" t="s">
         <v>135</v>
       </c>
-      <c r="EG229" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH229" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI229" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ229" s="14">
+      <c r="EG229">
+        <v>0</v>
+      </c>
+      <c r="EH229">
+        <v>0</v>
+      </c>
+      <c r="EI229">
+        <v>0</v>
+      </c>
+      <c r="EJ229">
         <v>0</v>
       </c>
     </row>
@@ -95193,16 +94829,16 @@
       <c r="EF230" t="s">
         <v>140</v>
       </c>
-      <c r="EG230" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH230" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI230" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ230" s="14">
+      <c r="EG230">
+        <v>0</v>
+      </c>
+      <c r="EH230">
+        <v>0</v>
+      </c>
+      <c r="EI230">
+        <v>0</v>
+      </c>
+      <c r="EJ230">
         <v>0</v>
       </c>
     </row>
@@ -95603,10 +95239,10 @@
       <c r="EB231">
         <v>0</v>
       </c>
-      <c r="EC231" s="14">
+      <c r="EC231">
         <v>1818</v>
       </c>
-      <c r="ED231" s="14">
+      <c r="ED231">
         <v>2439</v>
       </c>
       <c r="EE231">
@@ -95615,16 +95251,16 @@
       <c r="EF231" t="s">
         <v>135</v>
       </c>
-      <c r="EG231" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH231" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI231" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ231" s="14">
+      <c r="EG231">
+        <v>0</v>
+      </c>
+      <c r="EH231">
+        <v>0</v>
+      </c>
+      <c r="EI231">
+        <v>0</v>
+      </c>
+      <c r="EJ231">
         <v>0</v>
       </c>
     </row>
@@ -96037,16 +95673,16 @@
       <c r="EF232" t="s">
         <v>139</v>
       </c>
-      <c r="EG232" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH232" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI232" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ232" s="14">
+      <c r="EG232">
+        <v>0</v>
+      </c>
+      <c r="EH232">
+        <v>0</v>
+      </c>
+      <c r="EI232">
+        <v>0</v>
+      </c>
+      <c r="EJ232">
         <v>0</v>
       </c>
     </row>
@@ -96427,13 +96063,13 @@
         <v>0</v>
       </c>
       <c r="DV233">
-        <v>75770</v>
+        <v>76274</v>
       </c>
       <c r="DW233">
         <v>76299</v>
       </c>
       <c r="DX233">
-        <v>75770</v>
+        <v>76274</v>
       </c>
       <c r="DY233">
         <v>73814</v>
@@ -96445,13 +96081,13 @@
         <v>0</v>
       </c>
       <c r="EB233">
-        <v>95495</v>
+        <v>96131</v>
       </c>
       <c r="EC233">
         <v>95519</v>
       </c>
       <c r="ED233">
-        <v>95495</v>
+        <v>96313</v>
       </c>
       <c r="EE233">
         <v>93713</v>
@@ -96459,17 +96095,17 @@
       <c r="EF233" t="s">
         <v>139</v>
       </c>
-      <c r="EG233" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH233" s="14">
-        <v>122900</v>
-      </c>
-      <c r="EI233" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ233" s="14">
-        <v>0</v>
+      <c r="EG233">
+        <v>0</v>
+      </c>
+      <c r="EH233">
+        <v>123004</v>
+      </c>
+      <c r="EI233">
+        <v>0</v>
+      </c>
+      <c r="EJ233">
+        <v>123004</v>
       </c>
     </row>
     <row r="234" spans="1:140" x14ac:dyDescent="0.3">
@@ -96881,16 +96517,16 @@
       <c r="EF234" t="s">
         <v>135</v>
       </c>
-      <c r="EG234" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH234" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI234" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ234" s="14">
+      <c r="EG234">
+        <v>0</v>
+      </c>
+      <c r="EH234">
+        <v>0</v>
+      </c>
+      <c r="EI234">
+        <v>0</v>
+      </c>
+      <c r="EJ234">
         <v>0</v>
       </c>
     </row>
@@ -97303,16 +96939,16 @@
       <c r="EF235" t="s">
         <v>135</v>
       </c>
-      <c r="EG235" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH235" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI235" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ235" s="14">
+      <c r="EG235">
+        <v>0</v>
+      </c>
+      <c r="EH235">
+        <v>0</v>
+      </c>
+      <c r="EI235">
+        <v>0</v>
+      </c>
+      <c r="EJ235">
         <v>0</v>
       </c>
     </row>
@@ -97725,16 +97361,16 @@
       <c r="EF236" t="s">
         <v>135</v>
       </c>
-      <c r="EG236" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH236" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI236" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ236" s="14">
+      <c r="EG236">
+        <v>0</v>
+      </c>
+      <c r="EH236">
+        <v>0</v>
+      </c>
+      <c r="EI236">
+        <v>0</v>
+      </c>
+      <c r="EJ236">
         <v>0</v>
       </c>
     </row>
@@ -98147,16 +97783,16 @@
       <c r="EF237" t="s">
         <v>135</v>
       </c>
-      <c r="EG237" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH237" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI237" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ237" s="14">
+      <c r="EG237">
+        <v>0</v>
+      </c>
+      <c r="EH237">
+        <v>0</v>
+      </c>
+      <c r="EI237">
+        <v>0</v>
+      </c>
+      <c r="EJ237">
         <v>0</v>
       </c>
     </row>
@@ -98569,16 +98205,16 @@
       <c r="EF238">
         <v>0</v>
       </c>
-      <c r="EG238" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH238" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI238" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ238" s="14">
+      <c r="EG238">
+        <v>0</v>
+      </c>
+      <c r="EH238">
+        <v>0</v>
+      </c>
+      <c r="EI238">
+        <v>0</v>
+      </c>
+      <c r="EJ238">
         <v>0</v>
       </c>
     </row>
@@ -98991,16 +98627,16 @@
       <c r="EF239" t="s">
         <v>135</v>
       </c>
-      <c r="EG239" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH239" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI239" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ239" s="14">
+      <c r="EG239">
+        <v>0</v>
+      </c>
+      <c r="EH239">
+        <v>0</v>
+      </c>
+      <c r="EI239">
+        <v>0</v>
+      </c>
+      <c r="EJ239">
         <v>0</v>
       </c>
     </row>
@@ -99401,10 +99037,10 @@
       <c r="EB240">
         <v>0</v>
       </c>
-      <c r="EC240" s="14">
+      <c r="EC240">
         <v>250</v>
       </c>
-      <c r="ED240" s="14">
+      <c r="ED240">
         <v>253</v>
       </c>
       <c r="EE240">
@@ -99413,16 +99049,16 @@
       <c r="EF240" t="s">
         <v>135</v>
       </c>
-      <c r="EG240" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH240" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI240" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ240" s="14">
+      <c r="EG240">
+        <v>0</v>
+      </c>
+      <c r="EH240">
+        <v>0</v>
+      </c>
+      <c r="EI240">
+        <v>0</v>
+      </c>
+      <c r="EJ240">
         <v>0</v>
       </c>
     </row>
@@ -99835,16 +99471,16 @@
       <c r="EF241" t="s">
         <v>135</v>
       </c>
-      <c r="EG241" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH241" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI241" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ241" s="14">
+      <c r="EG241">
+        <v>0</v>
+      </c>
+      <c r="EH241">
+        <v>0</v>
+      </c>
+      <c r="EI241">
+        <v>0</v>
+      </c>
+      <c r="EJ241">
         <v>0</v>
       </c>
     </row>
@@ -100257,16 +99893,16 @@
       <c r="EF242" t="s">
         <v>135</v>
       </c>
-      <c r="EG242" s="14">
-        <v>0</v>
-      </c>
-      <c r="EH242" s="14">
-        <v>0</v>
-      </c>
-      <c r="EI242" s="14">
-        <v>0</v>
-      </c>
-      <c r="EJ242" s="14">
+      <c r="EG242">
+        <v>0</v>
+      </c>
+      <c r="EH242">
+        <v>0</v>
+      </c>
+      <c r="EI242">
+        <v>0</v>
+      </c>
+      <c r="EJ242">
         <v>0</v>
       </c>
     </row>
